--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/th_TH.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/th_TH.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5152">
   <si>
     <t>translation_group</t>
   </si>
@@ -15427,12 +15427,6 @@
   </si>
   <si>
     <t xml:space="preserve"> การแจ้งเตือน</t>
-  </si>
-  <si>
-    <t>2021-02-24T11:44:54.000000Z</t>
-  </si>
-  <si>
-    <t>2021-02-24T11: 44: 54.000000Z</t>
   </si>
   <si>
     <t>1 day ago</t>
@@ -15819,17 +15813,17 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D2772"/>
+  <dimension ref="A1:D2773"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="D2772" sqref="D2772"/>
+      <selection activeCell="D2773" sqref="D2773"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="9.10" style="0"/>
-    <col min="2" max="2" width="9.10" style="0"/>
-    <col min="3" max="3" width="9.10" style="0"/>
+    <col min="2" max="2" width="22" customWidth="true" style="0"/>
+    <col min="3" max="3" width="255.7109375" customWidth="true" style="0"/>
     <col min="4" max="4" width="9.10" style="0"/>
   </cols>
   <sheetData>
@@ -54476,18 +54470,10 @@
       </c>
     </row>
     <row r="2762" spans="1:4">
-      <c r="A2762" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2762" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2762" t="s">
-        <v>5136</v>
-      </c>
-      <c r="D2762" t="s">
-        <v>5137</v>
-      </c>
+      <c r="A2762"/>
+      <c r="B2762"/>
+      <c r="C2762"/>
+      <c r="D2762"/>
     </row>
     <row r="2763" spans="1:4">
       <c r="A2763" t="s">
@@ -54497,10 +54483,10 @@
         <v>4</v>
       </c>
       <c r="C2763" t="s">
-        <v>5138</v>
+        <v>5136</v>
       </c>
       <c r="D2763" t="s">
-        <v>5139</v>
+        <v>5137</v>
       </c>
     </row>
     <row r="2764" spans="1:4">
@@ -54511,10 +54497,10 @@
         <v>4</v>
       </c>
       <c r="C2764" t="s">
-        <v>5140</v>
+        <v>5138</v>
       </c>
       <c r="D2764" t="s">
-        <v>5141</v>
+        <v>5139</v>
       </c>
     </row>
     <row r="2765" spans="1:4">
@@ -54525,10 +54511,10 @@
         <v>4</v>
       </c>
       <c r="C2765" t="s">
-        <v>5142</v>
+        <v>5140</v>
       </c>
       <c r="D2765" t="s">
-        <v>5143</v>
+        <v>5141</v>
       </c>
     </row>
     <row r="2766" spans="1:4">
@@ -54539,10 +54525,10 @@
         <v>4</v>
       </c>
       <c r="C2766" t="s">
-        <v>5144</v>
+        <v>5142</v>
       </c>
       <c r="D2766" t="s">
-        <v>5145</v>
+        <v>5143</v>
       </c>
     </row>
     <row r="2767" spans="1:4">
@@ -54553,10 +54539,10 @@
         <v>4</v>
       </c>
       <c r="C2767" t="s">
-        <v>5146</v>
+        <v>5144</v>
       </c>
       <c r="D2767" t="s">
-        <v>5147</v>
+        <v>5145</v>
       </c>
     </row>
     <row r="2768" spans="1:4">
@@ -54567,10 +54553,10 @@
         <v>4</v>
       </c>
       <c r="C2768" t="s">
-        <v>5148</v>
+        <v>5146</v>
       </c>
       <c r="D2768" t="s">
-        <v>5149</v>
+        <v>5147</v>
       </c>
     </row>
     <row r="2769" spans="1:4">
@@ -54581,10 +54567,10 @@
         <v>4</v>
       </c>
       <c r="C2769" t="s">
-        <v>5150</v>
+        <v>5148</v>
       </c>
       <c r="D2769" t="s">
-        <v>5151</v>
+        <v>5149</v>
       </c>
     </row>
     <row r="2770" spans="1:4">
@@ -54623,11 +54609,17 @@
         <v>4</v>
       </c>
       <c r="C2772" t="s">
-        <v>5152</v>
+        <v>5150</v>
       </c>
       <c r="D2772" t="s">
-        <v>5153</v>
-      </c>
+        <v>5151</v>
+      </c>
+    </row>
+    <row r="2773" spans="1:4">
+      <c r="A2773"/>
+      <c r="B2773"/>
+      <c r="C2773"/>
+      <c r="D2773"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/th_TH.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/th_TH.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5835">
   <si>
     <t>translation_group</t>
   </si>
@@ -10094,7 +10094,7 @@
     <t>การตั้งค่า Seo</t>
   </si>
   <si>
-    <t>Fill in the fields for maximum results when finding your website in _x0003_search engines.</t>
+    <t>Fill in the fields for maximum results when finding your website in search engines.</t>
   </si>
   <si>
     <t>กรอกข้อมูลในช่องเพื่อให้ได้ผลลัพธ์สูงสุดเมื่อพบเว็บไซต์ของคุณในเครื่องมือค้นหา</t>
@@ -16948,6 +16948,592 @@
   </si>
   <si>
     <t>Mail providers</t>
+  </si>
+  <si>
+    <t>Welcome to Microweber</t>
+  </si>
+  <si>
+    <t>ยินดีต้อนรับสู่ Microweber</t>
+  </si>
+  <si>
+    <t>Use Microweber to build your website, online shop or blog.</t>
+  </si>
+  <si>
+    <t>ใช้ Microweber เพื่อสร้างเว็บไซต์ร้านค้าออนไลน์หรือบล็อกของคุณ</t>
+  </si>
+  <si>
+    <t>Create and edit content, sell online, manage orders and clients.</t>
+  </si>
+  <si>
+    <t>สร้างและแก้ไขเนื้อหาขายออนไลน์จัดการคำสั่งซื้อและลูกค้า</t>
+  </si>
+  <si>
+    <t>Remove</t>
+  </si>
+  <si>
+    <t>Abandoned cart's</t>
+  </si>
+  <si>
+    <t>You are using this template.</t>
+  </si>
+  <si>
+    <t>คุณกำลังใช้เทมเพลตนี้</t>
+  </si>
+  <si>
+    <t>The change will affect only the current page.</t>
+  </si>
+  <si>
+    <t>การเปลี่ยนแปลงจะมีผลเฉพาะเพจปัจจุบัน</t>
+  </si>
+  <si>
+    <t>Allow multiple templates</t>
+  </si>
+  <si>
+    <t>อนุญาตหลายเทมเพลต</t>
+  </si>
+  <si>
+    <t>If you allow multiple templates, you will be abble to use different templates when you create a new pages.</t>
+  </si>
+  <si>
+    <t>หากคุณอนุญาตหลายเทมเพลตคุณจะสามารถใช้เทมเพลตที่แตกต่างกันได้เมื่อคุณสร้างเพจใหม่</t>
+  </si>
+  <si>
+    <t>System e-mail website settings</t>
+  </si>
+  <si>
+    <t>การตั้งค่าเว็บไซต์ระบบอีเมล</t>
+  </si>
+  <si>
+    <t>Deliver messages related with new registration, password resets and others system functionalities.</t>
+  </si>
+  <si>
+    <t>ส่งข้อความที่เกี่ยวข้องกับการลงทะเบียนใหม่รีเซ็ตรหัสผ่านและฟังก์ชันระบบอื่น ๆ</t>
+  </si>
+  <si>
+    <t>From e-mail address</t>
+  </si>
+  <si>
+    <t>จากที่อยู่อีเมล</t>
+  </si>
+  <si>
+    <t>Ex. Your Website Name</t>
+  </si>
+  <si>
+    <t>เช่น ชื่อเว็บไซต์ของคุณ</t>
+  </si>
+  <si>
+    <t>General e-mail provider settings</t>
+  </si>
+  <si>
+    <t>การตั้งค่าผู้ให้บริการอีเมลทั่วไป</t>
+  </si>
+  <si>
+    <t>Set up your email provider.</t>
+  </si>
+  <si>
+    <t>ตั้งค่าผู้ให้บริการอีเมลของคุณ</t>
+  </si>
+  <si>
+    <t>The general e-mail provider will deliver all messages related with the website. Including system messages and contact form messages.</t>
+  </si>
+  <si>
+    <t>ผู้ให้บริการอีเมลทั่วไปจะส่งข้อความทั้งหมดที่เกี่ยวข้องกับเว็บไซต์ รวมถึงข้อความระบบและข้อความแบบฟอร์มการติดต่อ</t>
+  </si>
+  <si>
+    <t>Website Logo</t>
+  </si>
+  <si>
+    <t>โลโก้เว็บไซต์</t>
+  </si>
+  <si>
+    <t>Select an logo for your website.</t>
+  </si>
+  <si>
+    <t>เลือกโลโก้สำหรับเว็บไซต์ของคุณ</t>
+  </si>
+  <si>
+    <t>Upload logo</t>
+  </si>
+  <si>
+    <t>อัปโหลดโลโก้</t>
+  </si>
+  <si>
+    <t>Website Favicon</t>
+  </si>
+  <si>
+    <t>Favicon เว็บไซต์</t>
+  </si>
+  <si>
+    <t>Changing default language..</t>
+  </si>
+  <si>
+    <t>การเปลี่ยนภาษาเริ่มต้น ..</t>
+  </si>
+  <si>
+    <t>Clear cache..</t>
+  </si>
+  <si>
+    <t>ล้างแคช ..</t>
+  </si>
+  <si>
+    <t>Install Multilanguage Module</t>
+  </si>
+  <si>
+    <t>ติดตั้งโมดูลหลายภาษา</t>
+  </si>
+  <si>
+    <t>Users can register with temporary emails like - Mailinator, MailDrop, Guerrilla...s</t>
+  </si>
+  <si>
+    <t>Register users can automatically receive an automatic email from you. See the settings and post your messages.</t>
+  </si>
+  <si>
+    <t>ลงทะเบียนผู้ใช้สามารถรับอีเมลอัตโนมัติจากคุณโดยอัตโนมัติ ดูการตั้งค่าและโพสต์ข้อความของคุณ</t>
+  </si>
+  <si>
+    <t>Send email on new user registration to admin users</t>
+  </si>
+  <si>
+    <t>ส่งอีเมลเกี่ยวกับการลงทะเบียนผู้ใช้ใหม่ไปยังผู้ดูแลระบบ</t>
+  </si>
+  <si>
+    <t>Do you want adminitrators to receive an e-mail when new user is registered?</t>
+  </si>
+  <si>
+    <t>คุณต้องการให้ผู้ดูแลระบบได้รับอีเมลเมื่อลงทะเบียนผู้ใช้ใหม่หรือไม่?</t>
+  </si>
+  <si>
+    <t>Microweber is free open source drag and drop website builder and CMS. It is under MIT license and we use Laravel PHP framework</t>
+  </si>
+  <si>
+    <t>Microweber เป็นตัวสร้างเว็บไซต์และ CMS แบบลากและวางแบบโอเพนซอร์สฟรี อยู่ภายใต้ใบอนุญาตของ MIT และเราใช้ Laravel PHP framework</t>
+  </si>
+  <si>
+    <t>A Slider</t>
+  </si>
+  <si>
+    <t>สไลเดอร์</t>
+  </si>
+  <si>
+    <t>Shipping to address</t>
+  </si>
+  <si>
+    <t>จัดส่งไปยังที่อยู่</t>
+  </si>
+  <si>
+    <t>Pickup from address</t>
+  </si>
+  <si>
+    <t>รับจากที่อยู่</t>
+  </si>
+  <si>
+    <t>Global settings</t>
+  </si>
+  <si>
+    <t>การตั้งค่าส่วนกลาง</t>
+  </si>
+  <si>
+    <t>E-mail Integrations</t>
+  </si>
+  <si>
+    <t>การรวมอีเมล</t>
+  </si>
+  <si>
+    <t>You don't have system e-mail and smtp setup.</t>
+  </si>
+  <si>
+    <t>คุณไม่มีอีเมลระบบและการตั้งค่า smtp</t>
+  </si>
+  <si>
+    <t>Setup your system settings here.</t>
+  </si>
+  <si>
+    <t>ตั้งค่าระบบของคุณที่นี่</t>
+  </si>
+  <si>
+    <t>Global contact form settings</t>
+  </si>
+  <si>
+    <t>การตั้งค่าแบบฟอร์มการติดต่อส่วนกลาง</t>
+  </si>
+  <si>
+    <t>E-mail sending options</t>
+  </si>
+  <si>
+    <t>ตัวเลือกการส่งอีเมล</t>
+  </si>
+  <si>
+    <t>Global sender</t>
+  </si>
+  <si>
+    <t>ผู้ส่งทั่วโลก</t>
+  </si>
+  <si>
+    <t>Use custom sender settings</t>
+  </si>
+  <si>
+    <t>ใช้การตั้งค่าผู้ส่งแบบกำหนดเอง</t>
+  </si>
+  <si>
+    <t>Use custom sender settings for the global contact forms.</t>
+  </si>
+  <si>
+    <t>ใช้การตั้งค่าผู้ส่งแบบกำหนดเองสำหรับแบบฟอร์มการติดต่อส่วนกลาง</t>
+  </si>
+  <si>
+    <t>By default we will use website system e-mail settings.</t>
+  </si>
+  <si>
+    <t>โดยค่าเริ่มต้นเราจะใช้การตั้งค่าอีเมลระบบเว็บไซต์</t>
+  </si>
+  <si>
+    <t>You can change the system e-mail settings here.</t>
+  </si>
+  <si>
+    <t>คุณสามารถเปลี่ยนการตั้งค่าระบบอีเมลได้ที่นี่</t>
+  </si>
+  <si>
+    <t>Global Receivers</t>
+  </si>
+  <si>
+    <t>เครื่องรับทั่วโลก</t>
+  </si>
+  <si>
+    <t>Send contact forms data to global receivers when is submited</t>
+  </si>
+  <si>
+    <t>ส่งข้อมูลแบบฟอร์มการติดต่อไปยังผู้รับทั่วโลกเมื่อมีการส่ง</t>
+  </si>
+  <si>
+    <t>To e-mail addresses</t>
+  </si>
+  <si>
+    <t>ไปยังที่อยู่อีเมล</t>
+  </si>
+  <si>
+    <t>E-mail address of the receivers seperated with coma.</t>
+  </si>
+  <si>
+    <t>ที่อยู่อีเมลของผู้รับแยกด้วยอาการโคม่า</t>
+  </si>
+  <si>
+    <t>Contact your hosting provider to enable PHP SOAP extension.</t>
+  </si>
+  <si>
+    <t>ติดต่อผู้ให้บริการโฮสติ้งของคุณเพื่อเปิดใช้งานส่วนขยาย PHP SOAP</t>
+  </si>
+  <si>
+    <t>Elements</t>
+  </si>
+  <si>
+    <t>องค์ประกอบ</t>
+  </si>
+  <si>
+    <t>2 months ago</t>
+  </si>
+  <si>
+    <t>2 เดือนที่แล้ว</t>
+  </si>
+  <si>
+    <t>Remove logo</t>
+  </si>
+  <si>
+    <t>Remove favicon</t>
+  </si>
+  <si>
+    <t>ลบไอคอน Fav</t>
+  </si>
+  <si>
+    <t>Custom</t>
+  </si>
+  <si>
+    <t>กำหนดเอง</t>
+  </si>
+  <si>
+    <t>Schema.org</t>
+  </si>
+  <si>
+    <t>ProductsV2</t>
+  </si>
+  <si>
+    <t>Timeline</t>
+  </si>
+  <si>
+    <t>เส้นเวลา</t>
+  </si>
+  <si>
+    <t>White label WHMCS</t>
+  </si>
+  <si>
+    <t>WHMCS ฉลากสีขาว</t>
+  </si>
+  <si>
+    <t>Number of the visible testimonials</t>
+  </si>
+  <si>
+    <t>Module template has changed</t>
+  </si>
+  <si>
+    <t>Content versions</t>
+  </si>
+  <si>
+    <t>เวอร์ชันเนื้อหา</t>
+  </si>
+  <si>
+    <t>Clear Cache</t>
+  </si>
+  <si>
+    <t>Default layouts and elements</t>
+  </si>
+  <si>
+    <t>เค้าโครงและองค์ประกอบเริ่มต้น</t>
+  </si>
+  <si>
+    <t>Arrows List</t>
+  </si>
+  <si>
+    <t>รายการลูกศร</t>
+  </si>
+  <si>
+    <t>Checked List</t>
+  </si>
+  <si>
+    <t>รายการที่ตรวจสอบ</t>
+  </si>
+  <si>
+    <t>Background Text</t>
+  </si>
+  <si>
+    <t>ข้อความพื้นหลัง</t>
+  </si>
+  <si>
+    <t>Title with Text</t>
+  </si>
+  <si>
+    <t>ชื่อเรื่องพร้อมข้อความ</t>
+  </si>
+  <si>
+    <t>Icon with Text</t>
+  </si>
+  <si>
+    <t>ไอคอนพร้อมข้อความ</t>
+  </si>
+  <si>
+    <t>Two Text Columns</t>
+  </si>
+  <si>
+    <t>สองคอลัมน์ข้อความ</t>
+  </si>
+  <si>
+    <t>Two text columns with icon and title</t>
+  </si>
+  <si>
+    <t>คอลัมน์ข้อความสองคอลัมน์พร้อมไอคอนและชื่อเรื่อง</t>
+  </si>
+  <si>
+    <t>Image with Title and Text</t>
+  </si>
+  <si>
+    <t>รูปภาพพร้อมชื่อและข้อความ</t>
+  </si>
+  <si>
+    <t>Text with Image and Title</t>
+  </si>
+  <si>
+    <t>ข้อความพร้อมรูปภาพและชื่อ</t>
+  </si>
+  <si>
+    <t>Text with Image</t>
+  </si>
+  <si>
+    <t>Enable comments</t>
+  </si>
+  <si>
+    <t>เปิดใช้งานความคิดเห็น</t>
+  </si>
+  <si>
+    <t>Captcha settings</t>
+  </si>
+  <si>
+    <t>การตั้งค่า Captcha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setup your captcha preferences from </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ตั้งค่าการตั้งค่า captcha ของคุณจาก </t>
+  </si>
+  <si>
+    <t>Add / Edit fields of the form using the custom fields</t>
+  </si>
+  <si>
+    <t>Current contact form settings</t>
+  </si>
+  <si>
+    <t>การตั้งค่าแบบฟอร์มการติดต่อปัจจุบัน</t>
+  </si>
+  <si>
+    <t>Contact form name</t>
+  </si>
+  <si>
+    <t>ชื่อแบบฟอร์มติดต่อ</t>
+  </si>
+  <si>
+    <t>What is the name of this contact form?</t>
+  </si>
+  <si>
+    <t>แบบฟอร์มการติดต่อนี้ชื่ออะไร?</t>
+  </si>
+  <si>
+    <t>Receivers</t>
+  </si>
+  <si>
+    <t>ผู้รับ</t>
+  </si>
+  <si>
+    <t>Send contact form data to custom receivers when is submited</t>
+  </si>
+  <si>
+    <t>ส่งข้อมูลแบบฟอร์มการติดต่อไปยังผู้รับที่กำหนดเองเมื่อมีการส่ง</t>
+  </si>
+  <si>
+    <t>Use custom receivers settings for the current contact form.</t>
+  </si>
+  <si>
+    <t>ใช้การตั้งค่าตัวรับแบบกำหนดเองสำหรับแบบฟอร์มการติดต่อปัจจุบัน</t>
+  </si>
+  <si>
+    <t>By default we will use contact form global settings.</t>
+  </si>
+  <si>
+    <t>โดยค่าเริ่มต้นเราจะใช้แบบฟอร์มการติดต่อการตั้งค่าส่วนกลาง</t>
+  </si>
+  <si>
+    <t>You can change the contact form global settings here.</t>
+  </si>
+  <si>
+    <t>คุณสามารถเปลี่ยนการตั้งค่าแบบฟอร์มการติดต่อส่วนกลางได้ที่นี่</t>
+  </si>
+  <si>
+    <t>Auto respond message to user</t>
+  </si>
+  <si>
+    <t>ข้อความตอบกลับอัตโนมัติไปยังผู้ใช้</t>
+  </si>
+  <si>
+    <t>Enable auto respond message to user</t>
+  </si>
+  <si>
+    <t>เปิดใช้งานข้อความตอบกลับอัตโนมัติไปยังผู้ใช้</t>
+  </si>
+  <si>
+    <t>Allow users to receive "Thank you emails after subscription."</t>
+  </si>
+  <si>
+    <t>อนุญาตให้ผู้ใช้รับ "อีเมลขอบคุณหลังจากสมัครรับข้อมูล"</t>
+  </si>
+  <si>
+    <t>Auto respond subject</t>
+  </si>
+  <si>
+    <t>ตอบกลับอัตโนมัติเรื่อง</t>
+  </si>
+  <si>
+    <t>Auto responders allows you to set up automated replies to incoming email</t>
+  </si>
+  <si>
+    <t>ระบบตอบกลับอัตโนมัติช่วยให้คุณสามารถตั้งค่าการตอบกลับอัตโนมัติไปยังอีเมลขาเข้าได้</t>
+  </si>
+  <si>
+    <t>Auto respond message</t>
+  </si>
+  <si>
+    <t>Auto respond e-mail sent back to the user</t>
+  </si>
+  <si>
+    <t>อีเมลตอบกลับอัตโนมัติที่ส่งกลับไปยังผู้ใช้</t>
+  </si>
+  <si>
+    <t>Auto respond custom sender</t>
+  </si>
+  <si>
+    <t>ตอบกลับผู้ส่งที่กำหนดเองโดยอัตโนมัติ</t>
+  </si>
+  <si>
+    <t>Use custom sender settings for the current contact form.</t>
+  </si>
+  <si>
+    <t>ใช้การตั้งค่าผู้ส่งแบบกำหนดเองสำหรับแบบฟอร์มติดต่อปัจจุบัน</t>
+  </si>
+  <si>
+    <t>Auto respond from e-mail address</t>
+  </si>
+  <si>
+    <t>ตอบกลับอัตโนมัติจากที่อยู่อีเมล</t>
+  </si>
+  <si>
+    <t>Auto respond from name</t>
+  </si>
+  <si>
+    <t>ตอบกลับอัตโนมัติจากชื่อ</t>
+  </si>
+  <si>
+    <t>Auto respond reply to e-mail</t>
+  </si>
+  <si>
+    <t>ตอบกลับอีเมลตอบกลับอัตโนมัติ</t>
+  </si>
+  <si>
+    <t>When the user receive the auto respond message they can response back to reply to email.</t>
+  </si>
+  <si>
+    <t>เมื่อผู้ใช้ได้รับข้อความตอบกลับอัตโนมัติพวกเขาสามารถตอบกลับเพื่อตอบกลับอีเมลได้</t>
+  </si>
+  <si>
+    <t>Auto respond e-mail attachments</t>
+  </si>
+  <si>
+    <t>ตอบกลับอีเมลแนบอัตโนมัติ</t>
+  </si>
+  <si>
+    <t>If you want to attach og images, you must upload them to gallery from 'Add media'</t>
+  </si>
+  <si>
+    <t>You don’t have any posts yet</t>
+  </si>
+  <si>
+    <t>คุณยังไม่มีโพสต์</t>
+  </si>
+  <si>
+    <t>Create your first post right now.</t>
+  </si>
+  <si>
+    <t>สร้างโพสต์แรกของคุณตอนนี้</t>
+  </si>
+  <si>
+    <t>Create a Post</t>
+  </si>
+  <si>
+    <t>สร้างโพสต์</t>
+  </si>
+  <si>
+    <t>templates-new-world</t>
+  </si>
+  <si>
+    <t>How to write product descriptions that sell
+                                                    One of the best things you can do to make your store successful is invest some time in writing great product descriptions. You want to provide detailed yet concise information that will entice potential customers to buy.
+                                                    Think like a consumer
+                                                    Think about what you as a consumer would want to know, then include those features in your description. For clothes: materials and fit. For food: ingredients and how it was prepared. Bullets are your friends when listing
+                                                   features — try to
+                                                            limit each one to 5-8 words.</t>
+  </si>
+  <si>
+    <t>วิธีเขียนคำอธิบายผลิตภัณฑ์ที่ขาย
+                                                    หนึ่งในสิ่งที่ดีที่สุดที่คุณสามารถทำได้เพื่อให้ร้านค้าของคุณประสบความสำเร็จคือการใช้เวลาในการเขียนคำอธิบายผลิตภัณฑ์ที่ดี คุณต้องการให้ข้อมูลที่ละเอียดและกระชับซึ่งจะดึงดูดผู้มีโอกาสเป็นลูกค้าให้ซื้อ
+                                                    คิดเหมือนผู้บริโภค
+                                                    คิดถึงสิ่งที่คุณในฐานะผู้บริโภคอยากรู้จากนั้นใส่คุณลักษณะเหล่านั้นในคำอธิบายของคุณ สำหรับเสื้อผ้า: วัสดุที่พอดีตัว สำหรับอาหาร: ส่วนผสมและวิธีการเตรียม สัญลักษณ์แสดงหัวข้อย่อยคือเพื่อนของคุณเมื่อแสดงรายการคุณลักษณะ
+                                                   - พยายาม
+                                                            จำกัด แต่ละคำไม่เกิน 5-8 คำ</t>
   </si>
 </sst>
 </file>
@@ -17286,7 +17872,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E2959"/>
+  <dimension ref="A1:E3062"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -67594,6 +68180,1757 @@
         <v>3595</v>
       </c>
       <c r="E2959" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2960" spans="1:5">
+      <c r="A2960" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2960" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2960" t="s">
+        <v>5643</v>
+      </c>
+      <c r="D2960" t="s">
+        <v>5644</v>
+      </c>
+      <c r="E2960" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2961" spans="1:5">
+      <c r="A2961" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2961" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2961" t="s">
+        <v>5645</v>
+      </c>
+      <c r="D2961" t="s">
+        <v>5646</v>
+      </c>
+      <c r="E2961" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2962" spans="1:5">
+      <c r="A2962" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2962" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2962" t="s">
+        <v>5647</v>
+      </c>
+      <c r="D2962" t="s">
+        <v>5648</v>
+      </c>
+      <c r="E2962" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2963" spans="1:5">
+      <c r="A2963" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2963" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2963" t="s">
+        <v>5649</v>
+      </c>
+      <c r="D2963" t="s">
+        <v>2849</v>
+      </c>
+      <c r="E2963" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2964" spans="1:5">
+      <c r="A2964" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2964" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2964" t="s">
+        <v>5650</v>
+      </c>
+      <c r="D2964" t="s">
+        <v>1393</v>
+      </c>
+      <c r="E2964" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2965" spans="1:5">
+      <c r="A2965" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2965" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2965" t="s">
+        <v>5651</v>
+      </c>
+      <c r="D2965" t="s">
+        <v>5652</v>
+      </c>
+      <c r="E2965" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2966" spans="1:5">
+      <c r="A2966" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2966" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2966" t="s">
+        <v>5653</v>
+      </c>
+      <c r="D2966" t="s">
+        <v>5654</v>
+      </c>
+      <c r="E2966" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2967" spans="1:5">
+      <c r="A2967" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2967" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2967" t="s">
+        <v>5655</v>
+      </c>
+      <c r="D2967" t="s">
+        <v>5656</v>
+      </c>
+      <c r="E2967" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2968" spans="1:5">
+      <c r="A2968" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2968" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2968" t="s">
+        <v>5657</v>
+      </c>
+      <c r="D2968" t="s">
+        <v>5658</v>
+      </c>
+      <c r="E2968" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2969" spans="1:5">
+      <c r="A2969" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2969" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2969" t="s">
+        <v>5659</v>
+      </c>
+      <c r="D2969" t="s">
+        <v>5660</v>
+      </c>
+      <c r="E2969" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2970" spans="1:5">
+      <c r="A2970" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2970" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2970" t="s">
+        <v>5661</v>
+      </c>
+      <c r="D2970" t="s">
+        <v>5662</v>
+      </c>
+      <c r="E2970" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2971" spans="1:5">
+      <c r="A2971" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2971" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2971" t="s">
+        <v>5663</v>
+      </c>
+      <c r="D2971" t="s">
+        <v>5664</v>
+      </c>
+      <c r="E2971" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2972" spans="1:5">
+      <c r="A2972" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2972" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2972" t="s">
+        <v>5665</v>
+      </c>
+      <c r="D2972" t="s">
+        <v>5666</v>
+      </c>
+      <c r="E2972" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2973" spans="1:5">
+      <c r="A2973" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2973" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2973" t="s">
+        <v>5667</v>
+      </c>
+      <c r="D2973" t="s">
+        <v>5668</v>
+      </c>
+      <c r="E2973" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2974" spans="1:5">
+      <c r="A2974" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2974" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2974" t="s">
+        <v>5669</v>
+      </c>
+      <c r="D2974" t="s">
+        <v>5670</v>
+      </c>
+      <c r="E2974" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2975" spans="1:5">
+      <c r="A2975" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2975" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2975" t="s">
+        <v>5671</v>
+      </c>
+      <c r="D2975" t="s">
+        <v>5672</v>
+      </c>
+      <c r="E2975" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2976" spans="1:5">
+      <c r="A2976" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2976" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2976" t="s">
+        <v>5673</v>
+      </c>
+      <c r="D2976" t="s">
+        <v>5674</v>
+      </c>
+      <c r="E2976" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2977" spans="1:5">
+      <c r="A2977" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2977" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2977" t="s">
+        <v>5675</v>
+      </c>
+      <c r="D2977" t="s">
+        <v>5676</v>
+      </c>
+      <c r="E2977" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2978" spans="1:5">
+      <c r="A2978" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2978" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2978" t="s">
+        <v>5677</v>
+      </c>
+      <c r="D2978" t="s">
+        <v>5678</v>
+      </c>
+      <c r="E2978" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2979" spans="1:5">
+      <c r="A2979" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2979" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2979" t="s">
+        <v>5679</v>
+      </c>
+      <c r="D2979" t="s">
+        <v>5680</v>
+      </c>
+      <c r="E2979" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2980" spans="1:5">
+      <c r="A2980" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2980" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2980" t="s">
+        <v>5681</v>
+      </c>
+      <c r="D2980" t="s">
+        <v>5682</v>
+      </c>
+      <c r="E2980" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2981" spans="1:5">
+      <c r="A2981" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2981" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2981" t="s">
+        <v>5683</v>
+      </c>
+      <c r="D2981" t="s">
+        <v>5684</v>
+      </c>
+      <c r="E2981" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2982" spans="1:5">
+      <c r="A2982" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2982" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2982" t="s">
+        <v>5685</v>
+      </c>
+      <c r="D2982" t="s">
+        <v>5686</v>
+      </c>
+      <c r="E2982" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2983" spans="1:5">
+      <c r="A2983" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2983" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2983" t="s">
+        <v>5687</v>
+      </c>
+      <c r="D2983" t="s">
+        <v>3808</v>
+      </c>
+      <c r="E2983" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2984" spans="1:5">
+      <c r="A2984" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2984" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2984" t="s">
+        <v>5688</v>
+      </c>
+      <c r="D2984" t="s">
+        <v>5689</v>
+      </c>
+      <c r="E2984" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2985" spans="1:5">
+      <c r="A2985" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2985" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2985" t="s">
+        <v>5690</v>
+      </c>
+      <c r="D2985" t="s">
+        <v>5691</v>
+      </c>
+      <c r="E2985" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2986" spans="1:5">
+      <c r="A2986" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2986" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2986" t="s">
+        <v>5692</v>
+      </c>
+      <c r="D2986" t="s">
+        <v>5693</v>
+      </c>
+      <c r="E2986" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2987" spans="1:5">
+      <c r="A2987" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2987" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2987" t="s">
+        <v>5694</v>
+      </c>
+      <c r="D2987" t="s">
+        <v>5695</v>
+      </c>
+      <c r="E2987" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2988" spans="1:5">
+      <c r="A2988" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2988" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2988" t="s">
+        <v>5696</v>
+      </c>
+      <c r="D2988" t="s">
+        <v>5697</v>
+      </c>
+      <c r="E2988" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2989" spans="1:5">
+      <c r="A2989" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2989" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2989" t="s">
+        <v>5698</v>
+      </c>
+      <c r="D2989" t="s">
+        <v>5699</v>
+      </c>
+      <c r="E2989" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2990" spans="1:5">
+      <c r="A2990" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2990" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2990" t="s">
+        <v>5700</v>
+      </c>
+      <c r="D2990" t="s">
+        <v>5701</v>
+      </c>
+      <c r="E2990" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2991" spans="1:5">
+      <c r="A2991" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2991" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2991" t="s">
+        <v>5702</v>
+      </c>
+      <c r="D2991" t="s">
+        <v>5703</v>
+      </c>
+      <c r="E2991" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2992" spans="1:5">
+      <c r="A2992" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2992" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2992" t="s">
+        <v>5704</v>
+      </c>
+      <c r="D2992" t="s">
+        <v>5705</v>
+      </c>
+      <c r="E2992" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2993" spans="1:5">
+      <c r="A2993" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2993" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2993" t="s">
+        <v>5706</v>
+      </c>
+      <c r="D2993" t="s">
+        <v>5707</v>
+      </c>
+      <c r="E2993" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2994" spans="1:5">
+      <c r="A2994" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2994" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2994" t="s">
+        <v>5708</v>
+      </c>
+      <c r="D2994" t="s">
+        <v>5709</v>
+      </c>
+      <c r="E2994" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2995" spans="1:5">
+      <c r="A2995" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2995" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2995" t="s">
+        <v>5710</v>
+      </c>
+      <c r="D2995" t="s">
+        <v>5711</v>
+      </c>
+      <c r="E2995" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2996" spans="1:5">
+      <c r="A2996" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2996" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2996" t="s">
+        <v>5712</v>
+      </c>
+      <c r="D2996" t="s">
+        <v>5713</v>
+      </c>
+      <c r="E2996" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2997" spans="1:5">
+      <c r="A2997" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2997" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2997" t="s">
+        <v>5714</v>
+      </c>
+      <c r="D2997" t="s">
+        <v>5715</v>
+      </c>
+      <c r="E2997" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2998" spans="1:5">
+      <c r="A2998" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2998" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2998" t="s">
+        <v>5716</v>
+      </c>
+      <c r="D2998" t="s">
+        <v>5717</v>
+      </c>
+      <c r="E2998" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2999" spans="1:5">
+      <c r="A2999" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2999" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2999" t="s">
+        <v>5718</v>
+      </c>
+      <c r="D2999" t="s">
+        <v>5719</v>
+      </c>
+      <c r="E2999" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3000" spans="1:5">
+      <c r="A3000" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3000" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3000" t="s">
+        <v>5720</v>
+      </c>
+      <c r="D3000" t="s">
+        <v>5721</v>
+      </c>
+      <c r="E3000" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3001" spans="1:5">
+      <c r="A3001" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3001" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3001" t="s">
+        <v>5722</v>
+      </c>
+      <c r="D3001" t="s">
+        <v>5723</v>
+      </c>
+      <c r="E3001" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3002" spans="1:5">
+      <c r="A3002" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3002" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3002" t="s">
+        <v>5724</v>
+      </c>
+      <c r="D3002" t="s">
+        <v>5725</v>
+      </c>
+      <c r="E3002" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3003" spans="1:5">
+      <c r="A3003" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3003" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3003" t="s">
+        <v>5726</v>
+      </c>
+      <c r="D3003" t="s">
+        <v>5727</v>
+      </c>
+      <c r="E3003" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3004" spans="1:5">
+      <c r="A3004" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3004" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3004" t="s">
+        <v>5728</v>
+      </c>
+      <c r="D3004" t="s">
+        <v>5729</v>
+      </c>
+      <c r="E3004" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3005" spans="1:5">
+      <c r="A3005" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3005" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3005" t="s">
+        <v>5730</v>
+      </c>
+      <c r="D3005" t="s">
+        <v>5731</v>
+      </c>
+      <c r="E3005" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3006" spans="1:5">
+      <c r="A3006" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3006" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3006" t="s">
+        <v>5732</v>
+      </c>
+      <c r="D3006" t="s">
+        <v>5733</v>
+      </c>
+      <c r="E3006" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3007" spans="1:5">
+      <c r="A3007" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3007" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3007" t="s">
+        <v>5734</v>
+      </c>
+      <c r="D3007" t="s">
+        <v>5735</v>
+      </c>
+      <c r="E3007" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3008" spans="1:5">
+      <c r="A3008" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3008" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3008" t="s">
+        <v>5736</v>
+      </c>
+      <c r="D3008" t="s">
+        <v>5737</v>
+      </c>
+      <c r="E3008" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3009" spans="1:5">
+      <c r="A3009" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3009" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3009" t="s">
+        <v>5738</v>
+      </c>
+      <c r="D3009" t="s">
+        <v>3202</v>
+      </c>
+      <c r="E3009" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3010" spans="1:5">
+      <c r="A3010" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3010" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3010" t="s">
+        <v>5739</v>
+      </c>
+      <c r="D3010" t="s">
+        <v>5740</v>
+      </c>
+      <c r="E3010" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3011" spans="1:5">
+      <c r="A3011" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3011" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3011" t="s">
+        <v>5741</v>
+      </c>
+      <c r="D3011" t="s">
+        <v>5742</v>
+      </c>
+      <c r="E3011" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3012" spans="1:5">
+      <c r="A3012" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3012" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3012" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D3012" t="s">
+        <v>1531</v>
+      </c>
+      <c r="E3012" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3013" spans="1:5">
+      <c r="A3013" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3013" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3013" t="s">
+        <v>5743</v>
+      </c>
+      <c r="D3013" t="s">
+        <v>5743</v>
+      </c>
+      <c r="E3013" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3014" spans="1:5">
+      <c r="A3014" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3014" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3014" t="s">
+        <v>5744</v>
+      </c>
+      <c r="D3014" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3014" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3015" spans="1:5">
+      <c r="A3015" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3015" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3015" t="s">
+        <v>5745</v>
+      </c>
+      <c r="D3015" t="s">
+        <v>5746</v>
+      </c>
+      <c r="E3015" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3016" spans="1:5">
+      <c r="A3016" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3016" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3016" t="s">
+        <v>5747</v>
+      </c>
+      <c r="D3016" t="s">
+        <v>5748</v>
+      </c>
+      <c r="E3016" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3017" spans="1:5">
+      <c r="A3017" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3017" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3017" t="s">
+        <v>5749</v>
+      </c>
+      <c r="D3017" t="s">
+        <v>3300</v>
+      </c>
+      <c r="E3017" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3018" spans="1:5">
+      <c r="A3018" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3018" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3018" t="s">
+        <v>5750</v>
+      </c>
+      <c r="D3018" t="s">
+        <v>2878</v>
+      </c>
+      <c r="E3018" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3019" spans="1:5">
+      <c r="A3019" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3019" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3019" t="s">
+        <v>5751</v>
+      </c>
+      <c r="D3019" t="s">
+        <v>5752</v>
+      </c>
+      <c r="E3019" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3020" spans="1:5">
+      <c r="A3020" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3020" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3020" t="s">
+        <v>5753</v>
+      </c>
+      <c r="D3020" t="s">
+        <v>1567</v>
+      </c>
+      <c r="E3020" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3021" spans="1:5">
+      <c r="A3021" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3021" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3021" t="s">
+        <v>5754</v>
+      </c>
+      <c r="D3021" t="s">
+        <v>5755</v>
+      </c>
+      <c r="E3021" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3022" spans="1:5">
+      <c r="A3022" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3022" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3022" t="s">
+        <v>5756</v>
+      </c>
+      <c r="D3022" t="s">
+        <v>5757</v>
+      </c>
+      <c r="E3022" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3023" spans="1:5">
+      <c r="A3023" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3023" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3023" t="s">
+        <v>5758</v>
+      </c>
+      <c r="D3023" t="s">
+        <v>5759</v>
+      </c>
+      <c r="E3023" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3024" spans="1:5">
+      <c r="A3024" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3024" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3024" t="s">
+        <v>5760</v>
+      </c>
+      <c r="D3024" t="s">
+        <v>5761</v>
+      </c>
+      <c r="E3024" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3025" spans="1:5">
+      <c r="A3025" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3025" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3025" t="s">
+        <v>5762</v>
+      </c>
+      <c r="D3025" t="s">
+        <v>5763</v>
+      </c>
+      <c r="E3025" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3026" spans="1:5">
+      <c r="A3026" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3026" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3026" t="s">
+        <v>5764</v>
+      </c>
+      <c r="D3026" t="s">
+        <v>5765</v>
+      </c>
+      <c r="E3026" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3027" spans="1:5">
+      <c r="A3027" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3027" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3027" t="s">
+        <v>5766</v>
+      </c>
+      <c r="D3027" t="s">
+        <v>5767</v>
+      </c>
+      <c r="E3027" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3028" spans="1:5">
+      <c r="A3028" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3028" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3028" t="s">
+        <v>5768</v>
+      </c>
+      <c r="D3028" t="s">
+        <v>5769</v>
+      </c>
+      <c r="E3028" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3029" spans="1:5">
+      <c r="A3029" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3029" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3029" t="s">
+        <v>5770</v>
+      </c>
+      <c r="D3029" t="s">
+        <v>5771</v>
+      </c>
+      <c r="E3029" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3030" spans="1:5">
+      <c r="A3030" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3030" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3030" t="s">
+        <v>5772</v>
+      </c>
+      <c r="D3030" t="s">
+        <v>5773</v>
+      </c>
+      <c r="E3030" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3031" spans="1:5">
+      <c r="A3031" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3031" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3031" t="s">
+        <v>5774</v>
+      </c>
+      <c r="D3031" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E3031" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3032" spans="1:5">
+      <c r="A3032" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3032" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3032" t="s">
+        <v>5775</v>
+      </c>
+      <c r="D3032" t="s">
+        <v>5776</v>
+      </c>
+      <c r="E3032" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3033" spans="1:5">
+      <c r="A3033" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3033" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3033" t="s">
+        <v>5777</v>
+      </c>
+      <c r="D3033" t="s">
+        <v>5778</v>
+      </c>
+      <c r="E3033" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3034" spans="1:5">
+      <c r="A3034" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3034" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3034" t="s">
+        <v>5779</v>
+      </c>
+      <c r="D3034" t="s">
+        <v>5780</v>
+      </c>
+      <c r="E3034" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3035" spans="1:5">
+      <c r="A3035" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3035" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3035" t="s">
+        <v>5781</v>
+      </c>
+      <c r="D3035" t="s">
+        <v>4867</v>
+      </c>
+      <c r="E3035" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3036" spans="1:5">
+      <c r="A3036" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3036" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3036" t="s">
+        <v>5782</v>
+      </c>
+      <c r="D3036" t="s">
+        <v>5783</v>
+      </c>
+      <c r="E3036" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3037" spans="1:5">
+      <c r="A3037" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3037" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3037" t="s">
+        <v>5784</v>
+      </c>
+      <c r="D3037" t="s">
+        <v>5785</v>
+      </c>
+      <c r="E3037" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3038" spans="1:5">
+      <c r="A3038" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3038" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3038" t="s">
+        <v>5786</v>
+      </c>
+      <c r="D3038" t="s">
+        <v>5787</v>
+      </c>
+      <c r="E3038" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3039" spans="1:5">
+      <c r="A3039" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3039" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3039" t="s">
+        <v>5788</v>
+      </c>
+      <c r="D3039" t="s">
+        <v>5789</v>
+      </c>
+      <c r="E3039" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3040" spans="1:5">
+      <c r="A3040" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3040" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3040" t="s">
+        <v>5790</v>
+      </c>
+      <c r="D3040" t="s">
+        <v>5791</v>
+      </c>
+      <c r="E3040" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3041" spans="1:5">
+      <c r="A3041" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3041" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3041" t="s">
+        <v>5792</v>
+      </c>
+      <c r="D3041" t="s">
+        <v>5793</v>
+      </c>
+      <c r="E3041" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3042" spans="1:5">
+      <c r="A3042" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3042" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3042" t="s">
+        <v>5794</v>
+      </c>
+      <c r="D3042" t="s">
+        <v>5795</v>
+      </c>
+      <c r="E3042" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3043" spans="1:5">
+      <c r="A3043" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3043" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3043" t="s">
+        <v>5796</v>
+      </c>
+      <c r="D3043" t="s">
+        <v>5797</v>
+      </c>
+      <c r="E3043" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3044" spans="1:5">
+      <c r="A3044" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3044" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3044" t="s">
+        <v>5798</v>
+      </c>
+      <c r="D3044" t="s">
+        <v>5799</v>
+      </c>
+      <c r="E3044" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3045" spans="1:5">
+      <c r="A3045" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3045" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3045" t="s">
+        <v>5800</v>
+      </c>
+      <c r="D3045" t="s">
+        <v>5801</v>
+      </c>
+      <c r="E3045" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3046" spans="1:5">
+      <c r="A3046" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3046" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3046" t="s">
+        <v>5802</v>
+      </c>
+      <c r="D3046" t="s">
+        <v>5803</v>
+      </c>
+      <c r="E3046" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3047" spans="1:5">
+      <c r="A3047" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3047" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3047" t="s">
+        <v>5804</v>
+      </c>
+      <c r="D3047" t="s">
+        <v>5805</v>
+      </c>
+      <c r="E3047" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3048" spans="1:5">
+      <c r="A3048" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3048" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3048" t="s">
+        <v>5806</v>
+      </c>
+      <c r="D3048" t="s">
+        <v>5807</v>
+      </c>
+      <c r="E3048" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3049" spans="1:5">
+      <c r="A3049" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3049" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3049" t="s">
+        <v>5808</v>
+      </c>
+      <c r="D3049" t="s">
+        <v>3101</v>
+      </c>
+      <c r="E3049" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3050" spans="1:5">
+      <c r="A3050" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3050" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3050" t="s">
+        <v>5809</v>
+      </c>
+      <c r="D3050" t="s">
+        <v>5810</v>
+      </c>
+      <c r="E3050" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3051" spans="1:5">
+      <c r="A3051" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3051" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3051" t="s">
+        <v>5811</v>
+      </c>
+      <c r="D3051" t="s">
+        <v>5812</v>
+      </c>
+      <c r="E3051" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3052" spans="1:5">
+      <c r="A3052" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3052" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3052" t="s">
+        <v>5813</v>
+      </c>
+      <c r="D3052" t="s">
+        <v>5814</v>
+      </c>
+      <c r="E3052" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3053" spans="1:5">
+      <c r="A3053" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3053" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3053" t="s">
+        <v>5815</v>
+      </c>
+      <c r="D3053" t="s">
+        <v>5816</v>
+      </c>
+      <c r="E3053" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3054" spans="1:5">
+      <c r="A3054" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3054" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3054" t="s">
+        <v>5817</v>
+      </c>
+      <c r="D3054" t="s">
+        <v>5818</v>
+      </c>
+      <c r="E3054" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3055" spans="1:5">
+      <c r="A3055" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3055" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3055" t="s">
+        <v>5819</v>
+      </c>
+      <c r="D3055" t="s">
+        <v>5820</v>
+      </c>
+      <c r="E3055" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3056" spans="1:5">
+      <c r="A3056" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3056" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3056" t="s">
+        <v>5821</v>
+      </c>
+      <c r="D3056" t="s">
+        <v>5822</v>
+      </c>
+      <c r="E3056" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3057" spans="1:5">
+      <c r="A3057" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3057" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3057" t="s">
+        <v>5823</v>
+      </c>
+      <c r="D3057" t="s">
+        <v>5824</v>
+      </c>
+      <c r="E3057" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3058" spans="1:5">
+      <c r="A3058" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3058" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3058" t="s">
+        <v>5825</v>
+      </c>
+      <c r="D3058" t="s">
+        <v>4187</v>
+      </c>
+      <c r="E3058" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3059" spans="1:5">
+      <c r="A3059" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3059" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3059" t="s">
+        <v>5826</v>
+      </c>
+      <c r="D3059" t="s">
+        <v>5827</v>
+      </c>
+      <c r="E3059" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3060" spans="1:5">
+      <c r="A3060" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3060" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3060" t="s">
+        <v>5828</v>
+      </c>
+      <c r="D3060" t="s">
+        <v>5829</v>
+      </c>
+      <c r="E3060" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3061" spans="1:5">
+      <c r="A3061" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3061" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3061" t="s">
+        <v>5830</v>
+      </c>
+      <c r="D3061" t="s">
+        <v>5831</v>
+      </c>
+      <c r="E3061" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3062" spans="1:5">
+      <c r="A3062" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3062" t="s">
+        <v>5832</v>
+      </c>
+      <c r="C3062" t="s">
+        <v>5833</v>
+      </c>
+      <c r="D3062" t="s">
+        <v>5834</v>
+      </c>
+      <c r="E3062" t="s">
         <v>8</v>
       </c>
     </row>

--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/th_TH.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/th_TH.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5835">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6128">
   <si>
     <t>translation_group</t>
   </si>
@@ -17534,6 +17534,885 @@
                                                     คิดถึงสิ่งที่คุณในฐานะผู้บริโภคอยากรู้จากนั้นใส่คุณลักษณะเหล่านั้นในคำอธิบายของคุณ สำหรับเสื้อผ้า: วัสดุที่พอดีตัว สำหรับอาหาร: ส่วนผสมและวิธีการเตรียม สัญลักษณ์แสดงหัวข้อย่อยคือเพื่อนของคุณเมื่อแสดงรายการคุณลักษณะ
                                                    - พยายาม
                                                             จำกัด แต่ละคำไม่เกิน 5-8 คำ</t>
+  </si>
+  <si>
+    <t>Admin language</t>
+  </si>
+  <si>
+    <t>ภาษาผู้ดูแลระบบ</t>
+  </si>
+  <si>
+    <t>Limit</t>
+  </si>
+  <si>
+    <t>ขีดจำกัด</t>
+  </si>
+  <si>
+    <t>Code Editor</t>
+  </si>
+  <si>
+    <t>ตัวแก้ไขโค้ด</t>
+  </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>titles</t>
+  </si>
+  <si>
+    <t>ชื่อเรื่อง</t>
+  </si>
+  <si>
+    <t>Titles 1</t>
+  </si>
+  <si>
+    <t>ชื่อเรื่อง 1</t>
+  </si>
+  <si>
+    <t>Titles 2</t>
+  </si>
+  <si>
+    <t>ชื่อเรื่อง2</t>
+  </si>
+  <si>
+    <t>Titles 3</t>
+  </si>
+  <si>
+    <t>ชื่อเรื่อง3</t>
+  </si>
+  <si>
+    <t>Titles 4</t>
+  </si>
+  <si>
+    <t>ชื่อเรื่อง 4</t>
+  </si>
+  <si>
+    <t>Titles 5</t>
+  </si>
+  <si>
+    <t>หัวข้อ 5</t>
+  </si>
+  <si>
+    <t>Titles 6</t>
+  </si>
+  <si>
+    <t>ชื่อเรื่อง 6</t>
+  </si>
+  <si>
+    <t>Titles 7</t>
+  </si>
+  <si>
+    <t>หัวข้อ 7</t>
+  </si>
+  <si>
+    <t>Titles 8</t>
+  </si>
+  <si>
+    <t>ชื่อเรื่อง 8</t>
+  </si>
+  <si>
+    <t>text block</t>
+  </si>
+  <si>
+    <t>บล็อกข้อความ</t>
+  </si>
+  <si>
+    <t>Text block 1</t>
+  </si>
+  <si>
+    <t>บล็อกข้อความ 1</t>
+  </si>
+  <si>
+    <t>Text block 2</t>
+  </si>
+  <si>
+    <t>บล็อกข้อความ2</t>
+  </si>
+  <si>
+    <t>Text block 3</t>
+  </si>
+  <si>
+    <t>บล็อกข้อความ 3</t>
+  </si>
+  <si>
+    <t>Text block 4</t>
+  </si>
+  <si>
+    <t>บล็อกข้อความ4</t>
+  </si>
+  <si>
+    <t>Text block 5</t>
+  </si>
+  <si>
+    <t>บล็อกข้อความ5</t>
+  </si>
+  <si>
+    <t>Text block 6</t>
+  </si>
+  <si>
+    <t>บล็อกข้อความ 6</t>
+  </si>
+  <si>
+    <t>Text block 7</t>
+  </si>
+  <si>
+    <t>บล็อกข้อความ7</t>
+  </si>
+  <si>
+    <t>Text block 8</t>
+  </si>
+  <si>
+    <t>บล็อกข้อความ8</t>
+  </si>
+  <si>
+    <t>Text block 9</t>
+  </si>
+  <si>
+    <t>บล็อกข้อความ 9</t>
+  </si>
+  <si>
+    <t>Text block 10</t>
+  </si>
+  <si>
+    <t>บล็อกข้อความ 10</t>
+  </si>
+  <si>
+    <t>Text block 11</t>
+  </si>
+  <si>
+    <t>บล็อกข้อความ 11</t>
+  </si>
+  <si>
+    <t>Text block 12</t>
+  </si>
+  <si>
+    <t>บล็อกข้อความ 12</t>
+  </si>
+  <si>
+    <t>Text block 13</t>
+  </si>
+  <si>
+    <t>บล็อกข้อความ13</t>
+  </si>
+  <si>
+    <t>Text block 14</t>
+  </si>
+  <si>
+    <t>บล็อกข้อความ14</t>
+  </si>
+  <si>
+    <t>Text block 15</t>
+  </si>
+  <si>
+    <t>บล็อกข้อความ 15</t>
+  </si>
+  <si>
+    <t>features</t>
+  </si>
+  <si>
+    <t>Features 1</t>
+  </si>
+  <si>
+    <t>คุณสมบัติ 1</t>
+  </si>
+  <si>
+    <t>Features 2</t>
+  </si>
+  <si>
+    <t>คุณสมบัติ2</t>
+  </si>
+  <si>
+    <t>Features 3</t>
+  </si>
+  <si>
+    <t>คุณสมบัติ 3</t>
+  </si>
+  <si>
+    <t>Features 4</t>
+  </si>
+  <si>
+    <t>คุณสมบัติ 4</t>
+  </si>
+  <si>
+    <t>grids</t>
+  </si>
+  <si>
+    <t>menu</t>
+  </si>
+  <si>
+    <t>Menu - skin-1</t>
+  </si>
+  <si>
+    <t>เมนู - skin-1</t>
+  </si>
+  <si>
+    <t>Menu - skin-2</t>
+  </si>
+  <si>
+    <t>เมนู - skin-2</t>
+  </si>
+  <si>
+    <t>Menu - skin-3</t>
+  </si>
+  <si>
+    <t>เมนู - skin-3</t>
+  </si>
+  <si>
+    <t>Menu - skin-4</t>
+  </si>
+  <si>
+    <t>เมนู - skin-4</t>
+  </si>
+  <si>
+    <t>Menu - skin-5</t>
+  </si>
+  <si>
+    <t>เมนู - skin-5</t>
+  </si>
+  <si>
+    <t>footers</t>
+  </si>
+  <si>
+    <t>ส่วนท้าย</t>
+  </si>
+  <si>
+    <t>Footers 1</t>
+  </si>
+  <si>
+    <t>ส่วนท้าย 1</t>
+  </si>
+  <si>
+    <t>Footers 2</t>
+  </si>
+  <si>
+    <t>ส่วนท้าย2</t>
+  </si>
+  <si>
+    <t>Footers 3</t>
+  </si>
+  <si>
+    <t>ส่วนท้าย 3</t>
+  </si>
+  <si>
+    <t>Footers 4</t>
+  </si>
+  <si>
+    <t>ส่วนท้าย 4</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>อื่นๆ</t>
+  </si>
+  <si>
+    <t>jumbotron</t>
+  </si>
+  <si>
+    <t>Jumbotron 1</t>
+  </si>
+  <si>
+    <t>pricing</t>
+  </si>
+  <si>
+    <t>Pricing 1</t>
+  </si>
+  <si>
+    <t>ราคา 1</t>
+  </si>
+  <si>
+    <t>Default layouts</t>
+  </si>
+  <si>
+    <t>เค้าโครงเริ่มต้น</t>
+  </si>
+  <si>
+    <t>No Content Here</t>
+  </si>
+  <si>
+    <t>ไม่มีเนื้อหาที่นี่</t>
+  </si>
+  <si>
+    <t>Custom fields are saved</t>
+  </si>
+  <si>
+    <t>ฟิลด์ที่กำหนดเองจะถูกบันทึกไว้</t>
+  </si>
+  <si>
+    <t>Existing fields</t>
+  </si>
+  <si>
+    <t>ช่องที่มีอยู่</t>
+  </si>
+  <si>
+    <t>Choose from your existing fields bellow</t>
+  </si>
+  <si>
+    <t>เลือกจากฟิลด์ที่มีอยู่ของคุณร้อง</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Add new fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> เพิ่มช่องใหม่</t>
+  </si>
+  <si>
+    <t>Add new custom field from list bellow</t>
+  </si>
+  <si>
+    <t>เพิ่มฟิลด์กำหนดเองใหม่จากรายการร้อง</t>
+  </si>
+  <si>
+    <t>Your fields</t>
+  </si>
+  <si>
+    <t>สาขาของคุณ</t>
+  </si>
+  <si>
+    <t>List of your added custom fields</t>
+  </si>
+  <si>
+    <t>รายการฟิลด์ที่คุณกำหนดเองที่เพิ่มเข้ามา</t>
+  </si>
+  <si>
+    <t xml:space="preserve">repeat vertically </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ทำซ้ำในแนวตั้ง </t>
+  </si>
+  <si>
+    <t>Font Family</t>
+  </si>
+  <si>
+    <t>ตระกูลอักษร</t>
+  </si>
+  <si>
+    <t>Overlay</t>
+  </si>
+  <si>
+    <t>โอเวอร์เลย์</t>
+  </si>
+  <si>
+    <t>Blend mode</t>
+  </si>
+  <si>
+    <t>โหมดผสมผสาน</t>
+  </si>
+  <si>
+    <t>Container</t>
+  </si>
+  <si>
+    <t>คอนเทนเนอร์</t>
+  </si>
+  <si>
+    <t>Container type</t>
+  </si>
+  <si>
+    <t>ประเภทคอนเทนเนอร์</t>
+  </si>
+  <si>
+    <t>Animations</t>
+  </si>
+  <si>
+    <t>แอนิเมชั่น</t>
+  </si>
+  <si>
+    <t>Reloading styles</t>
+  </si>
+  <si>
+    <t>โหลดสไตล์</t>
+  </si>
+  <si>
+    <t>Links to</t>
+  </si>
+  <si>
+    <t>ลิงค์ไป</t>
+  </si>
+  <si>
+    <t>Preview package</t>
+  </si>
+  <si>
+    <t>แพ็คเกจตัวอย่าง</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>การสาธิต</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>ใช้</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>ปัจจุบัน</t>
+  </si>
+  <si>
+    <t>Reorder</t>
+  </si>
+  <si>
+    <t>จัดลำดับใหม่</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>ระบบ</t>
+  </si>
+  <si>
+    <t>Browser Redirect</t>
+  </si>
+  <si>
+    <t>เปลี่ยนเส้นทางเบราว์เซอร์</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>บูรณาการ</t>
+  </si>
+  <si>
+    <t>Standalone Updater</t>
+  </si>
+  <si>
+    <t>ตัวอัปเดตแบบสแตนด์อโลน</t>
+  </si>
+  <si>
+    <t>You need license key to install this package</t>
+  </si>
+  <si>
+    <t>คุณต้องมีรหัสใบอนุญาตเพื่อติดตั้งแพ็คเกจนี้</t>
+  </si>
+  <si>
+    <t>This package is premium and you must have a license key to install it</t>
+  </si>
+  <si>
+    <t>แพ็คเกจนี้เป็นแบบพรีเมียมและคุณต้องมีรหัสใบอนุญาตจึงจะติดตั้งได้</t>
+  </si>
+  <si>
+    <t>You need license key</t>
+  </si>
+  <si>
+    <t>คุณต้องมีรหัสใบอนุญาต</t>
+  </si>
+  <si>
+    <t>License activated</t>
+  </si>
+  <si>
+    <t>เปิดใช้งานใบอนุญาต</t>
+  </si>
+  <si>
+    <t>Reloading page</t>
+  </si>
+  <si>
+    <t>กำลังโหลดหน้าใหม่</t>
+  </si>
+  <si>
+    <t>License not activated</t>
+  </si>
+  <si>
+    <t>ใบอนุญาตไม่ได้เปิดใช้งาน</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>System updates</t>
+  </si>
+  <si>
+    <t>การอัปเดตระบบ</t>
+  </si>
+  <si>
+    <t>Check for system updates</t>
+  </si>
+  <si>
+    <t>ตรวจสอบการอัปเดตระบบ</t>
+  </si>
+  <si>
+    <t>Back to list</t>
+  </si>
+  <si>
+    <t>กลับไปที่รายการ</t>
+  </si>
+  <si>
+    <t>The category must have a name</t>
+  </si>
+  <si>
+    <t>หมวดหมู่ต้องมีชื่อ</t>
+  </si>
+  <si>
+    <t>Is category hidden?</t>
+  </si>
+  <si>
+    <t>หมวดหมู่ถูกซ่อนไว้หรือไม่?</t>
+  </si>
+  <si>
+    <t>If you set this to YES this category will be hidden from the website</t>
+  </si>
+  <si>
+    <t>หากคุณตั้งค่านี้เป็น ใช่ หมวดหมู่นี้จะถูกซ่อนจากเว็บไซต์</t>
+  </si>
+  <si>
+    <t>template-big</t>
+  </si>
+  <si>
+    <t>Mentioning</t>
+  </si>
+  <si>
+    <t>กำลังพูดถึง</t>
+  </si>
+  <si>
+    <t>Your cart is empty.</t>
+  </si>
+  <si>
+    <t>Results found</t>
+  </si>
+  <si>
+    <t>พบผลลัพธ์</t>
+  </si>
+  <si>
+    <t>If you choose the Percent from the select field, it will be calculated automatically from the Price and Offer price of the product.</t>
+  </si>
+  <si>
+    <t>หากคุณเลือกเปอร์เซ็นต์จากฟิลด์เลือก จะมีการคำนวณโดยอัตโนมัติจากราคาและราคาเสนอขายของผลิตภัณฑ์</t>
+  </si>
+  <si>
+    <t>أضف منتج</t>
+  </si>
+  <si>
+    <t>อัจฟ</t>
+  </si>
+  <si>
+    <t>validation</t>
+  </si>
+  <si>
+    <t>custom.multilanguage.title.en_US.required</t>
+  </si>
+  <si>
+    <t>values.multilanguage.title.en_US.</t>
+  </si>
+  <si>
+    <t>ค่า.multilanguage.title.en_US</t>
+  </si>
+  <si>
+    <t>تحرير المنتج</t>
+  </si>
+  <si>
+    <t>iuiuui</t>
+  </si>
+  <si>
+    <t>Proceed to Checkout</t>
+  </si>
+  <si>
+    <t>ดำเนินการชำระเงิน</t>
+  </si>
+  <si>
+    <t>تحرير آخر</t>
+  </si>
+  <si>
+    <t>Displaying</t>
+  </si>
+  <si>
+    <t>กำลังแสดง</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>ของ</t>
+  </si>
+  <si>
+    <t>result(s)</t>
+  </si>
+  <si>
+    <t>ผลลัพธ์)</t>
+  </si>
+  <si>
+    <t>Page Title - Right Breadcrumb</t>
+  </si>
+  <si>
+    <t>ชื่อหน้า - เบรดครัมบ์ขวา</t>
+  </si>
+  <si>
+    <t>Page Title - Left Breadcrumb</t>
+  </si>
+  <si>
+    <t>ชื่อหน้า - เบรดครัมบ์ซ้าย</t>
+  </si>
+  <si>
+    <t>Terms of use</t>
+  </si>
+  <si>
+    <t>เงื่อนไขการใช้บริการ</t>
+  </si>
+  <si>
+    <t>Delivery and returns</t>
+  </si>
+  <si>
+    <t>การจัดส่งและการคืนสินค้า</t>
+  </si>
+  <si>
+    <t>Shipping information</t>
+  </si>
+  <si>
+    <t>About 1</t>
+  </si>
+  <si>
+    <t>เกี่ยวกับ 1</t>
+  </si>
+  <si>
+    <t>About 2</t>
+  </si>
+  <si>
+    <t>เกี่ยวกับ2</t>
+  </si>
+  <si>
+    <t>About 3</t>
+  </si>
+  <si>
+    <t>เกี่ยวกับ 3</t>
+  </si>
+  <si>
+    <t>Home 1</t>
+  </si>
+  <si>
+    <t>หน้าแรก 1</t>
+  </si>
+  <si>
+    <t>Home 2</t>
+  </si>
+  <si>
+    <t>หน้าแรก 2</t>
+  </si>
+  <si>
+    <t>You must click the apply template button to change your template</t>
+  </si>
+  <si>
+    <t>คุณต้องคลิกปุ่มใช้เทมเพลตเพื่อเปลี่ยนเทมเพลตของคุณ</t>
+  </si>
+  <si>
+    <t>Search by criteria</t>
+  </si>
+  <si>
+    <t>ค้นหาตามเกณฑ์</t>
+  </si>
+  <si>
+    <t>Order ID</t>
+  </si>
+  <si>
+    <t>Date from</t>
+  </si>
+  <si>
+    <t>วันที่จาก</t>
+  </si>
+  <si>
+    <t>Set the orders from date</t>
+  </si>
+  <si>
+    <t>ตั้งค่าคำสั่งซื้อจากวันที่</t>
+  </si>
+  <si>
+    <t>Date to</t>
+  </si>
+  <si>
+    <t>วันที่ถึง</t>
+  </si>
+  <si>
+    <t>Set the orders to date</t>
+  </si>
+  <si>
+    <t>ตั้งค่าคำสั่งซื้อเป็นวันที่</t>
+  </si>
+  <si>
+    <t>Order amount from</t>
+  </si>
+  <si>
+    <t>ยอดสั่งซื้อจาก</t>
+  </si>
+  <si>
+    <t>Show the order with minimum amount</t>
+  </si>
+  <si>
+    <t>แสดงคำสั่งซื้อที่มีจำนวนขั้นต่ำ</t>
+  </si>
+  <si>
+    <t>Order amount to</t>
+  </si>
+  <si>
+    <t>ยอดสั่งซื้อถึง</t>
+  </si>
+  <si>
+    <t>Show the order with maximum amount</t>
+  </si>
+  <si>
+    <t>แสดงคำสั่งซื้อที่มีจำนวนเงินสูงสุด</t>
+  </si>
+  <si>
+    <t>Search by products...</t>
+  </si>
+  <si>
+    <t>ค้นหาตามสินค้า...</t>
+  </si>
+  <si>
+    <t>Search by products</t>
+  </si>
+  <si>
+    <t>ค้นหาตามผลิตภัณฑ์</t>
+  </si>
+  <si>
+    <t>Payment Status</t>
+  </si>
+  <si>
+    <t>สถานะการชำระเงิน</t>
+  </si>
+  <si>
+    <t>Free search by phone, name, email etc...</t>
+  </si>
+  <si>
+    <t>ค้นหาฟรีทางโทรศัพท์ ชื่อ อีเมล ฯลฯ...</t>
+  </si>
+  <si>
+    <t>Submit this criteria</t>
+  </si>
+  <si>
+    <t>ส่งเกณฑ์นี้</t>
+  </si>
+  <si>
+    <t>Reset filter</t>
+  </si>
+  <si>
+    <t>รีเซ็ตตัวกรอง</t>
+  </si>
+  <si>
+    <t>Export all</t>
+  </si>
+  <si>
+    <t>ส่งออกทั้งหมด</t>
+  </si>
+  <si>
+    <t>Select sorting</t>
+  </si>
+  <si>
+    <t>เลือกการเรียงลำดับ</t>
+  </si>
+  <si>
+    <t>Order date</t>
+  </si>
+  <si>
+    <t>วันสั่ง</t>
+  </si>
+  <si>
+    <t>[New &gt; Old]</t>
+  </si>
+  <si>
+    <t>[ใหม่ &gt; เก่า]</t>
+  </si>
+  <si>
+    <t>[Old &gt; New]</t>
+  </si>
+  <si>
+    <t>[เก่า &gt; ใหม่]</t>
+  </si>
+  <si>
+    <t>[High &gt; Low]</t>
+  </si>
+  <si>
+    <t>[สูง &gt; ต่ำ]</t>
+  </si>
+  <si>
+    <t>[Low &gt; High]</t>
+  </si>
+  <si>
+    <t>[ต่ำ &gt; สูง]</t>
+  </si>
+  <si>
+    <t>Order completed</t>
+  </si>
+  <si>
+    <t>เสร็จสิ้นการสั่งซื้อ</t>
+  </si>
+  <si>
+    <t>translations from the multilnaguage module have been found in your database.</t>
+  </si>
+  <si>
+    <t>พบคำแปลจากโมดูล multilnaguage ในฐานข้อมูลของคุณ</t>
+  </si>
+  <si>
+    <t>Warning! Changing the default language can break translations on your site.</t>
+  </si>
+  <si>
+    <t>คำเตือน! การเปลี่ยนภาษาเริ่มต้นอาจทำให้การแปลในไซต์ของคุณเสียหาย</t>
+  </si>
+  <si>
+    <t>Are you sure want to continue?</t>
+  </si>
+  <si>
+    <t>คุณแน่ใจหรือว่าต้องการดำเนินการต่อ</t>
+  </si>
+  <si>
+    <t>Warning! The changing default language maybe will break your site.</t>
+  </si>
+  <si>
+    <t>คำเตือน! การเปลี่ยนภาษาเริ่มต้นอาจทำให้ไซต์ของคุณเสียหาย</t>
+  </si>
+  <si>
+    <t>Shipping details</t>
+  </si>
+  <si>
+    <t>รายละเอียดการจัดส่ง</t>
+  </si>
+  <si>
+    <t>Shipping type</t>
+  </si>
+  <si>
+    <t>the order is not completed yet</t>
+  </si>
+  <si>
+    <t>ออเดอร์ยังไม่เสร็จ</t>
+  </si>
+  <si>
+    <t>the order is completed</t>
+  </si>
+  <si>
+    <t>Created at</t>
+  </si>
+  <si>
+    <t>สร้างที่</t>
+  </si>
+  <si>
+    <t>Updated at</t>
+  </si>
+  <si>
+    <t>ปรับปรุงที่</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quick view </t>
+  </si>
+  <si>
+    <t xml:space="preserve">มุมมองด่วน </t>
+  </si>
+  <si>
+    <t>Replace language values</t>
+  </si>
+  <si>
+    <t>แทนที่ค่าภาษา</t>
+  </si>
+  <si>
+    <t>Translations are imported</t>
+  </si>
+  <si>
+    <t>นำเข้าคำแปล</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ไม่พบคำแปลในฐานข้อมูล คุณต้องการนำเข้าการแปลหรือไม่? </t>
   </si>
 </sst>
 </file>
@@ -17557,10 +18436,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -17571,7 +18447,7 @@
   </cellStyleXfs>
   <cellXfs count="1">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -17872,7 +18748,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E3062"/>
+  <dimension ref="A1:E3217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -69934,8 +70810,2642 @@
         <v>8</v>
       </c>
     </row>
+    <row r="3063" spans="1:5">
+      <c r="A3063" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3063" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3063" t="s">
+        <v>5835</v>
+      </c>
+      <c r="D3063" t="s">
+        <v>5836</v>
+      </c>
+      <c r="E3063" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3064" spans="1:5">
+      <c r="A3064" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3064" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3064" t="s">
+        <v>5837</v>
+      </c>
+      <c r="D3064" t="s">
+        <v>5838</v>
+      </c>
+      <c r="E3064" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3065" spans="1:5">
+      <c r="A3065" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3065" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3065" t="s">
+        <v>5839</v>
+      </c>
+      <c r="D3065" t="s">
+        <v>5840</v>
+      </c>
+      <c r="E3065" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3066" spans="1:5">
+      <c r="A3066" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3066" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3066" t="s">
+        <v>5841</v>
+      </c>
+      <c r="D3066" t="s">
+        <v>2654</v>
+      </c>
+      <c r="E3066" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3067" spans="1:5">
+      <c r="A3067" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3067" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3067" t="s">
+        <v>5842</v>
+      </c>
+      <c r="D3067" t="s">
+        <v>5843</v>
+      </c>
+      <c r="E3067" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3068" spans="1:5">
+      <c r="A3068" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3068" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3068" t="s">
+        <v>5844</v>
+      </c>
+      <c r="D3068" t="s">
+        <v>5845</v>
+      </c>
+      <c r="E3068" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3069" spans="1:5">
+      <c r="A3069" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3069" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3069" t="s">
+        <v>5846</v>
+      </c>
+      <c r="D3069" t="s">
+        <v>5847</v>
+      </c>
+      <c r="E3069" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3070" spans="1:5">
+      <c r="A3070" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3070" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3070" t="s">
+        <v>5848</v>
+      </c>
+      <c r="D3070" t="s">
+        <v>5849</v>
+      </c>
+      <c r="E3070" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3071" spans="1:5">
+      <c r="A3071" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3071" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3071" t="s">
+        <v>5850</v>
+      </c>
+      <c r="D3071" t="s">
+        <v>5851</v>
+      </c>
+      <c r="E3071" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3072" spans="1:5">
+      <c r="A3072" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3072" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3072" t="s">
+        <v>5852</v>
+      </c>
+      <c r="D3072" t="s">
+        <v>5853</v>
+      </c>
+      <c r="E3072" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3073" spans="1:5">
+      <c r="A3073" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3073" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3073" t="s">
+        <v>5854</v>
+      </c>
+      <c r="D3073" t="s">
+        <v>5855</v>
+      </c>
+      <c r="E3073" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3074" spans="1:5">
+      <c r="A3074" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3074" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3074" t="s">
+        <v>5856</v>
+      </c>
+      <c r="D3074" t="s">
+        <v>5857</v>
+      </c>
+      <c r="E3074" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3075" spans="1:5">
+      <c r="A3075" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3075" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3075" t="s">
+        <v>5858</v>
+      </c>
+      <c r="D3075" t="s">
+        <v>5859</v>
+      </c>
+      <c r="E3075" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3076" spans="1:5">
+      <c r="A3076" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3076" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3076" t="s">
+        <v>5860</v>
+      </c>
+      <c r="D3076" t="s">
+        <v>5861</v>
+      </c>
+      <c r="E3076" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3077" spans="1:5">
+      <c r="A3077" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3077" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3077" t="s">
+        <v>5862</v>
+      </c>
+      <c r="D3077" t="s">
+        <v>5863</v>
+      </c>
+      <c r="E3077" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3078" spans="1:5">
+      <c r="A3078" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3078" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3078" t="s">
+        <v>5864</v>
+      </c>
+      <c r="D3078" t="s">
+        <v>5865</v>
+      </c>
+      <c r="E3078" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3079" spans="1:5">
+      <c r="A3079" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3079" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3079" t="s">
+        <v>5866</v>
+      </c>
+      <c r="D3079" t="s">
+        <v>5867</v>
+      </c>
+      <c r="E3079" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3080" spans="1:5">
+      <c r="A3080" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3080" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3080" t="s">
+        <v>5868</v>
+      </c>
+      <c r="D3080" t="s">
+        <v>5869</v>
+      </c>
+      <c r="E3080" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3081" spans="1:5">
+      <c r="A3081" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3081" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3081" t="s">
+        <v>5870</v>
+      </c>
+      <c r="D3081" t="s">
+        <v>5871</v>
+      </c>
+      <c r="E3081" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3082" spans="1:5">
+      <c r="A3082" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3082" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3082" t="s">
+        <v>5872</v>
+      </c>
+      <c r="D3082" t="s">
+        <v>5873</v>
+      </c>
+      <c r="E3082" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3083" spans="1:5">
+      <c r="A3083" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3083" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3083" t="s">
+        <v>5874</v>
+      </c>
+      <c r="D3083" t="s">
+        <v>5875</v>
+      </c>
+      <c r="E3083" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3084" spans="1:5">
+      <c r="A3084" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3084" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3084" t="s">
+        <v>5876</v>
+      </c>
+      <c r="D3084" t="s">
+        <v>5877</v>
+      </c>
+      <c r="E3084" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3085" spans="1:5">
+      <c r="A3085" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3085" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3085" t="s">
+        <v>5878</v>
+      </c>
+      <c r="D3085" t="s">
+        <v>5879</v>
+      </c>
+      <c r="E3085" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3086" spans="1:5">
+      <c r="A3086" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3086" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3086" t="s">
+        <v>5880</v>
+      </c>
+      <c r="D3086" t="s">
+        <v>5881</v>
+      </c>
+      <c r="E3086" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3087" spans="1:5">
+      <c r="A3087" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3087" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3087" t="s">
+        <v>5882</v>
+      </c>
+      <c r="D3087" t="s">
+        <v>5883</v>
+      </c>
+      <c r="E3087" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3088" spans="1:5">
+      <c r="A3088" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3088" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3088" t="s">
+        <v>5884</v>
+      </c>
+      <c r="D3088" t="s">
+        <v>5885</v>
+      </c>
+      <c r="E3088" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3089" spans="1:5">
+      <c r="A3089" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3089" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3089" t="s">
+        <v>5886</v>
+      </c>
+      <c r="D3089" t="s">
+        <v>5887</v>
+      </c>
+      <c r="E3089" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3090" spans="1:5">
+      <c r="A3090" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3090" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3090" t="s">
+        <v>5888</v>
+      </c>
+      <c r="D3090" t="s">
+        <v>5889</v>
+      </c>
+      <c r="E3090" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3091" spans="1:5">
+      <c r="A3091" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3091" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3091" t="s">
+        <v>5890</v>
+      </c>
+      <c r="D3091" t="s">
+        <v>5891</v>
+      </c>
+      <c r="E3091" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3092" spans="1:5">
+      <c r="A3092" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3092" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3092" t="s">
+        <v>5892</v>
+      </c>
+      <c r="D3092" t="s">
+        <v>1911</v>
+      </c>
+      <c r="E3092" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3093" spans="1:5">
+      <c r="A3093" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3093" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3093" t="s">
+        <v>5893</v>
+      </c>
+      <c r="D3093" t="s">
+        <v>5894</v>
+      </c>
+      <c r="E3093" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3094" spans="1:5">
+      <c r="A3094" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3094" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3094" t="s">
+        <v>5895</v>
+      </c>
+      <c r="D3094" t="s">
+        <v>5896</v>
+      </c>
+      <c r="E3094" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3095" spans="1:5">
+      <c r="A3095" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3095" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3095" t="s">
+        <v>5897</v>
+      </c>
+      <c r="D3095" t="s">
+        <v>5898</v>
+      </c>
+      <c r="E3095" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3096" spans="1:5">
+      <c r="A3096" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3096" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3096" t="s">
+        <v>5899</v>
+      </c>
+      <c r="D3096" t="s">
+        <v>5900</v>
+      </c>
+      <c r="E3096" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3097" spans="1:5">
+      <c r="A3097" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3097" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3097" t="s">
+        <v>5901</v>
+      </c>
+      <c r="D3097" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E3097" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3098" spans="1:5">
+      <c r="A3098" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3098" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3098" t="s">
+        <v>5902</v>
+      </c>
+      <c r="D3098" t="s">
+        <v>2204</v>
+      </c>
+      <c r="E3098" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3099" spans="1:5">
+      <c r="A3099" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3099" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3099" t="s">
+        <v>5903</v>
+      </c>
+      <c r="D3099" t="s">
+        <v>5904</v>
+      </c>
+      <c r="E3099" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3100" spans="1:5">
+      <c r="A3100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3100" t="s">
+        <v>5905</v>
+      </c>
+      <c r="D3100" t="s">
+        <v>5906</v>
+      </c>
+      <c r="E3100" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3101" spans="1:5">
+      <c r="A3101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3101" t="s">
+        <v>5907</v>
+      </c>
+      <c r="D3101" t="s">
+        <v>5908</v>
+      </c>
+      <c r="E3101" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3102" spans="1:5">
+      <c r="A3102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3102" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3102" t="s">
+        <v>5909</v>
+      </c>
+      <c r="D3102" t="s">
+        <v>5910</v>
+      </c>
+      <c r="E3102" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3103" spans="1:5">
+      <c r="A3103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3103" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3103" t="s">
+        <v>5911</v>
+      </c>
+      <c r="D3103" t="s">
+        <v>5912</v>
+      </c>
+      <c r="E3103" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3104" spans="1:5">
+      <c r="A3104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3104" t="s">
+        <v>5913</v>
+      </c>
+      <c r="D3104" t="s">
+        <v>5914</v>
+      </c>
+      <c r="E3104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3105" spans="1:5">
+      <c r="A3105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3105" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3105" t="s">
+        <v>5915</v>
+      </c>
+      <c r="D3105" t="s">
+        <v>5916</v>
+      </c>
+      <c r="E3105" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3106" spans="1:5">
+      <c r="A3106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3106" t="s">
+        <v>5917</v>
+      </c>
+      <c r="D3106" t="s">
+        <v>5918</v>
+      </c>
+      <c r="E3106" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3107" spans="1:5">
+      <c r="A3107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3107" t="s">
+        <v>5919</v>
+      </c>
+      <c r="D3107" t="s">
+        <v>5920</v>
+      </c>
+      <c r="E3107" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3108" spans="1:5">
+      <c r="A3108" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3108" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3108" t="s">
+        <v>5921</v>
+      </c>
+      <c r="D3108" t="s">
+        <v>5922</v>
+      </c>
+      <c r="E3108" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3109" spans="1:5">
+      <c r="A3109" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3109" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3109" t="s">
+        <v>5923</v>
+      </c>
+      <c r="D3109" t="s">
+        <v>5924</v>
+      </c>
+      <c r="E3109" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3110" spans="1:5">
+      <c r="A3110" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3110" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3110">
+        <v>404</v>
+      </c>
+      <c r="D3110">
+        <v>404</v>
+      </c>
+      <c r="E3110" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3111" spans="1:5">
+      <c r="A3111" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3111" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3111" t="s">
+        <v>5925</v>
+      </c>
+      <c r="D3111" t="s">
+        <v>5925</v>
+      </c>
+      <c r="E3111" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3112" spans="1:5">
+      <c r="A3112" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3112" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3112" t="s">
+        <v>5926</v>
+      </c>
+      <c r="D3112" t="s">
+        <v>5926</v>
+      </c>
+      <c r="E3112" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3113" spans="1:5">
+      <c r="A3113" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3113" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3113" t="s">
+        <v>5927</v>
+      </c>
+      <c r="D3113" t="s">
+        <v>742</v>
+      </c>
+      <c r="E3113" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3114" spans="1:5">
+      <c r="A3114" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3114" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3114" t="s">
+        <v>5928</v>
+      </c>
+      <c r="D3114" t="s">
+        <v>5929</v>
+      </c>
+      <c r="E3114" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3115" spans="1:5">
+      <c r="A3115" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3115" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3115" t="s">
+        <v>5930</v>
+      </c>
+      <c r="D3115" t="s">
+        <v>5931</v>
+      </c>
+      <c r="E3115" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3116" spans="1:5">
+      <c r="A3116" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3116" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3116" t="s">
+        <v>5932</v>
+      </c>
+      <c r="D3116" t="s">
+        <v>5933</v>
+      </c>
+      <c r="E3116" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3117" spans="1:5">
+      <c r="A3117" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3117" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3117" t="s">
+        <v>5934</v>
+      </c>
+      <c r="D3117" t="s">
+        <v>5935</v>
+      </c>
+      <c r="E3117" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3118" spans="1:5">
+      <c r="A3118" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3118" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3118" t="s">
+        <v>5936</v>
+      </c>
+      <c r="D3118" t="s">
+        <v>5937</v>
+      </c>
+      <c r="E3118" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3119" spans="1:5">
+      <c r="A3119" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3119" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3119" t="s">
+        <v>5938</v>
+      </c>
+      <c r="D3119" t="s">
+        <v>5939</v>
+      </c>
+      <c r="E3119" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3120" spans="1:5">
+      <c r="A3120" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3120" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3120" t="s">
+        <v>5940</v>
+      </c>
+      <c r="D3120" t="s">
+        <v>5941</v>
+      </c>
+      <c r="E3120" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3121" spans="1:5">
+      <c r="A3121" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3121" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3121" t="s">
+        <v>5942</v>
+      </c>
+      <c r="D3121" t="s">
+        <v>5943</v>
+      </c>
+      <c r="E3121" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3122" spans="1:5">
+      <c r="A3122" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3122" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3122" t="s">
+        <v>5944</v>
+      </c>
+      <c r="D3122" t="s">
+        <v>5945</v>
+      </c>
+      <c r="E3122" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3123" spans="1:5">
+      <c r="A3123" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3123" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3123" t="s">
+        <v>5946</v>
+      </c>
+      <c r="D3123" t="s">
+        <v>5947</v>
+      </c>
+      <c r="E3123" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3124" spans="1:5">
+      <c r="A3124" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3124" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3124" t="s">
+        <v>5948</v>
+      </c>
+      <c r="D3124" t="s">
+        <v>5949</v>
+      </c>
+      <c r="E3124" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3125" spans="1:5">
+      <c r="A3125" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3125" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3125" t="s">
+        <v>5950</v>
+      </c>
+      <c r="D3125" t="s">
+        <v>5951</v>
+      </c>
+      <c r="E3125" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3126" spans="1:5">
+      <c r="A3126" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3126" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3126" t="s">
+        <v>5952</v>
+      </c>
+      <c r="D3126" t="s">
+        <v>5953</v>
+      </c>
+      <c r="E3126" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3127" spans="1:5">
+      <c r="A3127" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3127" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3127" t="s">
+        <v>5954</v>
+      </c>
+      <c r="D3127" t="s">
+        <v>5955</v>
+      </c>
+      <c r="E3127" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3128" spans="1:5">
+      <c r="A3128" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3128" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3128" t="s">
+        <v>5956</v>
+      </c>
+      <c r="D3128" t="s">
+        <v>5957</v>
+      </c>
+      <c r="E3128" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3129" spans="1:5">
+      <c r="A3129" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3129" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3129" t="s">
+        <v>5958</v>
+      </c>
+      <c r="D3129" t="s">
+        <v>5959</v>
+      </c>
+      <c r="E3129" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3130" spans="1:5">
+      <c r="A3130" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3130" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3130" t="s">
+        <v>5960</v>
+      </c>
+      <c r="D3130" t="s">
+        <v>5961</v>
+      </c>
+      <c r="E3130" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3131" spans="1:5">
+      <c r="A3131" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3131" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3131" t="s">
+        <v>5962</v>
+      </c>
+      <c r="D3131" t="s">
+        <v>5963</v>
+      </c>
+      <c r="E3131" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3132" spans="1:5">
+      <c r="A3132" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3132" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3132" t="s">
+        <v>5964</v>
+      </c>
+      <c r="D3132" t="s">
+        <v>5965</v>
+      </c>
+      <c r="E3132" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3133" spans="1:5">
+      <c r="A3133" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3133" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3133" t="s">
+        <v>5966</v>
+      </c>
+      <c r="D3133" t="s">
+        <v>5967</v>
+      </c>
+      <c r="E3133" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3134" spans="1:5">
+      <c r="A3134" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3134" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3134" t="s">
+        <v>5968</v>
+      </c>
+      <c r="D3134" t="s">
+        <v>5969</v>
+      </c>
+      <c r="E3134" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3135" spans="1:5">
+      <c r="A3135" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3135" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3135" t="s">
+        <v>5970</v>
+      </c>
+      <c r="D3135" t="s">
+        <v>5971</v>
+      </c>
+      <c r="E3135" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3136" spans="1:5">
+      <c r="A3136" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3136" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3136" t="s">
+        <v>5972</v>
+      </c>
+      <c r="D3136" t="s">
+        <v>5973</v>
+      </c>
+      <c r="E3136" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3137" spans="1:5">
+      <c r="A3137" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3137" t="s">
+        <v>5974</v>
+      </c>
+      <c r="D3137" t="s">
+        <v>5975</v>
+      </c>
+      <c r="E3137" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3138" spans="1:5">
+      <c r="A3138" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3138" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3138" t="s">
+        <v>5976</v>
+      </c>
+      <c r="D3138" t="s">
+        <v>5977</v>
+      </c>
+      <c r="E3138" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3139" spans="1:5">
+      <c r="A3139" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3139" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3139" t="s">
+        <v>5978</v>
+      </c>
+      <c r="D3139" t="s">
+        <v>5979</v>
+      </c>
+      <c r="E3139" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3140" spans="1:5">
+      <c r="A3140" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3140" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3140" t="s">
+        <v>5980</v>
+      </c>
+      <c r="D3140" t="s">
+        <v>5981</v>
+      </c>
+      <c r="E3140" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3141" spans="1:5">
+      <c r="A3141" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3141" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3141" t="s">
+        <v>5982</v>
+      </c>
+      <c r="D3141" t="s">
+        <v>5983</v>
+      </c>
+      <c r="E3141" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3142" spans="1:5">
+      <c r="A3142" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3142" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3142" t="s">
+        <v>5984</v>
+      </c>
+      <c r="D3142" t="s">
+        <v>5985</v>
+      </c>
+      <c r="E3142" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3143" spans="1:5">
+      <c r="A3143" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3143" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3143" t="s">
+        <v>5986</v>
+      </c>
+      <c r="D3143" t="s">
+        <v>5987</v>
+      </c>
+      <c r="E3143" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3144" spans="1:5">
+      <c r="A3144" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3144" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3144" t="s">
+        <v>5988</v>
+      </c>
+      <c r="D3144" t="s">
+        <v>5989</v>
+      </c>
+      <c r="E3144" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3145" spans="1:5">
+      <c r="A3145" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3145" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3145" t="s">
+        <v>5990</v>
+      </c>
+      <c r="D3145" t="s">
+        <v>5991</v>
+      </c>
+      <c r="E3145" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3146" spans="1:5">
+      <c r="A3146" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3146" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3146" t="s">
+        <v>5992</v>
+      </c>
+      <c r="D3146" t="s">
+        <v>5993</v>
+      </c>
+      <c r="E3146" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3147" spans="1:5">
+      <c r="A3147" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3147" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3147" t="s">
+        <v>5994</v>
+      </c>
+      <c r="D3147" t="s">
+        <v>5995</v>
+      </c>
+      <c r="E3147" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3148" spans="1:5">
+      <c r="A3148" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3148" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3148" t="s">
+        <v>5996</v>
+      </c>
+      <c r="D3148" t="s">
+        <v>5996</v>
+      </c>
+      <c r="E3148" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3149" spans="1:5">
+      <c r="A3149" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3149" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3149" t="s">
+        <v>5997</v>
+      </c>
+      <c r="D3149" t="s">
+        <v>5998</v>
+      </c>
+      <c r="E3149" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3150" spans="1:5">
+      <c r="A3150" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3150" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3150" t="s">
+        <v>5999</v>
+      </c>
+      <c r="D3150" t="s">
+        <v>6000</v>
+      </c>
+      <c r="E3150" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3151" spans="1:5">
+      <c r="A3151" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3151" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3151" t="s">
+        <v>6001</v>
+      </c>
+      <c r="D3151" t="s">
+        <v>6002</v>
+      </c>
+      <c r="E3151" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3152" spans="1:5">
+      <c r="A3152" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3152" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3152" t="s">
+        <v>6003</v>
+      </c>
+      <c r="D3152" t="s">
+        <v>6004</v>
+      </c>
+      <c r="E3152" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3153" spans="1:5">
+      <c r="A3153" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3153" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3153" t="s">
+        <v>6005</v>
+      </c>
+      <c r="D3153" t="s">
+        <v>6006</v>
+      </c>
+      <c r="E3153" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3154" spans="1:5">
+      <c r="A3154" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3154" t="s">
+        <v>6007</v>
+      </c>
+      <c r="D3154" t="s">
+        <v>6008</v>
+      </c>
+      <c r="E3154" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3155" spans="1:5">
+      <c r="A3155" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3155" t="s">
+        <v>6009</v>
+      </c>
+      <c r="C3155" t="s">
+        <v>6010</v>
+      </c>
+      <c r="D3155" t="s">
+        <v>6011</v>
+      </c>
+      <c r="E3155" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3156" spans="1:5">
+      <c r="A3156" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3156" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3156" t="s">
+        <v>6012</v>
+      </c>
+      <c r="D3156" t="s">
+        <v>2022</v>
+      </c>
+      <c r="E3156" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3157" spans="1:5">
+      <c r="A3157" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3157" t="s">
+        <v>5832</v>
+      </c>
+      <c r="C3157" t="s">
+        <v>6013</v>
+      </c>
+      <c r="D3157" t="s">
+        <v>6014</v>
+      </c>
+      <c r="E3157" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3158" spans="1:5">
+      <c r="A3158" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3158" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3158" t="s">
+        <v>6015</v>
+      </c>
+      <c r="D3158" t="s">
+        <v>6016</v>
+      </c>
+      <c r="E3158" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3159" spans="1:5">
+      <c r="A3159" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3159" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3159" t="s">
+        <v>6017</v>
+      </c>
+      <c r="D3159" t="s">
+        <v>6018</v>
+      </c>
+      <c r="E3159" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3160" spans="1:5">
+      <c r="A3160" t="s">
+        <v>6019</v>
+      </c>
+      <c r="B3160" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3160" t="s">
+        <v>6020</v>
+      </c>
+      <c r="D3160" t="s">
+        <v>6020</v>
+      </c>
+      <c r="E3160" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3161" spans="1:5">
+      <c r="A3161" t="s">
+        <v>6019</v>
+      </c>
+      <c r="B3161" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3161" t="s">
+        <v>6021</v>
+      </c>
+      <c r="D3161" t="s">
+        <v>6022</v>
+      </c>
+      <c r="E3161" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3162" spans="1:5">
+      <c r="A3162" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3162" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3162" t="s">
+        <v>6023</v>
+      </c>
+      <c r="D3162" t="s">
+        <v>6023</v>
+      </c>
+      <c r="E3162" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3163" spans="1:5">
+      <c r="A3163" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3163" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3163" t="s">
+        <v>6024</v>
+      </c>
+      <c r="D3163" t="s">
+        <v>6024</v>
+      </c>
+      <c r="E3163" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3164" spans="1:5">
+      <c r="A3164" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3164" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3164" t="s">
+        <v>6025</v>
+      </c>
+      <c r="D3164" t="s">
+        <v>6026</v>
+      </c>
+      <c r="E3164" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3165" spans="1:5">
+      <c r="A3165" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3165" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3165" t="s">
+        <v>6027</v>
+      </c>
+      <c r="D3165" t="s">
+        <v>6027</v>
+      </c>
+      <c r="E3165" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3166" spans="1:5">
+      <c r="A3166" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3166" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3166" t="s">
+        <v>6028</v>
+      </c>
+      <c r="D3166" t="s">
+        <v>6029</v>
+      </c>
+      <c r="E3166" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3167" spans="1:5">
+      <c r="A3167" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3167" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3167" t="s">
+        <v>6030</v>
+      </c>
+      <c r="D3167" t="s">
+        <v>6031</v>
+      </c>
+      <c r="E3167" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3168" spans="1:5">
+      <c r="A3168" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3168" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3168" t="s">
+        <v>6032</v>
+      </c>
+      <c r="D3168" t="s">
+        <v>6033</v>
+      </c>
+      <c r="E3168" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3169" spans="1:5">
+      <c r="A3169" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3169" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3169" t="s">
+        <v>6034</v>
+      </c>
+      <c r="D3169" t="s">
+        <v>6035</v>
+      </c>
+      <c r="E3169" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3170" spans="1:5">
+      <c r="A3170" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3170" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3170" t="s">
+        <v>6036</v>
+      </c>
+      <c r="D3170" t="s">
+        <v>6037</v>
+      </c>
+      <c r="E3170" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3171" spans="1:5">
+      <c r="A3171" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3171" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3171" t="s">
+        <v>6038</v>
+      </c>
+      <c r="D3171" t="s">
+        <v>6039</v>
+      </c>
+      <c r="E3171" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3172" spans="1:5">
+      <c r="A3172" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3172" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3172" t="s">
+        <v>6040</v>
+      </c>
+      <c r="D3172" t="s">
+        <v>6041</v>
+      </c>
+      <c r="E3172" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3173" spans="1:5">
+      <c r="A3173" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3173" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3173" t="s">
+        <v>6042</v>
+      </c>
+      <c r="D3173" t="s">
+        <v>1627</v>
+      </c>
+      <c r="E3173" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3174" spans="1:5">
+      <c r="A3174" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3174" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3174" t="s">
+        <v>6043</v>
+      </c>
+      <c r="D3174" t="s">
+        <v>6044</v>
+      </c>
+      <c r="E3174" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3175" spans="1:5">
+      <c r="A3175" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3175" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3175" t="s">
+        <v>6045</v>
+      </c>
+      <c r="D3175" t="s">
+        <v>6046</v>
+      </c>
+      <c r="E3175" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3176" spans="1:5">
+      <c r="A3176" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3176" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3176" t="s">
+        <v>6047</v>
+      </c>
+      <c r="D3176" t="s">
+        <v>6048</v>
+      </c>
+      <c r="E3176" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3177" spans="1:5">
+      <c r="A3177" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3177" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3177" t="s">
+        <v>6049</v>
+      </c>
+      <c r="D3177" t="s">
+        <v>6050</v>
+      </c>
+      <c r="E3177" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3178" spans="1:5">
+      <c r="A3178" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3178" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3178" t="s">
+        <v>6051</v>
+      </c>
+      <c r="D3178" t="s">
+        <v>6052</v>
+      </c>
+      <c r="E3178" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3179" spans="1:5">
+      <c r="A3179" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3179" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3179" t="s">
+        <v>6053</v>
+      </c>
+      <c r="D3179" t="s">
+        <v>6054</v>
+      </c>
+      <c r="E3179" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3180" spans="1:5">
+      <c r="A3180" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3180" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3180" t="s">
+        <v>6055</v>
+      </c>
+      <c r="D3180" t="s">
+        <v>6056</v>
+      </c>
+      <c r="E3180" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3181" spans="1:5">
+      <c r="A3181" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3181" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3181" t="s">
+        <v>6057</v>
+      </c>
+      <c r="D3181" t="s">
+        <v>1813</v>
+      </c>
+      <c r="E3181" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3182" spans="1:5">
+      <c r="A3182" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3182" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3182" t="s">
+        <v>6058</v>
+      </c>
+      <c r="D3182" t="s">
+        <v>6059</v>
+      </c>
+      <c r="E3182" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3183" spans="1:5">
+      <c r="A3183" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3183" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3183" t="s">
+        <v>6060</v>
+      </c>
+      <c r="D3183" t="s">
+        <v>6061</v>
+      </c>
+      <c r="E3183" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3184" spans="1:5">
+      <c r="A3184" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3184" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3184" t="s">
+        <v>6062</v>
+      </c>
+      <c r="D3184" t="s">
+        <v>6063</v>
+      </c>
+      <c r="E3184" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3185" spans="1:5">
+      <c r="A3185" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3185" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3185" t="s">
+        <v>6064</v>
+      </c>
+      <c r="D3185" t="s">
+        <v>6065</v>
+      </c>
+      <c r="E3185" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3186" spans="1:5">
+      <c r="A3186" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3186" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3186" t="s">
+        <v>6066</v>
+      </c>
+      <c r="D3186" t="s">
+        <v>6067</v>
+      </c>
+      <c r="E3186" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3187" spans="1:5">
+      <c r="A3187" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3187" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3187" t="s">
+        <v>6068</v>
+      </c>
+      <c r="D3187" t="s">
+        <v>6069</v>
+      </c>
+      <c r="E3187" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3188" spans="1:5">
+      <c r="A3188" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3188" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3188" t="s">
+        <v>6070</v>
+      </c>
+      <c r="D3188" t="s">
+        <v>6071</v>
+      </c>
+      <c r="E3188" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3189" spans="1:5">
+      <c r="A3189" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3189" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3189" t="s">
+        <v>6072</v>
+      </c>
+      <c r="D3189" t="s">
+        <v>6073</v>
+      </c>
+      <c r="E3189" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3190" spans="1:5">
+      <c r="A3190" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3190" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3190" t="s">
+        <v>6074</v>
+      </c>
+      <c r="D3190" t="s">
+        <v>6075</v>
+      </c>
+      <c r="E3190" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3191" spans="1:5">
+      <c r="A3191" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3191" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3191" t="s">
+        <v>6076</v>
+      </c>
+      <c r="D3191" t="s">
+        <v>6077</v>
+      </c>
+      <c r="E3191" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3192" spans="1:5">
+      <c r="A3192" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3192" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3192" t="s">
+        <v>6078</v>
+      </c>
+      <c r="D3192" t="s">
+        <v>6079</v>
+      </c>
+      <c r="E3192" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3193" spans="1:5">
+      <c r="A3193" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3193" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3193" t="s">
+        <v>6080</v>
+      </c>
+      <c r="D3193" t="s">
+        <v>6081</v>
+      </c>
+      <c r="E3193" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3194" spans="1:5">
+      <c r="A3194" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3194" t="s">
+        <v>6082</v>
+      </c>
+      <c r="D3194" t="s">
+        <v>6083</v>
+      </c>
+      <c r="E3194" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3195" spans="1:5">
+      <c r="A3195" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3195" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3195" t="s">
+        <v>6084</v>
+      </c>
+      <c r="D3195" t="s">
+        <v>6085</v>
+      </c>
+      <c r="E3195" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3196" spans="1:5">
+      <c r="A3196" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3196" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3196" t="s">
+        <v>6086</v>
+      </c>
+      <c r="D3196" t="s">
+        <v>6087</v>
+      </c>
+      <c r="E3196" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3197" spans="1:5">
+      <c r="A3197" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3197" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3197" t="s">
+        <v>6088</v>
+      </c>
+      <c r="D3197" t="s">
+        <v>6089</v>
+      </c>
+      <c r="E3197" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3198" spans="1:5">
+      <c r="A3198" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3198" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3198" t="s">
+        <v>6090</v>
+      </c>
+      <c r="D3198" t="s">
+        <v>6091</v>
+      </c>
+      <c r="E3198" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3199" spans="1:5">
+      <c r="A3199" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3199" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3199" t="s">
+        <v>6092</v>
+      </c>
+      <c r="D3199" t="s">
+        <v>6093</v>
+      </c>
+      <c r="E3199" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3200" spans="1:5">
+      <c r="A3200" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3200" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3200" t="s">
+        <v>6094</v>
+      </c>
+      <c r="D3200" t="s">
+        <v>6095</v>
+      </c>
+      <c r="E3200" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3201" spans="1:5">
+      <c r="A3201" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3201" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3201" t="s">
+        <v>6096</v>
+      </c>
+      <c r="D3201" t="s">
+        <v>6097</v>
+      </c>
+      <c r="E3201" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3202" spans="1:5">
+      <c r="A3202" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3202" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3202" t="s">
+        <v>6098</v>
+      </c>
+      <c r="D3202" t="s">
+        <v>6099</v>
+      </c>
+      <c r="E3202" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3203" spans="1:5">
+      <c r="A3203" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3203" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3203" t="s">
+        <v>6100</v>
+      </c>
+      <c r="D3203" t="s">
+        <v>6101</v>
+      </c>
+      <c r="E3203" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3204" spans="1:5">
+      <c r="A3204" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3204" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3204" t="s">
+        <v>6102</v>
+      </c>
+      <c r="D3204" t="s">
+        <v>6103</v>
+      </c>
+      <c r="E3204" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3205" spans="1:5">
+      <c r="A3205" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3205" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3205" t="s">
+        <v>6104</v>
+      </c>
+      <c r="D3205" t="s">
+        <v>6105</v>
+      </c>
+      <c r="E3205" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3206" spans="1:5">
+      <c r="A3206" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3206" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3206" t="s">
+        <v>6106</v>
+      </c>
+      <c r="D3206" t="s">
+        <v>6107</v>
+      </c>
+      <c r="E3206" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3207" spans="1:5">
+      <c r="A3207" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3207" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3207" t="s">
+        <v>6108</v>
+      </c>
+      <c r="D3207" t="s">
+        <v>6109</v>
+      </c>
+      <c r="E3207" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3208" spans="1:5">
+      <c r="A3208" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3208" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3208" t="s">
+        <v>6110</v>
+      </c>
+      <c r="D3208" t="s">
+        <v>6111</v>
+      </c>
+      <c r="E3208" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3209" spans="1:5">
+      <c r="A3209" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3209" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3209" t="s">
+        <v>6112</v>
+      </c>
+      <c r="D3209" t="s">
+        <v>4307</v>
+      </c>
+      <c r="E3209" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3210" spans="1:5">
+      <c r="A3210" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3210" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3210" t="s">
+        <v>6113</v>
+      </c>
+      <c r="D3210" t="s">
+        <v>6114</v>
+      </c>
+      <c r="E3210" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3211" spans="1:5">
+      <c r="A3211" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3211" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3211" t="s">
+        <v>6115</v>
+      </c>
+      <c r="D3211" t="s">
+        <v>6101</v>
+      </c>
+      <c r="E3211" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3212" spans="1:5">
+      <c r="A3212" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3212" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3212" t="s">
+        <v>6116</v>
+      </c>
+      <c r="D3212" t="s">
+        <v>6117</v>
+      </c>
+      <c r="E3212" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3213" spans="1:5">
+      <c r="A3213" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3213" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3213" t="s">
+        <v>6118</v>
+      </c>
+      <c r="D3213" t="s">
+        <v>6119</v>
+      </c>
+      <c r="E3213" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3214" spans="1:5">
+      <c r="A3214" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3214" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3214" t="s">
+        <v>6120</v>
+      </c>
+      <c r="D3214" t="s">
+        <v>6121</v>
+      </c>
+      <c r="E3214" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3215" spans="1:5">
+      <c r="A3215" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3215" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3215" t="s">
+        <v>6122</v>
+      </c>
+      <c r="D3215" t="s">
+        <v>6123</v>
+      </c>
+      <c r="E3215" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3216" spans="1:5">
+      <c r="A3216" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3216" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3216" t="s">
+        <v>6124</v>
+      </c>
+      <c r="D3216" t="s">
+        <v>6125</v>
+      </c>
+      <c r="E3216" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3217" spans="1:5">
+      <c r="A3217" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3217" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3217" t="s">
+        <v>6126</v>
+      </c>
+      <c r="D3217" t="s">
+        <v>6127</v>
+      </c>
+      <c r="E3217" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
@@ -69947,5 +73457,6 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
+  <tableParts count="0"/>
 </worksheet>
 </file>
--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/th_TH.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/th_TH.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5949">
   <si>
     <t>translation_group</t>
   </si>
@@ -10097,7 +10097,7 @@
     <t>Fill in the fields for maximum results when finding your website in search engines.</t>
   </si>
   <si>
-    <t>กรอกข้อมูลในช่องเพื่อให้ได้ผลลัพธ์สูงสุดเมื่อพบเว็บไซต์ของคุณในเครื่องมือค้นหา</t>
+    <t>กรอกข้อมูลในช่องเพื่อให้ได้ผลลัพธ์สูงสุดเมื่อค้นหาเว็บไซต์ของคุณในเครื่องมือค้นหา</t>
   </si>
   <si>
     <t>This is very important for search engines.</t>
@@ -16953,19 +16953,19 @@
     <t>Welcome to Microweber</t>
   </si>
   <si>
-    <t>ยินดีต้อนรับสู่ Microweber</t>
+    <t>ยินดีต้อนรับสู่ไมโครเวเบอร์</t>
   </si>
   <si>
     <t>Use Microweber to build your website, online shop or blog.</t>
   </si>
   <si>
-    <t>ใช้ Microweber เพื่อสร้างเว็บไซต์ร้านค้าออนไลน์หรือบล็อกของคุณ</t>
+    <t>ใช้ Microweber เพื่อสร้างเว็บไซต์ ร้านค้าออนไลน์ หรือบล็อกของคุณ</t>
   </si>
   <si>
     <t>Create and edit content, sell online, manage orders and clients.</t>
   </si>
   <si>
-    <t>สร้างและแก้ไขเนื้อหาขายออนไลน์จัดการคำสั่งซื้อและลูกค้า</t>
+    <t>สร้างและแก้ไขเนื้อหา ขายออนไลน์ จัดการคำสั่งซื้อและลูกค้า</t>
   </si>
   <si>
     <t>Remove</t>
@@ -16974,6 +16974,9 @@
     <t>Abandoned cart's</t>
   </si>
   <si>
+    <t>รถเข็นที่ถูกทิ้งร้าง</t>
+  </si>
+  <si>
     <t>You are using this template.</t>
   </si>
   <si>
@@ -16983,7 +16986,7 @@
     <t>The change will affect only the current page.</t>
   </si>
   <si>
-    <t>การเปลี่ยนแปลงจะมีผลเฉพาะเพจปัจจุบัน</t>
+    <t>การเปลี่ยนแปลงจะมีผลเฉพาะหน้าปัจจุบันเท่านั้น</t>
   </si>
   <si>
     <t>Allow multiple templates</t>
@@ -16995,19 +16998,19 @@
     <t>If you allow multiple templates, you will be abble to use different templates when you create a new pages.</t>
   </si>
   <si>
-    <t>หากคุณอนุญาตหลายเทมเพลตคุณจะสามารถใช้เทมเพลตที่แตกต่างกันได้เมื่อคุณสร้างเพจใหม่</t>
+    <t>หากคุณอนุญาตหลายเทมเพลต คุณจะสามารถใช้เทมเพลตที่แตกต่างกันได้เมื่อคุณสร้างหน้าใหม่</t>
   </si>
   <si>
     <t>System e-mail website settings</t>
   </si>
   <si>
-    <t>การตั้งค่าเว็บไซต์ระบบอีเมล</t>
+    <t>การตั้งค่าเว็บไซต์อีเมลของระบบ</t>
   </si>
   <si>
     <t>Deliver messages related with new registration, password resets and others system functionalities.</t>
   </si>
   <si>
-    <t>ส่งข้อความที่เกี่ยวข้องกับการลงทะเบียนใหม่รีเซ็ตรหัสผ่านและฟังก์ชันระบบอื่น ๆ</t>
+    <t>ส่งข้อความที่เกี่ยวข้องกับการลงทะเบียนใหม่ การรีเซ็ตรหัสผ่าน และการทำงานของระบบอื่นๆ</t>
   </si>
   <si>
     <t>From e-mail address</t>
@@ -17019,7 +17022,7 @@
     <t>Ex. Your Website Name</t>
   </si>
   <si>
-    <t>เช่น ชื่อเว็บไซต์ของคุณ</t>
+    <t>อดีต. ชื่อเว็บไซต์ของคุณ</t>
   </si>
   <si>
     <t>General e-mail provider settings</t>
@@ -17037,7 +17040,7 @@
     <t>The general e-mail provider will deliver all messages related with the website. Including system messages and contact form messages.</t>
   </si>
   <si>
-    <t>ผู้ให้บริการอีเมลทั่วไปจะส่งข้อความทั้งหมดที่เกี่ยวข้องกับเว็บไซต์ รวมถึงข้อความระบบและข้อความแบบฟอร์มการติดต่อ</t>
+    <t>ผู้ให้บริการอีเมลทั่วไปจะส่งข้อความทั้งหมดที่เกี่ยวข้องกับเว็บไซต์ รวมถึงข้อความระบบและข้อความในแบบฟอร์มการติดต่อ</t>
   </si>
   <si>
     <t>Website Logo</t>
@@ -17061,19 +17064,19 @@
     <t>Website Favicon</t>
   </si>
   <si>
-    <t>Favicon เว็บไซต์</t>
+    <t>เว็บไซต์ Favicon</t>
   </si>
   <si>
     <t>Changing default language..</t>
   </si>
   <si>
-    <t>การเปลี่ยนภาษาเริ่มต้น ..</t>
+    <t>เปลี่ยนภาษาเริ่มต้น..</t>
   </si>
   <si>
     <t>Clear cache..</t>
   </si>
   <si>
-    <t>ล้างแคช ..</t>
+    <t>ล้างแคช..</t>
   </si>
   <si>
     <t>Install Multilanguage Module</t>
@@ -17085,28 +17088,31 @@
     <t>Users can register with temporary emails like - Mailinator, MailDrop, Guerrilla...s</t>
   </si>
   <si>
+    <t>ผู้ใช้สามารถลงทะเบียนด้วยอีเมลชั่วคราว เช่น - Mailinator, MailDrop, Guerrilla...s</t>
+  </si>
+  <si>
     <t>Register users can automatically receive an automatic email from you. See the settings and post your messages.</t>
   </si>
   <si>
-    <t>ลงทะเบียนผู้ใช้สามารถรับอีเมลอัตโนมัติจากคุณโดยอัตโนมัติ ดูการตั้งค่าและโพสต์ข้อความของคุณ</t>
+    <t>ผู้ใช้ที่ลงทะเบียนสามารถรับอีเมลอัตโนมัติจากคุณโดยอัตโนมัติ ดูการตั้งค่าและโพสต์ข้อความของคุณ</t>
   </si>
   <si>
     <t>Send email on new user registration to admin users</t>
   </si>
   <si>
-    <t>ส่งอีเมลเกี่ยวกับการลงทะเบียนผู้ใช้ใหม่ไปยังผู้ดูแลระบบ</t>
+    <t>ส่งอีเมลเกี่ยวกับการลงทะเบียนผู้ใช้ใหม่ไปยังผู้ใช้ที่เป็นผู้ดูแลระบบ</t>
   </si>
   <si>
     <t>Do you want adminitrators to receive an e-mail when new user is registered?</t>
   </si>
   <si>
-    <t>คุณต้องการให้ผู้ดูแลระบบได้รับอีเมลเมื่อลงทะเบียนผู้ใช้ใหม่หรือไม่?</t>
+    <t>คุณต้องการให้ผู้ดูแลระบบได้รับอีเมลเมื่อมีการลงทะเบียนผู้ใช้ใหม่หรือไม่?</t>
   </si>
   <si>
     <t>Microweber is free open source drag and drop website builder and CMS. It is under MIT license and we use Laravel PHP framework</t>
   </si>
   <si>
-    <t>Microweber เป็นตัวสร้างเว็บไซต์และ CMS แบบลากและวางแบบโอเพนซอร์สฟรี อยู่ภายใต้ใบอนุญาตของ MIT และเราใช้ Laravel PHP framework</t>
+    <t>Microweber เป็นเครื่องมือสร้างเว็บไซต์แบบลากและวางแบบโอเพ่นซอร์สและ CMS ฟรี อยู่ภายใต้ใบอนุญาต MIT และเราใช้ Laravel PHP framework</t>
   </si>
   <si>
     <t>A Slider</t>
@@ -17118,7 +17124,7 @@
     <t>Shipping to address</t>
   </si>
   <si>
-    <t>จัดส่งไปยังที่อยู่</t>
+    <t>จัดส่งตามที่อยู่</t>
   </si>
   <si>
     <t>Pickup from address</t>
@@ -17184,19 +17190,19 @@
     <t>By default we will use website system e-mail settings.</t>
   </si>
   <si>
-    <t>โดยค่าเริ่มต้นเราจะใช้การตั้งค่าอีเมลระบบเว็บไซต์</t>
+    <t>โดยค่าเริ่มต้น เราจะใช้การตั้งค่าอีเมลของระบบเว็บไซต์</t>
   </si>
   <si>
     <t>You can change the system e-mail settings here.</t>
   </si>
   <si>
-    <t>คุณสามารถเปลี่ยนการตั้งค่าระบบอีเมลได้ที่นี่</t>
+    <t>คุณสามารถเปลี่ยนการตั้งค่าอีเมลของระบบได้ที่นี่</t>
   </si>
   <si>
     <t>Global Receivers</t>
   </si>
   <si>
-    <t>เครื่องรับทั่วโลก</t>
+    <t>ตัวรับสัญญาณทั่วโลก</t>
   </si>
   <si>
     <t>Send contact forms data to global receivers when is submited</t>
@@ -17214,13 +17220,13 @@
     <t>E-mail address of the receivers seperated with coma.</t>
   </si>
   <si>
-    <t>ที่อยู่อีเมลของผู้รับแยกด้วยอาการโคม่า</t>
+    <t>ที่อยู่อีเมลของผู้รับแยกด้วยโคม่า</t>
   </si>
   <si>
     <t>Contact your hosting provider to enable PHP SOAP extension.</t>
   </si>
   <si>
-    <t>ติดต่อผู้ให้บริการโฮสติ้งของคุณเพื่อเปิดใช้งานส่วนขยาย PHP SOAP</t>
+    <t>ติดต่อผู้ให้บริการโฮสต์ของคุณเพื่อเปิดใช้งานส่วนขยาย PHP SOAP</t>
   </si>
   <si>
     <t>Elements</t>
@@ -17241,7 +17247,7 @@
     <t>Remove favicon</t>
   </si>
   <si>
-    <t>ลบไอคอน Fav</t>
+    <t>ลบ favicon</t>
   </si>
   <si>
     <t>Custom</t>
@@ -17250,12 +17256,18 @@
     <t>กำหนดเอง</t>
   </si>
   <si>
+    <t>bxสไลเดอร์</t>
+  </si>
+  <si>
     <t>Schema.org</t>
   </si>
   <si>
     <t>ProductsV2</t>
   </si>
   <si>
+    <t>สินค้าV2</t>
+  </si>
+  <si>
     <t>Timeline</t>
   </si>
   <si>
@@ -17265,15 +17277,21 @@
     <t>White label WHMCS</t>
   </si>
   <si>
-    <t>WHMCS ฉลากสีขาว</t>
+    <t>ป้ายขาว WHMCS</t>
   </si>
   <si>
     <t>Number of the visible testimonials</t>
   </si>
   <si>
+    <t>จำนวนการรับรองที่มองเห็นได้</t>
+  </si>
+  <si>
     <t>Module template has changed</t>
   </si>
   <si>
+    <t>เทมเพลตโมดูลมีการเปลี่ยนแปลง</t>
+  </si>
+  <si>
     <t>Content versions</t>
   </si>
   <si>
@@ -17298,7 +17316,7 @@
     <t>Checked List</t>
   </si>
   <si>
-    <t>รายการที่ตรวจสอบ</t>
+    <t>รายการตรวจสอบ</t>
   </si>
   <si>
     <t>Background Text</t>
@@ -17328,19 +17346,19 @@
     <t>Two text columns with icon and title</t>
   </si>
   <si>
-    <t>คอลัมน์ข้อความสองคอลัมน์พร้อมไอคอนและชื่อเรื่อง</t>
+    <t>คอลัมน์ข้อความ 2 คอลัมน์พร้อมไอคอนและชื่อเรื่อง</t>
   </si>
   <si>
     <t>Image with Title and Text</t>
   </si>
   <si>
-    <t>รูปภาพพร้อมชื่อและข้อความ</t>
+    <t>รูปภาพพร้อมชื่อเรื่องและข้อความ</t>
   </si>
   <si>
     <t>Text with Image and Title</t>
   </si>
   <si>
-    <t>ข้อความพร้อมรูปภาพและชื่อ</t>
+    <t>ข้อความพร้อมรูปภาพและชื่อเรื่อง</t>
   </si>
   <si>
     <t>Text with Image</t>
@@ -17355,18 +17373,21 @@
     <t>Captcha settings</t>
   </si>
   <si>
-    <t>การตั้งค่า Captcha</t>
+    <t>การตั้งค่าแคปต์ชา</t>
   </si>
   <si>
     <t xml:space="preserve">Setup your captcha preferences from </t>
   </si>
   <si>
-    <t xml:space="preserve">ตั้งค่าการตั้งค่า captcha ของคุณจาก </t>
+    <t xml:space="preserve">ตั้งค่ากำหนด captcha ของคุณจาก </t>
   </si>
   <si>
     <t>Add / Edit fields of the form using the custom fields</t>
   </si>
   <si>
+    <t>เพิ่ม / แก้ไขฟิลด์ของฟอร์มโดยใช้ฟิลด์แบบกำหนดเอง</t>
+  </si>
+  <si>
     <t>Current contact form settings</t>
   </si>
   <si>
@@ -17376,19 +17397,19 @@
     <t>Contact form name</t>
   </si>
   <si>
-    <t>ชื่อแบบฟอร์มติดต่อ</t>
+    <t>ชื่อแบบฟอร์มการติดต่อ</t>
   </si>
   <si>
     <t>What is the name of this contact form?</t>
   </si>
   <si>
-    <t>แบบฟอร์มการติดต่อนี้ชื่ออะไร?</t>
+    <t>แบบฟอร์มติดต่อนี้ชื่ออะไร</t>
   </si>
   <si>
     <t>Receivers</t>
   </si>
   <si>
-    <t>ผู้รับ</t>
+    <t>เครื่องรับ</t>
   </si>
   <si>
     <t>Send contact form data to custom receivers when is submited</t>
@@ -17400,19 +17421,19 @@
     <t>Use custom receivers settings for the current contact form.</t>
   </si>
   <si>
-    <t>ใช้การตั้งค่าตัวรับแบบกำหนดเองสำหรับแบบฟอร์มการติดต่อปัจจุบัน</t>
+    <t>ใช้การตั้งค่าผู้รับแบบกำหนดเองสำหรับแบบฟอร์มการติดต่อปัจจุบัน</t>
   </si>
   <si>
     <t>By default we will use contact form global settings.</t>
   </si>
   <si>
-    <t>โดยค่าเริ่มต้นเราจะใช้แบบฟอร์มการติดต่อการตั้งค่าส่วนกลาง</t>
+    <t>ตามค่าเริ่มต้น เราจะใช้การตั้งค่าส่วนกลางของแบบฟอร์มการติดต่อ</t>
   </si>
   <si>
     <t>You can change the contact form global settings here.</t>
   </si>
   <si>
-    <t>คุณสามารถเปลี่ยนการตั้งค่าแบบฟอร์มการติดต่อส่วนกลางได้ที่นี่</t>
+    <t>คุณสามารถเปลี่ยนการตั้งค่าส่วนกลางของแบบฟอร์มการติดต่อได้ที่นี่</t>
   </si>
   <si>
     <t>Auto respond message to user</t>
@@ -17424,25 +17445,25 @@
     <t>Enable auto respond message to user</t>
   </si>
   <si>
-    <t>เปิดใช้งานข้อความตอบกลับอัตโนมัติไปยังผู้ใช้</t>
+    <t>เปิดใช้งานข้อความตอบกลับอัตโนมัติถึงผู้ใช้</t>
   </si>
   <si>
     <t>Allow users to receive "Thank you emails after subscription."</t>
   </si>
   <si>
-    <t>อนุญาตให้ผู้ใช้รับ "อีเมลขอบคุณหลังจากสมัครรับข้อมูล"</t>
+    <t>อนุญาตให้ผู้ใช้รับ "อีเมลขอบคุณหลังจากสมัครสมาชิก"</t>
   </si>
   <si>
     <t>Auto respond subject</t>
   </si>
   <si>
-    <t>ตอบกลับอัตโนมัติเรื่อง</t>
+    <t>หัวข้อตอบกลับอัตโนมัติ</t>
   </si>
   <si>
     <t>Auto responders allows you to set up automated replies to incoming email</t>
   </si>
   <si>
-    <t>ระบบตอบกลับอัตโนมัติช่วยให้คุณสามารถตั้งค่าการตอบกลับอัตโนมัติไปยังอีเมลขาเข้าได้</t>
+    <t>การตอบกลับอัตโนมัติช่วยให้คุณตั้งค่าการตอบกลับอัตโนมัติไปยังอีเมลขาเข้า</t>
   </si>
   <si>
     <t>Auto respond message</t>
@@ -17463,7 +17484,7 @@
     <t>Use custom sender settings for the current contact form.</t>
   </si>
   <si>
-    <t>ใช้การตั้งค่าผู้ส่งแบบกำหนดเองสำหรับแบบฟอร์มติดต่อปัจจุบัน</t>
+    <t>ใช้การตั้งค่าผู้ส่งแบบกำหนดเองสำหรับแบบฟอร์มการติดต่อปัจจุบัน</t>
   </si>
   <si>
     <t>Auto respond from e-mail address</t>
@@ -17481,34 +17502,37 @@
     <t>Auto respond reply to e-mail</t>
   </si>
   <si>
-    <t>ตอบกลับอีเมลตอบกลับอัตโนมัติ</t>
+    <t>ตอบกลับอีเมลอัตโนมัติ</t>
   </si>
   <si>
     <t>When the user receive the auto respond message they can response back to reply to email.</t>
   </si>
   <si>
-    <t>เมื่อผู้ใช้ได้รับข้อความตอบกลับอัตโนมัติพวกเขาสามารถตอบกลับเพื่อตอบกลับอีเมลได้</t>
+    <t>เมื่อผู้ใช้ได้รับข้อความตอบกลับอัตโนมัติ พวกเขาสามารถตอบกลับเพื่อตอบกลับอีเมลได้</t>
   </si>
   <si>
     <t>Auto respond e-mail attachments</t>
   </si>
   <si>
-    <t>ตอบกลับอีเมลแนบอัตโนมัติ</t>
+    <t>ไฟล์แนบอีเมลตอบกลับอัตโนมัติ</t>
   </si>
   <si>
     <t>If you want to attach og images, you must upload them to gallery from 'Add media'</t>
   </si>
   <si>
+    <t>หากคุณต้องการแนบรูปภาพ og คุณต้องอัปโหลดไปยังแกลเลอรีจาก 'เพิ่มสื่อ'</t>
+  </si>
+  <si>
     <t>You don’t have any posts yet</t>
   </si>
   <si>
-    <t>คุณยังไม่มีโพสต์</t>
+    <t>คุณยังไม่มีโพสต์ใดๆ</t>
   </si>
   <si>
     <t>Create your first post right now.</t>
   </si>
   <si>
-    <t>สร้างโพสต์แรกของคุณตอนนี้</t>
+    <t>สร้างโพสต์แรกของคุณทันที</t>
   </si>
   <si>
     <t>Create a Post</t>
@@ -17528,24 +17552,264 @@
                                                             limit each one to 5-8 words.</t>
   </si>
   <si>
-    <t>วิธีเขียนคำอธิบายผลิตภัณฑ์ที่ขาย
-                                                    หนึ่งในสิ่งที่ดีที่สุดที่คุณสามารถทำได้เพื่อให้ร้านค้าของคุณประสบความสำเร็จคือการใช้เวลาในการเขียนคำอธิบายผลิตภัณฑ์ที่ดี คุณต้องการให้ข้อมูลที่ละเอียดและกระชับซึ่งจะดึงดูดผู้มีโอกาสเป็นลูกค้าให้ซื้อ
+    <t>วิธีเขียนคำอธิบายผลิตภัณฑ์ที่ขายได้
+                                                    หนึ่งในสิ่งที่ดีที่สุดที่คุณสามารถทำได้เพื่อให้ร้านค้าของคุณประสบความสำเร็จคือ ใช้เวลาในการเขียนคำอธิบายผลิตภัณฑ์ที่ยอดเยี่ยม คุณต้องการให้ข้อมูลที่ละเอียดแต่กระชับซึ่งจะดึงดูดให้ผู้มีโอกาสเป็นลูกค้าซื้อ
                                                     คิดเหมือนผู้บริโภค
-                                                    คิดถึงสิ่งที่คุณในฐานะผู้บริโภคอยากรู้จากนั้นใส่คุณลักษณะเหล่านั้นในคำอธิบายของคุณ สำหรับเสื้อผ้า: วัสดุที่พอดีตัว สำหรับอาหาร: ส่วนผสมและวิธีการเตรียม สัญลักษณ์แสดงหัวข้อย่อยคือเพื่อนของคุณเมื่อแสดงรายการคุณลักษณะ
-                                                   - พยายาม
-                                                            จำกัด แต่ละคำไม่เกิน 5-8 คำ</t>
+                                                    คิดเกี่ยวกับสิ่งที่คุณในฐานะผู้บริโภคต้องการทราบ จากนั้นใส่คุณลักษณะเหล่านั้นในคำอธิบายของคุณ สำหรับเสื้อผ้า: วัสดุและความพอดี สำหรับอาหาร: ส่วนผสมและวิธีการเตรียม สัญลักษณ์แสดงหัวข้อย่อยเป็นเพื่อนของคุณเมื่อแสดงคุณลักษณะ
+                                                   ลอง
+                                                            จำกัดแต่ละรายการไว้ที่ 5-8 คำ</t>
   </si>
   <si>
     <t>Admin language</t>
   </si>
   <si>
-    <t>ภาษาผู้ดูแลระบบ</t>
+    <t>ภาษาแอดมิน</t>
+  </si>
+  <si>
+    <t>Add post</t>
+  </si>
+  <si>
+    <t>Add subpage</t>
+  </si>
+  <si>
+    <t>เพิ่มหน้าย่อย</t>
+  </si>
+  <si>
+    <t>Category deleted</t>
+  </si>
+  <si>
+    <t>ลบหมวดหมู่แล้ว</t>
+  </si>
+  <si>
+    <t>Content deleted</t>
+  </si>
+  <si>
+    <t>ลบเนื้อหาแล้ว</t>
+  </si>
+  <si>
+    <t>Search categories</t>
+  </si>
+  <si>
+    <t>ค้นหาหมวดหมู่</t>
+  </si>
+  <si>
+    <t>Create content</t>
+  </si>
+  <si>
+    <t>สร้างเนื้อหา</t>
+  </si>
+  <si>
+    <t>Card</t>
+  </si>
+  <si>
+    <t>Any</t>
+  </si>
+  <si>
+    <t>ใดๆ</t>
+  </si>
+  <si>
+    <t>Id Desc</t>
+  </si>
+  <si>
+    <t>รหัสรายละเอียด</t>
+  </si>
+  <si>
+    <t>Id Asc</t>
+  </si>
+  <si>
+    <t>รหัส Asc</t>
   </si>
   <si>
     <t>Limit</t>
   </si>
   <si>
-    <t>ขีดจำกัด</t>
+    <t>จำกัด</t>
+  </si>
+  <si>
+    <t>Are you sure want to delete?</t>
+  </si>
+  <si>
+    <t>คุณแน่ใจหรือไม่ว่าต้องการลบ</t>
+  </si>
+  <si>
+    <t>You don’t have any products in</t>
+  </si>
+  <si>
+    <t>คุณไม่มีสินค้าใน</t>
+  </si>
+  <si>
+    <t>Back to</t>
+  </si>
+  <si>
+    <t>กลับไปยัง</t>
+  </si>
+  <si>
+    <t>categories</t>
+  </si>
+  <si>
+    <t>Custom fields are saved</t>
+  </si>
+  <si>
+    <t>บันทึกฟิลด์ที่กำหนดเองแล้ว</t>
+  </si>
+  <si>
+    <t>Existing fields</t>
+  </si>
+  <si>
+    <t>เขตข้อมูลที่มีอยู่</t>
+  </si>
+  <si>
+    <t>Choose from your existing fields bellow</t>
+  </si>
+  <si>
+    <t>เลือกจากฟิลด์ที่มีอยู่ด้านล่าง</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Add new fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> เพิ่มฟิลด์ใหม่</t>
+  </si>
+  <si>
+    <t>Add new custom field from list bellow</t>
+  </si>
+  <si>
+    <t>เพิ่มฟิลด์ที่กำหนดเองใหม่จากรายการด้านล่าง</t>
+  </si>
+  <si>
+    <t>Your fields</t>
+  </si>
+  <si>
+    <t>เขตข้อมูลของคุณ</t>
+  </si>
+  <si>
+    <t>List of your added custom fields</t>
+  </si>
+  <si>
+    <t>รายการฟิลด์แบบกำหนดเองที่คุณเพิ่ม</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>คลังสินค้า</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>ระบบ</t>
+  </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>Browser Redirect</t>
+  </si>
+  <si>
+    <t>เปลี่ยนเส้นทางเบราว์เซอร์</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>การบูรณาการ</t>
+  </si>
+  <si>
+    <t>Import Export Tool</t>
+  </si>
+  <si>
+    <t>เครื่องมือนำเข้าส่งออก</t>
+  </si>
+  <si>
+    <t>Standalone Updater</t>
+  </si>
+  <si>
+    <t>ตัวอัปเดตแบบสแตนด์อโลน</t>
+  </si>
+  <si>
+    <t>Preview package</t>
+  </si>
+  <si>
+    <t>ดูตัวอย่างแพ็คเกจ</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>การสาธิต</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>ใช้</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>ปัจจุบัน</t>
+  </si>
+  <si>
+    <t>Express</t>
+  </si>
+  <si>
+    <t>ด่วน</t>
+  </si>
+  <si>
+    <t>First Class</t>
+  </si>
+  <si>
+    <t>ชั้นหนึ่ง</t>
+  </si>
+  <si>
+    <t>Click &amp; Collect</t>
+  </si>
+  <si>
+    <t>คลิก &amp; รวบรวม</t>
+  </si>
+  <si>
+    <t>Video Background</t>
+  </si>
+  <si>
+    <t>พื้นหลังวิดีโอ</t>
+  </si>
+  <si>
+    <t>Multi-Language</t>
+  </si>
+  <si>
+    <t>You can activate the Multi-language module to use multiple languages</t>
+  </si>
+  <si>
+    <t>คุณสามารถเปิดใช้งานโมดูลหลายภาษาเพื่อใช้หลายภาษา</t>
+  </si>
+  <si>
+    <t>Multi language mode</t>
+  </si>
+  <si>
+    <t>โหมดหลายภาษา</t>
+  </si>
+  <si>
+    <t>Activate the multi-language mode to have multiple languages for your content.</t>
+  </si>
+  <si>
+    <t>เปิดใช้งานโหมดหลายภาษาเพื่อให้เนื้อหาของคุณมีหลายภาษา</t>
+  </si>
+  <si>
+    <t>Translations are imported</t>
+  </si>
+  <si>
+    <t>การแปลจะถูกนำเข้า</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ไม่พบคำแปลในฐานข้อมูล คุณต้องการนำเข้าการแปลหรือไม่? </t>
+  </si>
+  <si>
+    <t>Your cart is empty.</t>
   </si>
   <si>
     <t>Code Editor</t>
@@ -17554,325 +17818,16 @@
     <t>ตัวแก้ไขโค้ด</t>
   </si>
   <si>
-    <t>Blog</t>
-  </si>
-  <si>
-    <t>titles</t>
-  </si>
-  <si>
-    <t>ชื่อเรื่อง</t>
-  </si>
-  <si>
-    <t>Titles 1</t>
-  </si>
-  <si>
-    <t>ชื่อเรื่อง 1</t>
-  </si>
-  <si>
-    <t>Titles 2</t>
-  </si>
-  <si>
-    <t>ชื่อเรื่อง2</t>
-  </si>
-  <si>
-    <t>Titles 3</t>
-  </si>
-  <si>
-    <t>ชื่อเรื่อง3</t>
-  </si>
-  <si>
-    <t>Titles 4</t>
-  </si>
-  <si>
-    <t>ชื่อเรื่อง 4</t>
-  </si>
-  <si>
-    <t>Titles 5</t>
-  </si>
-  <si>
-    <t>หัวข้อ 5</t>
-  </si>
-  <si>
-    <t>Titles 6</t>
-  </si>
-  <si>
-    <t>ชื่อเรื่อง 6</t>
-  </si>
-  <si>
-    <t>Titles 7</t>
-  </si>
-  <si>
-    <t>หัวข้อ 7</t>
-  </si>
-  <si>
-    <t>Titles 8</t>
-  </si>
-  <si>
-    <t>ชื่อเรื่อง 8</t>
-  </si>
-  <si>
-    <t>text block</t>
-  </si>
-  <si>
-    <t>บล็อกข้อความ</t>
-  </si>
-  <si>
-    <t>Text block 1</t>
-  </si>
-  <si>
-    <t>บล็อกข้อความ 1</t>
-  </si>
-  <si>
-    <t>Text block 2</t>
-  </si>
-  <si>
-    <t>บล็อกข้อความ2</t>
-  </si>
-  <si>
-    <t>Text block 3</t>
-  </si>
-  <si>
-    <t>บล็อกข้อความ 3</t>
-  </si>
-  <si>
-    <t>Text block 4</t>
-  </si>
-  <si>
-    <t>บล็อกข้อความ4</t>
-  </si>
-  <si>
-    <t>Text block 5</t>
-  </si>
-  <si>
-    <t>บล็อกข้อความ5</t>
-  </si>
-  <si>
-    <t>Text block 6</t>
-  </si>
-  <si>
-    <t>บล็อกข้อความ 6</t>
-  </si>
-  <si>
-    <t>Text block 7</t>
-  </si>
-  <si>
-    <t>บล็อกข้อความ7</t>
-  </si>
-  <si>
-    <t>Text block 8</t>
-  </si>
-  <si>
-    <t>บล็อกข้อความ8</t>
-  </si>
-  <si>
-    <t>Text block 9</t>
-  </si>
-  <si>
-    <t>บล็อกข้อความ 9</t>
-  </si>
-  <si>
-    <t>Text block 10</t>
-  </si>
-  <si>
-    <t>บล็อกข้อความ 10</t>
-  </si>
-  <si>
-    <t>Text block 11</t>
-  </si>
-  <si>
-    <t>บล็อกข้อความ 11</t>
-  </si>
-  <si>
-    <t>Text block 12</t>
-  </si>
-  <si>
-    <t>บล็อกข้อความ 12</t>
-  </si>
-  <si>
-    <t>Text block 13</t>
-  </si>
-  <si>
-    <t>บล็อกข้อความ13</t>
-  </si>
-  <si>
-    <t>Text block 14</t>
-  </si>
-  <si>
-    <t>บล็อกข้อความ14</t>
-  </si>
-  <si>
-    <t>Text block 15</t>
-  </si>
-  <si>
-    <t>บล็อกข้อความ 15</t>
-  </si>
-  <si>
-    <t>features</t>
-  </si>
-  <si>
-    <t>Features 1</t>
-  </si>
-  <si>
-    <t>คุณสมบัติ 1</t>
-  </si>
-  <si>
-    <t>Features 2</t>
-  </si>
-  <si>
-    <t>คุณสมบัติ2</t>
-  </si>
-  <si>
-    <t>Features 3</t>
-  </si>
-  <si>
-    <t>คุณสมบัติ 3</t>
-  </si>
-  <si>
-    <t>Features 4</t>
-  </si>
-  <si>
-    <t>คุณสมบัติ 4</t>
-  </si>
-  <si>
-    <t>grids</t>
-  </si>
-  <si>
-    <t>menu</t>
-  </si>
-  <si>
-    <t>Menu - skin-1</t>
-  </si>
-  <si>
-    <t>เมนู - skin-1</t>
-  </si>
-  <si>
-    <t>Menu - skin-2</t>
-  </si>
-  <si>
-    <t>เมนู - skin-2</t>
-  </si>
-  <si>
-    <t>Menu - skin-3</t>
-  </si>
-  <si>
-    <t>เมนู - skin-3</t>
-  </si>
-  <si>
-    <t>Menu - skin-4</t>
-  </si>
-  <si>
-    <t>เมนู - skin-4</t>
-  </si>
-  <si>
-    <t>Menu - skin-5</t>
-  </si>
-  <si>
-    <t>เมนู - skin-5</t>
-  </si>
-  <si>
-    <t>footers</t>
-  </si>
-  <si>
-    <t>ส่วนท้าย</t>
-  </si>
-  <si>
-    <t>Footers 1</t>
-  </si>
-  <si>
-    <t>ส่วนท้าย 1</t>
-  </si>
-  <si>
-    <t>Footers 2</t>
-  </si>
-  <si>
-    <t>ส่วนท้าย2</t>
-  </si>
-  <si>
-    <t>Footers 3</t>
-  </si>
-  <si>
-    <t>ส่วนท้าย 3</t>
-  </si>
-  <si>
-    <t>Footers 4</t>
-  </si>
-  <si>
-    <t>ส่วนท้าย 4</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>อื่นๆ</t>
-  </si>
-  <si>
-    <t>jumbotron</t>
-  </si>
-  <si>
-    <t>Jumbotron 1</t>
-  </si>
-  <si>
-    <t>pricing</t>
-  </si>
-  <si>
-    <t>Pricing 1</t>
-  </si>
-  <si>
-    <t>ราคา 1</t>
-  </si>
-  <si>
     <t>Default layouts</t>
   </si>
   <si>
     <t>เค้าโครงเริ่มต้น</t>
   </si>
   <si>
-    <t>No Content Here</t>
-  </si>
-  <si>
-    <t>ไม่มีเนื้อหาที่นี่</t>
-  </si>
-  <si>
-    <t>Custom fields are saved</t>
-  </si>
-  <si>
-    <t>ฟิลด์ที่กำหนดเองจะถูกบันทึกไว้</t>
-  </si>
-  <si>
-    <t>Existing fields</t>
-  </si>
-  <si>
-    <t>ช่องที่มีอยู่</t>
-  </si>
-  <si>
-    <t>Choose from your existing fields bellow</t>
-  </si>
-  <si>
-    <t>เลือกจากฟิลด์ที่มีอยู่ของคุณร้อง</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Add new fields</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> เพิ่มช่องใหม่</t>
-  </si>
-  <si>
-    <t>Add new custom field from list bellow</t>
-  </si>
-  <si>
-    <t>เพิ่มฟิลด์กำหนดเองใหม่จากรายการร้อง</t>
-  </si>
-  <si>
-    <t>Your fields</t>
-  </si>
-  <si>
-    <t>สาขาของคุณ</t>
-  </si>
-  <si>
-    <t>List of your added custom fields</t>
-  </si>
-  <si>
-    <t>รายการฟิลด์ที่คุณกำหนดเองที่เพิ่มเข้ามา</t>
+    <t>New import</t>
+  </si>
+  <si>
+    <t>นำเข้าใหม่</t>
   </si>
   <si>
     <t xml:space="preserve">repeat vertically </t>
@@ -17884,13 +17839,13 @@
     <t>Font Family</t>
   </si>
   <si>
-    <t>ตระกูลอักษร</t>
+    <t>ตระกูลฟอนต์</t>
   </si>
   <si>
     <t>Overlay</t>
   </si>
   <si>
-    <t>โอเวอร์เลย์</t>
+    <t>ซ้อนทับ</t>
   </si>
   <si>
     <t>Blend mode</t>
@@ -17914,505 +17869,13 @@
     <t>Animations</t>
   </si>
   <si>
-    <t>แอนิเมชั่น</t>
+    <t>ภาพเคลื่อนไหว</t>
   </si>
   <si>
     <t>Reloading styles</t>
   </si>
   <si>
-    <t>โหลดสไตล์</t>
-  </si>
-  <si>
-    <t>Links to</t>
-  </si>
-  <si>
-    <t>ลิงค์ไป</t>
-  </si>
-  <si>
-    <t>Preview package</t>
-  </si>
-  <si>
-    <t>แพ็คเกจตัวอย่าง</t>
-  </si>
-  <si>
-    <t>Demo</t>
-  </si>
-  <si>
-    <t>การสาธิต</t>
-  </si>
-  <si>
-    <t>Use</t>
-  </si>
-  <si>
-    <t>ใช้</t>
-  </si>
-  <si>
-    <t>Current</t>
-  </si>
-  <si>
-    <t>ปัจจุบัน</t>
-  </si>
-  <si>
-    <t>Reorder</t>
-  </si>
-  <si>
-    <t>จัดลำดับใหม่</t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>ระบบ</t>
-  </si>
-  <si>
-    <t>Browser Redirect</t>
-  </si>
-  <si>
-    <t>เปลี่ยนเส้นทางเบราว์เซอร์</t>
-  </si>
-  <si>
-    <t>Integration</t>
-  </si>
-  <si>
-    <t>บูรณาการ</t>
-  </si>
-  <si>
-    <t>Standalone Updater</t>
-  </si>
-  <si>
-    <t>ตัวอัปเดตแบบสแตนด์อโลน</t>
-  </si>
-  <si>
-    <t>You need license key to install this package</t>
-  </si>
-  <si>
-    <t>คุณต้องมีรหัสใบอนุญาตเพื่อติดตั้งแพ็คเกจนี้</t>
-  </si>
-  <si>
-    <t>This package is premium and you must have a license key to install it</t>
-  </si>
-  <si>
-    <t>แพ็คเกจนี้เป็นแบบพรีเมียมและคุณต้องมีรหัสใบอนุญาตจึงจะติดตั้งได้</t>
-  </si>
-  <si>
-    <t>You need license key</t>
-  </si>
-  <si>
-    <t>คุณต้องมีรหัสใบอนุญาต</t>
-  </si>
-  <si>
-    <t>License activated</t>
-  </si>
-  <si>
-    <t>เปิดใช้งานใบอนุญาต</t>
-  </si>
-  <si>
-    <t>Reloading page</t>
-  </si>
-  <si>
-    <t>กำลังโหลดหน้าใหม่</t>
-  </si>
-  <si>
-    <t>License not activated</t>
-  </si>
-  <si>
-    <t>ใบอนุญาตไม่ได้เปิดใช้งาน</t>
-  </si>
-  <si>
-    <t>Url</t>
-  </si>
-  <si>
-    <t>System updates</t>
-  </si>
-  <si>
-    <t>การอัปเดตระบบ</t>
-  </si>
-  <si>
-    <t>Check for system updates</t>
-  </si>
-  <si>
-    <t>ตรวจสอบการอัปเดตระบบ</t>
-  </si>
-  <si>
-    <t>Back to list</t>
-  </si>
-  <si>
-    <t>กลับไปที่รายการ</t>
-  </si>
-  <si>
-    <t>The category must have a name</t>
-  </si>
-  <si>
-    <t>หมวดหมู่ต้องมีชื่อ</t>
-  </si>
-  <si>
-    <t>Is category hidden?</t>
-  </si>
-  <si>
-    <t>หมวดหมู่ถูกซ่อนไว้หรือไม่?</t>
-  </si>
-  <si>
-    <t>If you set this to YES this category will be hidden from the website</t>
-  </si>
-  <si>
-    <t>หากคุณตั้งค่านี้เป็น ใช่ หมวดหมู่นี้จะถูกซ่อนจากเว็บไซต์</t>
-  </si>
-  <si>
-    <t>template-big</t>
-  </si>
-  <si>
-    <t>Mentioning</t>
-  </si>
-  <si>
-    <t>กำลังพูดถึง</t>
-  </si>
-  <si>
-    <t>Your cart is empty.</t>
-  </si>
-  <si>
-    <t>Results found</t>
-  </si>
-  <si>
-    <t>พบผลลัพธ์</t>
-  </si>
-  <si>
-    <t>If you choose the Percent from the select field, it will be calculated automatically from the Price and Offer price of the product.</t>
-  </si>
-  <si>
-    <t>หากคุณเลือกเปอร์เซ็นต์จากฟิลด์เลือก จะมีการคำนวณโดยอัตโนมัติจากราคาและราคาเสนอขายของผลิตภัณฑ์</t>
-  </si>
-  <si>
-    <t>أضف منتج</t>
-  </si>
-  <si>
-    <t>อัจฟ</t>
-  </si>
-  <si>
-    <t>validation</t>
-  </si>
-  <si>
-    <t>custom.multilanguage.title.en_US.required</t>
-  </si>
-  <si>
-    <t>values.multilanguage.title.en_US.</t>
-  </si>
-  <si>
-    <t>ค่า.multilanguage.title.en_US</t>
-  </si>
-  <si>
-    <t>تحرير المنتج</t>
-  </si>
-  <si>
-    <t>iuiuui</t>
-  </si>
-  <si>
-    <t>Proceed to Checkout</t>
-  </si>
-  <si>
-    <t>ดำเนินการชำระเงิน</t>
-  </si>
-  <si>
-    <t>تحرير آخر</t>
-  </si>
-  <si>
-    <t>Displaying</t>
-  </si>
-  <si>
-    <t>กำลังแสดง</t>
-  </si>
-  <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>ของ</t>
-  </si>
-  <si>
-    <t>result(s)</t>
-  </si>
-  <si>
-    <t>ผลลัพธ์)</t>
-  </si>
-  <si>
-    <t>Page Title - Right Breadcrumb</t>
-  </si>
-  <si>
-    <t>ชื่อหน้า - เบรดครัมบ์ขวา</t>
-  </si>
-  <si>
-    <t>Page Title - Left Breadcrumb</t>
-  </si>
-  <si>
-    <t>ชื่อหน้า - เบรดครัมบ์ซ้าย</t>
-  </si>
-  <si>
-    <t>Terms of use</t>
-  </si>
-  <si>
-    <t>เงื่อนไขการใช้บริการ</t>
-  </si>
-  <si>
-    <t>Delivery and returns</t>
-  </si>
-  <si>
-    <t>การจัดส่งและการคืนสินค้า</t>
-  </si>
-  <si>
-    <t>Shipping information</t>
-  </si>
-  <si>
-    <t>About 1</t>
-  </si>
-  <si>
-    <t>เกี่ยวกับ 1</t>
-  </si>
-  <si>
-    <t>About 2</t>
-  </si>
-  <si>
-    <t>เกี่ยวกับ2</t>
-  </si>
-  <si>
-    <t>About 3</t>
-  </si>
-  <si>
-    <t>เกี่ยวกับ 3</t>
-  </si>
-  <si>
-    <t>Home 1</t>
-  </si>
-  <si>
-    <t>หน้าแรก 1</t>
-  </si>
-  <si>
-    <t>Home 2</t>
-  </si>
-  <si>
-    <t>หน้าแรก 2</t>
-  </si>
-  <si>
-    <t>You must click the apply template button to change your template</t>
-  </si>
-  <si>
-    <t>คุณต้องคลิกปุ่มใช้เทมเพลตเพื่อเปลี่ยนเทมเพลตของคุณ</t>
-  </si>
-  <si>
-    <t>Search by criteria</t>
-  </si>
-  <si>
-    <t>ค้นหาตามเกณฑ์</t>
-  </si>
-  <si>
-    <t>Order ID</t>
-  </si>
-  <si>
-    <t>Date from</t>
-  </si>
-  <si>
-    <t>วันที่จาก</t>
-  </si>
-  <si>
-    <t>Set the orders from date</t>
-  </si>
-  <si>
-    <t>ตั้งค่าคำสั่งซื้อจากวันที่</t>
-  </si>
-  <si>
-    <t>Date to</t>
-  </si>
-  <si>
-    <t>วันที่ถึง</t>
-  </si>
-  <si>
-    <t>Set the orders to date</t>
-  </si>
-  <si>
-    <t>ตั้งค่าคำสั่งซื้อเป็นวันที่</t>
-  </si>
-  <si>
-    <t>Order amount from</t>
-  </si>
-  <si>
-    <t>ยอดสั่งซื้อจาก</t>
-  </si>
-  <si>
-    <t>Show the order with minimum amount</t>
-  </si>
-  <si>
-    <t>แสดงคำสั่งซื้อที่มีจำนวนขั้นต่ำ</t>
-  </si>
-  <si>
-    <t>Order amount to</t>
-  </si>
-  <si>
-    <t>ยอดสั่งซื้อถึง</t>
-  </si>
-  <si>
-    <t>Show the order with maximum amount</t>
-  </si>
-  <si>
-    <t>แสดงคำสั่งซื้อที่มีจำนวนเงินสูงสุด</t>
-  </si>
-  <si>
-    <t>Search by products...</t>
-  </si>
-  <si>
-    <t>ค้นหาตามสินค้า...</t>
-  </si>
-  <si>
-    <t>Search by products</t>
-  </si>
-  <si>
-    <t>ค้นหาตามผลิตภัณฑ์</t>
-  </si>
-  <si>
-    <t>Payment Status</t>
-  </si>
-  <si>
-    <t>สถานะการชำระเงิน</t>
-  </si>
-  <si>
-    <t>Free search by phone, name, email etc...</t>
-  </si>
-  <si>
-    <t>ค้นหาฟรีทางโทรศัพท์ ชื่อ อีเมล ฯลฯ...</t>
-  </si>
-  <si>
-    <t>Submit this criteria</t>
-  </si>
-  <si>
-    <t>ส่งเกณฑ์นี้</t>
-  </si>
-  <si>
-    <t>Reset filter</t>
-  </si>
-  <si>
-    <t>รีเซ็ตตัวกรอง</t>
-  </si>
-  <si>
-    <t>Export all</t>
-  </si>
-  <si>
-    <t>ส่งออกทั้งหมด</t>
-  </si>
-  <si>
-    <t>Select sorting</t>
-  </si>
-  <si>
-    <t>เลือกการเรียงลำดับ</t>
-  </si>
-  <si>
-    <t>Order date</t>
-  </si>
-  <si>
-    <t>วันสั่ง</t>
-  </si>
-  <si>
-    <t>[New &gt; Old]</t>
-  </si>
-  <si>
-    <t>[ใหม่ &gt; เก่า]</t>
-  </si>
-  <si>
-    <t>[Old &gt; New]</t>
-  </si>
-  <si>
-    <t>[เก่า &gt; ใหม่]</t>
-  </si>
-  <si>
-    <t>[High &gt; Low]</t>
-  </si>
-  <si>
-    <t>[สูง &gt; ต่ำ]</t>
-  </si>
-  <si>
-    <t>[Low &gt; High]</t>
-  </si>
-  <si>
-    <t>[ต่ำ &gt; สูง]</t>
-  </si>
-  <si>
-    <t>Order completed</t>
-  </si>
-  <si>
-    <t>เสร็จสิ้นการสั่งซื้อ</t>
-  </si>
-  <si>
-    <t>translations from the multilnaguage module have been found in your database.</t>
-  </si>
-  <si>
-    <t>พบคำแปลจากโมดูล multilnaguage ในฐานข้อมูลของคุณ</t>
-  </si>
-  <si>
-    <t>Warning! Changing the default language can break translations on your site.</t>
-  </si>
-  <si>
-    <t>คำเตือน! การเปลี่ยนภาษาเริ่มต้นอาจทำให้การแปลในไซต์ของคุณเสียหาย</t>
-  </si>
-  <si>
-    <t>Are you sure want to continue?</t>
-  </si>
-  <si>
-    <t>คุณแน่ใจหรือว่าต้องการดำเนินการต่อ</t>
-  </si>
-  <si>
-    <t>Warning! The changing default language maybe will break your site.</t>
-  </si>
-  <si>
-    <t>คำเตือน! การเปลี่ยนภาษาเริ่มต้นอาจทำให้ไซต์ของคุณเสียหาย</t>
-  </si>
-  <si>
-    <t>Shipping details</t>
-  </si>
-  <si>
-    <t>รายละเอียดการจัดส่ง</t>
-  </si>
-  <si>
-    <t>Shipping type</t>
-  </si>
-  <si>
-    <t>the order is not completed yet</t>
-  </si>
-  <si>
-    <t>ออเดอร์ยังไม่เสร็จ</t>
-  </si>
-  <si>
-    <t>the order is completed</t>
-  </si>
-  <si>
-    <t>Created at</t>
-  </si>
-  <si>
-    <t>สร้างที่</t>
-  </si>
-  <si>
-    <t>Updated at</t>
-  </si>
-  <si>
-    <t>ปรับปรุงที่</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quick view </t>
-  </si>
-  <si>
-    <t xml:space="preserve">มุมมองด่วน </t>
-  </si>
-  <si>
-    <t>Replace language values</t>
-  </si>
-  <si>
-    <t>แทนที่ค่าภาษา</t>
-  </si>
-  <si>
-    <t>Translations are imported</t>
-  </si>
-  <si>
-    <t>นำเข้าคำแปล</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ไม่พบคำแปลในฐานข้อมูล คุณต้องการนำเข้าการแปลหรือไม่? </t>
+    <t>กำลังโหลดสไตล์</t>
   </si>
 </sst>
 </file>
@@ -18748,7 +18211,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E3217"/>
+  <dimension ref="A1:E3119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -69138,7 +68601,7 @@
         <v>5650</v>
       </c>
       <c r="D2964" t="s">
-        <v>1393</v>
+        <v>5651</v>
       </c>
       <c r="E2964" t="s">
         <v>8</v>
@@ -69152,10 +68615,10 @@
         <v>5</v>
       </c>
       <c r="C2965" t="s">
-        <v>5651</v>
+        <v>5652</v>
       </c>
       <c r="D2965" t="s">
-        <v>5652</v>
+        <v>5653</v>
       </c>
       <c r="E2965" t="s">
         <v>8</v>
@@ -69169,10 +68632,10 @@
         <v>5</v>
       </c>
       <c r="C2966" t="s">
-        <v>5653</v>
+        <v>5654</v>
       </c>
       <c r="D2966" t="s">
-        <v>5654</v>
+        <v>5655</v>
       </c>
       <c r="E2966" t="s">
         <v>8</v>
@@ -69186,10 +68649,10 @@
         <v>5</v>
       </c>
       <c r="C2967" t="s">
-        <v>5655</v>
+        <v>5656</v>
       </c>
       <c r="D2967" t="s">
-        <v>5656</v>
+        <v>5657</v>
       </c>
       <c r="E2967" t="s">
         <v>8</v>
@@ -69203,10 +68666,10 @@
         <v>5</v>
       </c>
       <c r="C2968" t="s">
-        <v>5657</v>
+        <v>5658</v>
       </c>
       <c r="D2968" t="s">
-        <v>5658</v>
+        <v>5659</v>
       </c>
       <c r="E2968" t="s">
         <v>8</v>
@@ -69220,10 +68683,10 @@
         <v>5</v>
       </c>
       <c r="C2969" t="s">
-        <v>5659</v>
+        <v>5660</v>
       </c>
       <c r="D2969" t="s">
-        <v>5660</v>
+        <v>5661</v>
       </c>
       <c r="E2969" t="s">
         <v>8</v>
@@ -69237,10 +68700,10 @@
         <v>5</v>
       </c>
       <c r="C2970" t="s">
-        <v>5661</v>
+        <v>5662</v>
       </c>
       <c r="D2970" t="s">
-        <v>5662</v>
+        <v>5663</v>
       </c>
       <c r="E2970" t="s">
         <v>8</v>
@@ -69254,10 +68717,10 @@
         <v>5</v>
       </c>
       <c r="C2971" t="s">
-        <v>5663</v>
+        <v>5664</v>
       </c>
       <c r="D2971" t="s">
-        <v>5664</v>
+        <v>5665</v>
       </c>
       <c r="E2971" t="s">
         <v>8</v>
@@ -69271,10 +68734,10 @@
         <v>5</v>
       </c>
       <c r="C2972" t="s">
-        <v>5665</v>
+        <v>5666</v>
       </c>
       <c r="D2972" t="s">
-        <v>5666</v>
+        <v>5667</v>
       </c>
       <c r="E2972" t="s">
         <v>8</v>
@@ -69288,10 +68751,10 @@
         <v>5</v>
       </c>
       <c r="C2973" t="s">
-        <v>5667</v>
+        <v>5668</v>
       </c>
       <c r="D2973" t="s">
-        <v>5668</v>
+        <v>5669</v>
       </c>
       <c r="E2973" t="s">
         <v>8</v>
@@ -69305,10 +68768,10 @@
         <v>5</v>
       </c>
       <c r="C2974" t="s">
-        <v>5669</v>
+        <v>5670</v>
       </c>
       <c r="D2974" t="s">
-        <v>5670</v>
+        <v>5671</v>
       </c>
       <c r="E2974" t="s">
         <v>8</v>
@@ -69322,10 +68785,10 @@
         <v>5</v>
       </c>
       <c r="C2975" t="s">
-        <v>5671</v>
+        <v>5672</v>
       </c>
       <c r="D2975" t="s">
-        <v>5672</v>
+        <v>5673</v>
       </c>
       <c r="E2975" t="s">
         <v>8</v>
@@ -69339,10 +68802,10 @@
         <v>5</v>
       </c>
       <c r="C2976" t="s">
-        <v>5673</v>
+        <v>5674</v>
       </c>
       <c r="D2976" t="s">
-        <v>5674</v>
+        <v>5675</v>
       </c>
       <c r="E2976" t="s">
         <v>8</v>
@@ -69356,10 +68819,10 @@
         <v>5</v>
       </c>
       <c r="C2977" t="s">
-        <v>5675</v>
+        <v>5676</v>
       </c>
       <c r="D2977" t="s">
-        <v>5676</v>
+        <v>5677</v>
       </c>
       <c r="E2977" t="s">
         <v>8</v>
@@ -69373,10 +68836,10 @@
         <v>5</v>
       </c>
       <c r="C2978" t="s">
-        <v>5677</v>
+        <v>5678</v>
       </c>
       <c r="D2978" t="s">
-        <v>5678</v>
+        <v>5679</v>
       </c>
       <c r="E2978" t="s">
         <v>8</v>
@@ -69390,10 +68853,10 @@
         <v>5</v>
       </c>
       <c r="C2979" t="s">
-        <v>5679</v>
+        <v>5680</v>
       </c>
       <c r="D2979" t="s">
-        <v>5680</v>
+        <v>5681</v>
       </c>
       <c r="E2979" t="s">
         <v>8</v>
@@ -69407,10 +68870,10 @@
         <v>5</v>
       </c>
       <c r="C2980" t="s">
-        <v>5681</v>
+        <v>5682</v>
       </c>
       <c r="D2980" t="s">
-        <v>5682</v>
+        <v>5683</v>
       </c>
       <c r="E2980" t="s">
         <v>8</v>
@@ -69424,10 +68887,10 @@
         <v>5</v>
       </c>
       <c r="C2981" t="s">
-        <v>5683</v>
+        <v>5684</v>
       </c>
       <c r="D2981" t="s">
-        <v>5684</v>
+        <v>5685</v>
       </c>
       <c r="E2981" t="s">
         <v>8</v>
@@ -69441,10 +68904,10 @@
         <v>5</v>
       </c>
       <c r="C2982" t="s">
-        <v>5685</v>
+        <v>5686</v>
       </c>
       <c r="D2982" t="s">
-        <v>5686</v>
+        <v>5687</v>
       </c>
       <c r="E2982" t="s">
         <v>8</v>
@@ -69458,10 +68921,10 @@
         <v>5</v>
       </c>
       <c r="C2983" t="s">
-        <v>5687</v>
+        <v>5688</v>
       </c>
       <c r="D2983" t="s">
-        <v>3808</v>
+        <v>5689</v>
       </c>
       <c r="E2983" t="s">
         <v>8</v>
@@ -69475,10 +68938,10 @@
         <v>5</v>
       </c>
       <c r="C2984" t="s">
-        <v>5688</v>
+        <v>5690</v>
       </c>
       <c r="D2984" t="s">
-        <v>5689</v>
+        <v>5691</v>
       </c>
       <c r="E2984" t="s">
         <v>8</v>
@@ -69492,10 +68955,10 @@
         <v>5</v>
       </c>
       <c r="C2985" t="s">
-        <v>5690</v>
+        <v>5692</v>
       </c>
       <c r="D2985" t="s">
-        <v>5691</v>
+        <v>5693</v>
       </c>
       <c r="E2985" t="s">
         <v>8</v>
@@ -69509,10 +68972,10 @@
         <v>5</v>
       </c>
       <c r="C2986" t="s">
-        <v>5692</v>
+        <v>5694</v>
       </c>
       <c r="D2986" t="s">
-        <v>5693</v>
+        <v>5695</v>
       </c>
       <c r="E2986" t="s">
         <v>8</v>
@@ -69526,10 +68989,10 @@
         <v>5</v>
       </c>
       <c r="C2987" t="s">
-        <v>5694</v>
+        <v>5696</v>
       </c>
       <c r="D2987" t="s">
-        <v>5695</v>
+        <v>5697</v>
       </c>
       <c r="E2987" t="s">
         <v>8</v>
@@ -69543,10 +69006,10 @@
         <v>5</v>
       </c>
       <c r="C2988" t="s">
-        <v>5696</v>
+        <v>5698</v>
       </c>
       <c r="D2988" t="s">
-        <v>5697</v>
+        <v>5699</v>
       </c>
       <c r="E2988" t="s">
         <v>8</v>
@@ -69560,10 +69023,10 @@
         <v>5</v>
       </c>
       <c r="C2989" t="s">
-        <v>5698</v>
+        <v>5700</v>
       </c>
       <c r="D2989" t="s">
-        <v>5699</v>
+        <v>5701</v>
       </c>
       <c r="E2989" t="s">
         <v>8</v>
@@ -69577,10 +69040,10 @@
         <v>5</v>
       </c>
       <c r="C2990" t="s">
-        <v>5700</v>
+        <v>5702</v>
       </c>
       <c r="D2990" t="s">
-        <v>5701</v>
+        <v>5703</v>
       </c>
       <c r="E2990" t="s">
         <v>8</v>
@@ -69594,10 +69057,10 @@
         <v>5</v>
       </c>
       <c r="C2991" t="s">
-        <v>5702</v>
+        <v>5704</v>
       </c>
       <c r="D2991" t="s">
-        <v>5703</v>
+        <v>5705</v>
       </c>
       <c r="E2991" t="s">
         <v>8</v>
@@ -69611,10 +69074,10 @@
         <v>5</v>
       </c>
       <c r="C2992" t="s">
-        <v>5704</v>
+        <v>5706</v>
       </c>
       <c r="D2992" t="s">
-        <v>5705</v>
+        <v>5707</v>
       </c>
       <c r="E2992" t="s">
         <v>8</v>
@@ -69628,10 +69091,10 @@
         <v>5</v>
       </c>
       <c r="C2993" t="s">
-        <v>5706</v>
+        <v>5708</v>
       </c>
       <c r="D2993" t="s">
-        <v>5707</v>
+        <v>5709</v>
       </c>
       <c r="E2993" t="s">
         <v>8</v>
@@ -69645,10 +69108,10 @@
         <v>5</v>
       </c>
       <c r="C2994" t="s">
-        <v>5708</v>
+        <v>5710</v>
       </c>
       <c r="D2994" t="s">
-        <v>5709</v>
+        <v>5711</v>
       </c>
       <c r="E2994" t="s">
         <v>8</v>
@@ -69662,10 +69125,10 @@
         <v>5</v>
       </c>
       <c r="C2995" t="s">
-        <v>5710</v>
+        <v>5712</v>
       </c>
       <c r="D2995" t="s">
-        <v>5711</v>
+        <v>5713</v>
       </c>
       <c r="E2995" t="s">
         <v>8</v>
@@ -69679,10 +69142,10 @@
         <v>5</v>
       </c>
       <c r="C2996" t="s">
-        <v>5712</v>
+        <v>5714</v>
       </c>
       <c r="D2996" t="s">
-        <v>5713</v>
+        <v>5715</v>
       </c>
       <c r="E2996" t="s">
         <v>8</v>
@@ -69696,10 +69159,10 @@
         <v>5</v>
       </c>
       <c r="C2997" t="s">
-        <v>5714</v>
+        <v>5716</v>
       </c>
       <c r="D2997" t="s">
-        <v>5715</v>
+        <v>5717</v>
       </c>
       <c r="E2997" t="s">
         <v>8</v>
@@ -69713,10 +69176,10 @@
         <v>5</v>
       </c>
       <c r="C2998" t="s">
-        <v>5716</v>
+        <v>5718</v>
       </c>
       <c r="D2998" t="s">
-        <v>5717</v>
+        <v>5719</v>
       </c>
       <c r="E2998" t="s">
         <v>8</v>
@@ -69730,10 +69193,10 @@
         <v>5</v>
       </c>
       <c r="C2999" t="s">
-        <v>5718</v>
+        <v>5720</v>
       </c>
       <c r="D2999" t="s">
-        <v>5719</v>
+        <v>5721</v>
       </c>
       <c r="E2999" t="s">
         <v>8</v>
@@ -69747,10 +69210,10 @@
         <v>5</v>
       </c>
       <c r="C3000" t="s">
-        <v>5720</v>
+        <v>5722</v>
       </c>
       <c r="D3000" t="s">
-        <v>5721</v>
+        <v>5723</v>
       </c>
       <c r="E3000" t="s">
         <v>8</v>
@@ -69764,10 +69227,10 @@
         <v>5</v>
       </c>
       <c r="C3001" t="s">
-        <v>5722</v>
+        <v>5724</v>
       </c>
       <c r="D3001" t="s">
-        <v>5723</v>
+        <v>5725</v>
       </c>
       <c r="E3001" t="s">
         <v>8</v>
@@ -69781,10 +69244,10 @@
         <v>5</v>
       </c>
       <c r="C3002" t="s">
-        <v>5724</v>
+        <v>5726</v>
       </c>
       <c r="D3002" t="s">
-        <v>5725</v>
+        <v>5727</v>
       </c>
       <c r="E3002" t="s">
         <v>8</v>
@@ -69798,10 +69261,10 @@
         <v>5</v>
       </c>
       <c r="C3003" t="s">
-        <v>5726</v>
+        <v>5728</v>
       </c>
       <c r="D3003" t="s">
-        <v>5727</v>
+        <v>5729</v>
       </c>
       <c r="E3003" t="s">
         <v>8</v>
@@ -69815,10 +69278,10 @@
         <v>5</v>
       </c>
       <c r="C3004" t="s">
-        <v>5728</v>
+        <v>5730</v>
       </c>
       <c r="D3004" t="s">
-        <v>5729</v>
+        <v>5731</v>
       </c>
       <c r="E3004" t="s">
         <v>8</v>
@@ -69832,10 +69295,10 @@
         <v>5</v>
       </c>
       <c r="C3005" t="s">
-        <v>5730</v>
+        <v>5732</v>
       </c>
       <c r="D3005" t="s">
-        <v>5731</v>
+        <v>5733</v>
       </c>
       <c r="E3005" t="s">
         <v>8</v>
@@ -69849,10 +69312,10 @@
         <v>5</v>
       </c>
       <c r="C3006" t="s">
-        <v>5732</v>
+        <v>5734</v>
       </c>
       <c r="D3006" t="s">
-        <v>5733</v>
+        <v>5735</v>
       </c>
       <c r="E3006" t="s">
         <v>8</v>
@@ -69866,10 +69329,10 @@
         <v>5</v>
       </c>
       <c r="C3007" t="s">
-        <v>5734</v>
+        <v>5736</v>
       </c>
       <c r="D3007" t="s">
-        <v>5735</v>
+        <v>5737</v>
       </c>
       <c r="E3007" t="s">
         <v>8</v>
@@ -69883,10 +69346,10 @@
         <v>5</v>
       </c>
       <c r="C3008" t="s">
-        <v>5736</v>
+        <v>5738</v>
       </c>
       <c r="D3008" t="s">
-        <v>5737</v>
+        <v>5739</v>
       </c>
       <c r="E3008" t="s">
         <v>8</v>
@@ -69900,7 +69363,7 @@
         <v>5</v>
       </c>
       <c r="C3009" t="s">
-        <v>5738</v>
+        <v>5740</v>
       </c>
       <c r="D3009" t="s">
         <v>3202</v>
@@ -69917,10 +69380,10 @@
         <v>5</v>
       </c>
       <c r="C3010" t="s">
-        <v>5739</v>
+        <v>5741</v>
       </c>
       <c r="D3010" t="s">
-        <v>5740</v>
+        <v>5742</v>
       </c>
       <c r="E3010" t="s">
         <v>8</v>
@@ -69934,10 +69397,10 @@
         <v>5</v>
       </c>
       <c r="C3011" t="s">
-        <v>5741</v>
+        <v>5743</v>
       </c>
       <c r="D3011" t="s">
-        <v>5742</v>
+        <v>5744</v>
       </c>
       <c r="E3011" t="s">
         <v>8</v>
@@ -69954,7 +69417,7 @@
         <v>1531</v>
       </c>
       <c r="D3012" t="s">
-        <v>1531</v>
+        <v>5745</v>
       </c>
       <c r="E3012" t="s">
         <v>8</v>
@@ -69968,10 +69431,10 @@
         <v>5</v>
       </c>
       <c r="C3013" t="s">
-        <v>5743</v>
+        <v>5746</v>
       </c>
       <c r="D3013" t="s">
-        <v>5743</v>
+        <v>5746</v>
       </c>
       <c r="E3013" t="s">
         <v>8</v>
@@ -69985,10 +69448,10 @@
         <v>5</v>
       </c>
       <c r="C3014" t="s">
-        <v>5744</v>
+        <v>5747</v>
       </c>
       <c r="D3014" t="s">
-        <v>131</v>
+        <v>5748</v>
       </c>
       <c r="E3014" t="s">
         <v>8</v>
@@ -70002,10 +69465,10 @@
         <v>5</v>
       </c>
       <c r="C3015" t="s">
-        <v>5745</v>
+        <v>5749</v>
       </c>
       <c r="D3015" t="s">
-        <v>5746</v>
+        <v>5750</v>
       </c>
       <c r="E3015" t="s">
         <v>8</v>
@@ -70019,10 +69482,10 @@
         <v>5</v>
       </c>
       <c r="C3016" t="s">
-        <v>5747</v>
+        <v>5751</v>
       </c>
       <c r="D3016" t="s">
-        <v>5748</v>
+        <v>5752</v>
       </c>
       <c r="E3016" t="s">
         <v>8</v>
@@ -70036,10 +69499,10 @@
         <v>5</v>
       </c>
       <c r="C3017" t="s">
-        <v>5749</v>
+        <v>5753</v>
       </c>
       <c r="D3017" t="s">
-        <v>3300</v>
+        <v>5754</v>
       </c>
       <c r="E3017" t="s">
         <v>8</v>
@@ -70053,10 +69516,10 @@
         <v>5</v>
       </c>
       <c r="C3018" t="s">
-        <v>5750</v>
+        <v>5755</v>
       </c>
       <c r="D3018" t="s">
-        <v>2878</v>
+        <v>5756</v>
       </c>
       <c r="E3018" t="s">
         <v>8</v>
@@ -70070,10 +69533,10 @@
         <v>5</v>
       </c>
       <c r="C3019" t="s">
-        <v>5751</v>
+        <v>5757</v>
       </c>
       <c r="D3019" t="s">
-        <v>5752</v>
+        <v>5758</v>
       </c>
       <c r="E3019" t="s">
         <v>8</v>
@@ -70087,7 +69550,7 @@
         <v>5</v>
       </c>
       <c r="C3020" t="s">
-        <v>5753</v>
+        <v>5759</v>
       </c>
       <c r="D3020" t="s">
         <v>1567</v>
@@ -70104,10 +69567,10 @@
         <v>5</v>
       </c>
       <c r="C3021" t="s">
-        <v>5754</v>
+        <v>5760</v>
       </c>
       <c r="D3021" t="s">
-        <v>5755</v>
+        <v>5761</v>
       </c>
       <c r="E3021" t="s">
         <v>8</v>
@@ -70121,10 +69584,10 @@
         <v>5</v>
       </c>
       <c r="C3022" t="s">
-        <v>5756</v>
+        <v>5762</v>
       </c>
       <c r="D3022" t="s">
-        <v>5757</v>
+        <v>5763</v>
       </c>
       <c r="E3022" t="s">
         <v>8</v>
@@ -70138,10 +69601,10 @@
         <v>5</v>
       </c>
       <c r="C3023" t="s">
-        <v>5758</v>
+        <v>5764</v>
       </c>
       <c r="D3023" t="s">
-        <v>5759</v>
+        <v>5765</v>
       </c>
       <c r="E3023" t="s">
         <v>8</v>
@@ -70155,10 +69618,10 @@
         <v>5</v>
       </c>
       <c r="C3024" t="s">
-        <v>5760</v>
+        <v>5766</v>
       </c>
       <c r="D3024" t="s">
-        <v>5761</v>
+        <v>5767</v>
       </c>
       <c r="E3024" t="s">
         <v>8</v>
@@ -70172,10 +69635,10 @@
         <v>5</v>
       </c>
       <c r="C3025" t="s">
-        <v>5762</v>
+        <v>5768</v>
       </c>
       <c r="D3025" t="s">
-        <v>5763</v>
+        <v>5769</v>
       </c>
       <c r="E3025" t="s">
         <v>8</v>
@@ -70189,10 +69652,10 @@
         <v>5</v>
       </c>
       <c r="C3026" t="s">
-        <v>5764</v>
+        <v>5770</v>
       </c>
       <c r="D3026" t="s">
-        <v>5765</v>
+        <v>5771</v>
       </c>
       <c r="E3026" t="s">
         <v>8</v>
@@ -70206,10 +69669,10 @@
         <v>5</v>
       </c>
       <c r="C3027" t="s">
-        <v>5766</v>
+        <v>5772</v>
       </c>
       <c r="D3027" t="s">
-        <v>5767</v>
+        <v>5773</v>
       </c>
       <c r="E3027" t="s">
         <v>8</v>
@@ -70223,10 +69686,10 @@
         <v>5</v>
       </c>
       <c r="C3028" t="s">
-        <v>5768</v>
+        <v>5774</v>
       </c>
       <c r="D3028" t="s">
-        <v>5769</v>
+        <v>5775</v>
       </c>
       <c r="E3028" t="s">
         <v>8</v>
@@ -70240,10 +69703,10 @@
         <v>5</v>
       </c>
       <c r="C3029" t="s">
-        <v>5770</v>
+        <v>5776</v>
       </c>
       <c r="D3029" t="s">
-        <v>5771</v>
+        <v>5777</v>
       </c>
       <c r="E3029" t="s">
         <v>8</v>
@@ -70257,10 +69720,10 @@
         <v>5</v>
       </c>
       <c r="C3030" t="s">
-        <v>5772</v>
+        <v>5778</v>
       </c>
       <c r="D3030" t="s">
-        <v>5773</v>
+        <v>5779</v>
       </c>
       <c r="E3030" t="s">
         <v>8</v>
@@ -70274,7 +69737,7 @@
         <v>5</v>
       </c>
       <c r="C3031" t="s">
-        <v>5774</v>
+        <v>5780</v>
       </c>
       <c r="D3031" t="s">
         <v>1121</v>
@@ -70291,10 +69754,10 @@
         <v>5</v>
       </c>
       <c r="C3032" t="s">
-        <v>5775</v>
+        <v>5781</v>
       </c>
       <c r="D3032" t="s">
-        <v>5776</v>
+        <v>5782</v>
       </c>
       <c r="E3032" t="s">
         <v>8</v>
@@ -70308,10 +69771,10 @@
         <v>5</v>
       </c>
       <c r="C3033" t="s">
-        <v>5777</v>
+        <v>5783</v>
       </c>
       <c r="D3033" t="s">
-        <v>5778</v>
+        <v>5784</v>
       </c>
       <c r="E3033" t="s">
         <v>8</v>
@@ -70325,10 +69788,10 @@
         <v>5</v>
       </c>
       <c r="C3034" t="s">
-        <v>5779</v>
+        <v>5785</v>
       </c>
       <c r="D3034" t="s">
-        <v>5780</v>
+        <v>5786</v>
       </c>
       <c r="E3034" t="s">
         <v>8</v>
@@ -70342,10 +69805,10 @@
         <v>5</v>
       </c>
       <c r="C3035" t="s">
-        <v>5781</v>
+        <v>5787</v>
       </c>
       <c r="D3035" t="s">
-        <v>4867</v>
+        <v>5788</v>
       </c>
       <c r="E3035" t="s">
         <v>8</v>
@@ -70359,10 +69822,10 @@
         <v>5</v>
       </c>
       <c r="C3036" t="s">
-        <v>5782</v>
+        <v>5789</v>
       </c>
       <c r="D3036" t="s">
-        <v>5783</v>
+        <v>5790</v>
       </c>
       <c r="E3036" t="s">
         <v>8</v>
@@ -70376,10 +69839,10 @@
         <v>5</v>
       </c>
       <c r="C3037" t="s">
-        <v>5784</v>
+        <v>5791</v>
       </c>
       <c r="D3037" t="s">
-        <v>5785</v>
+        <v>5792</v>
       </c>
       <c r="E3037" t="s">
         <v>8</v>
@@ -70393,10 +69856,10 @@
         <v>5</v>
       </c>
       <c r="C3038" t="s">
-        <v>5786</v>
+        <v>5793</v>
       </c>
       <c r="D3038" t="s">
-        <v>5787</v>
+        <v>5794</v>
       </c>
       <c r="E3038" t="s">
         <v>8</v>
@@ -70410,10 +69873,10 @@
         <v>5</v>
       </c>
       <c r="C3039" t="s">
-        <v>5788</v>
+        <v>5795</v>
       </c>
       <c r="D3039" t="s">
-        <v>5789</v>
+        <v>5796</v>
       </c>
       <c r="E3039" t="s">
         <v>8</v>
@@ -70427,10 +69890,10 @@
         <v>5</v>
       </c>
       <c r="C3040" t="s">
-        <v>5790</v>
+        <v>5797</v>
       </c>
       <c r="D3040" t="s">
-        <v>5791</v>
+        <v>5798</v>
       </c>
       <c r="E3040" t="s">
         <v>8</v>
@@ -70444,10 +69907,10 @@
         <v>5</v>
       </c>
       <c r="C3041" t="s">
-        <v>5792</v>
+        <v>5799</v>
       </c>
       <c r="D3041" t="s">
-        <v>5793</v>
+        <v>5800</v>
       </c>
       <c r="E3041" t="s">
         <v>8</v>
@@ -70461,10 +69924,10 @@
         <v>5</v>
       </c>
       <c r="C3042" t="s">
-        <v>5794</v>
+        <v>5801</v>
       </c>
       <c r="D3042" t="s">
-        <v>5795</v>
+        <v>5802</v>
       </c>
       <c r="E3042" t="s">
         <v>8</v>
@@ -70478,10 +69941,10 @@
         <v>5</v>
       </c>
       <c r="C3043" t="s">
-        <v>5796</v>
+        <v>5803</v>
       </c>
       <c r="D3043" t="s">
-        <v>5797</v>
+        <v>5804</v>
       </c>
       <c r="E3043" t="s">
         <v>8</v>
@@ -70495,10 +69958,10 @@
         <v>5</v>
       </c>
       <c r="C3044" t="s">
-        <v>5798</v>
+        <v>5805</v>
       </c>
       <c r="D3044" t="s">
-        <v>5799</v>
+        <v>5806</v>
       </c>
       <c r="E3044" t="s">
         <v>8</v>
@@ -70512,10 +69975,10 @@
         <v>5</v>
       </c>
       <c r="C3045" t="s">
-        <v>5800</v>
+        <v>5807</v>
       </c>
       <c r="D3045" t="s">
-        <v>5801</v>
+        <v>5808</v>
       </c>
       <c r="E3045" t="s">
         <v>8</v>
@@ -70529,10 +69992,10 @@
         <v>5</v>
       </c>
       <c r="C3046" t="s">
-        <v>5802</v>
+        <v>5809</v>
       </c>
       <c r="D3046" t="s">
-        <v>5803</v>
+        <v>5810</v>
       </c>
       <c r="E3046" t="s">
         <v>8</v>
@@ -70546,10 +70009,10 @@
         <v>5</v>
       </c>
       <c r="C3047" t="s">
-        <v>5804</v>
+        <v>5811</v>
       </c>
       <c r="D3047" t="s">
-        <v>5805</v>
+        <v>5812</v>
       </c>
       <c r="E3047" t="s">
         <v>8</v>
@@ -70563,10 +70026,10 @@
         <v>5</v>
       </c>
       <c r="C3048" t="s">
-        <v>5806</v>
+        <v>5813</v>
       </c>
       <c r="D3048" t="s">
-        <v>5807</v>
+        <v>5814</v>
       </c>
       <c r="E3048" t="s">
         <v>8</v>
@@ -70580,7 +70043,7 @@
         <v>5</v>
       </c>
       <c r="C3049" t="s">
-        <v>5808</v>
+        <v>5815</v>
       </c>
       <c r="D3049" t="s">
         <v>3101</v>
@@ -70597,10 +70060,10 @@
         <v>5</v>
       </c>
       <c r="C3050" t="s">
-        <v>5809</v>
+        <v>5816</v>
       </c>
       <c r="D3050" t="s">
-        <v>5810</v>
+        <v>5817</v>
       </c>
       <c r="E3050" t="s">
         <v>8</v>
@@ -70614,10 +70077,10 @@
         <v>5</v>
       </c>
       <c r="C3051" t="s">
-        <v>5811</v>
+        <v>5818</v>
       </c>
       <c r="D3051" t="s">
-        <v>5812</v>
+        <v>5819</v>
       </c>
       <c r="E3051" t="s">
         <v>8</v>
@@ -70631,10 +70094,10 @@
         <v>5</v>
       </c>
       <c r="C3052" t="s">
-        <v>5813</v>
+        <v>5820</v>
       </c>
       <c r="D3052" t="s">
-        <v>5814</v>
+        <v>5821</v>
       </c>
       <c r="E3052" t="s">
         <v>8</v>
@@ -70648,10 +70111,10 @@
         <v>5</v>
       </c>
       <c r="C3053" t="s">
-        <v>5815</v>
+        <v>5822</v>
       </c>
       <c r="D3053" t="s">
-        <v>5816</v>
+        <v>5823</v>
       </c>
       <c r="E3053" t="s">
         <v>8</v>
@@ -70665,10 +70128,10 @@
         <v>5</v>
       </c>
       <c r="C3054" t="s">
-        <v>5817</v>
+        <v>5824</v>
       </c>
       <c r="D3054" t="s">
-        <v>5818</v>
+        <v>5825</v>
       </c>
       <c r="E3054" t="s">
         <v>8</v>
@@ -70682,10 +70145,10 @@
         <v>5</v>
       </c>
       <c r="C3055" t="s">
-        <v>5819</v>
+        <v>5826</v>
       </c>
       <c r="D3055" t="s">
-        <v>5820</v>
+        <v>5827</v>
       </c>
       <c r="E3055" t="s">
         <v>8</v>
@@ -70699,10 +70162,10 @@
         <v>5</v>
       </c>
       <c r="C3056" t="s">
-        <v>5821</v>
+        <v>5828</v>
       </c>
       <c r="D3056" t="s">
-        <v>5822</v>
+        <v>5829</v>
       </c>
       <c r="E3056" t="s">
         <v>8</v>
@@ -70716,10 +70179,10 @@
         <v>5</v>
       </c>
       <c r="C3057" t="s">
-        <v>5823</v>
+        <v>5830</v>
       </c>
       <c r="D3057" t="s">
-        <v>5824</v>
+        <v>5831</v>
       </c>
       <c r="E3057" t="s">
         <v>8</v>
@@ -70733,10 +70196,10 @@
         <v>5</v>
       </c>
       <c r="C3058" t="s">
-        <v>5825</v>
+        <v>5832</v>
       </c>
       <c r="D3058" t="s">
-        <v>4187</v>
+        <v>5833</v>
       </c>
       <c r="E3058" t="s">
         <v>8</v>
@@ -70750,10 +70213,10 @@
         <v>5</v>
       </c>
       <c r="C3059" t="s">
-        <v>5826</v>
+        <v>5834</v>
       </c>
       <c r="D3059" t="s">
-        <v>5827</v>
+        <v>5835</v>
       </c>
       <c r="E3059" t="s">
         <v>8</v>
@@ -70767,10 +70230,10 @@
         <v>5</v>
       </c>
       <c r="C3060" t="s">
-        <v>5828</v>
+        <v>5836</v>
       </c>
       <c r="D3060" t="s">
-        <v>5829</v>
+        <v>5837</v>
       </c>
       <c r="E3060" t="s">
         <v>8</v>
@@ -70784,10 +70247,10 @@
         <v>5</v>
       </c>
       <c r="C3061" t="s">
-        <v>5830</v>
+        <v>5838</v>
       </c>
       <c r="D3061" t="s">
-        <v>5831</v>
+        <v>5839</v>
       </c>
       <c r="E3061" t="s">
         <v>8</v>
@@ -70798,13 +70261,13 @@
         <v>5</v>
       </c>
       <c r="B3062" t="s">
-        <v>5832</v>
+        <v>5840</v>
       </c>
       <c r="C3062" t="s">
-        <v>5833</v>
+        <v>5841</v>
       </c>
       <c r="D3062" t="s">
-        <v>5834</v>
+        <v>5842</v>
       </c>
       <c r="E3062" t="s">
         <v>8</v>
@@ -70818,10 +70281,10 @@
         <v>5</v>
       </c>
       <c r="C3063" t="s">
-        <v>5835</v>
+        <v>5843</v>
       </c>
       <c r="D3063" t="s">
-        <v>5836</v>
+        <v>5844</v>
       </c>
       <c r="E3063" t="s">
         <v>8</v>
@@ -70835,10 +70298,10 @@
         <v>5</v>
       </c>
       <c r="C3064" t="s">
-        <v>5837</v>
+        <v>5845</v>
       </c>
       <c r="D3064" t="s">
-        <v>5838</v>
+        <v>4214</v>
       </c>
       <c r="E3064" t="s">
         <v>8</v>
@@ -70852,10 +70315,10 @@
         <v>5</v>
       </c>
       <c r="C3065" t="s">
-        <v>5839</v>
+        <v>5846</v>
       </c>
       <c r="D3065" t="s">
-        <v>5840</v>
+        <v>5847</v>
       </c>
       <c r="E3065" t="s">
         <v>8</v>
@@ -70869,10 +70332,10 @@
         <v>5</v>
       </c>
       <c r="C3066" t="s">
-        <v>5841</v>
+        <v>5848</v>
       </c>
       <c r="D3066" t="s">
-        <v>2654</v>
+        <v>5849</v>
       </c>
       <c r="E3066" t="s">
         <v>8</v>
@@ -70886,10 +70349,10 @@
         <v>5</v>
       </c>
       <c r="C3067" t="s">
-        <v>5842</v>
+        <v>5850</v>
       </c>
       <c r="D3067" t="s">
-        <v>5843</v>
+        <v>5851</v>
       </c>
       <c r="E3067" t="s">
         <v>8</v>
@@ -70903,10 +70366,10 @@
         <v>5</v>
       </c>
       <c r="C3068" t="s">
-        <v>5844</v>
+        <v>5852</v>
       </c>
       <c r="D3068" t="s">
-        <v>5845</v>
+        <v>5853</v>
       </c>
       <c r="E3068" t="s">
         <v>8</v>
@@ -70920,10 +70383,10 @@
         <v>5</v>
       </c>
       <c r="C3069" t="s">
-        <v>5846</v>
+        <v>5854</v>
       </c>
       <c r="D3069" t="s">
-        <v>5847</v>
+        <v>5855</v>
       </c>
       <c r="E3069" t="s">
         <v>8</v>
@@ -70937,10 +70400,10 @@
         <v>5</v>
       </c>
       <c r="C3070" t="s">
-        <v>5848</v>
+        <v>5856</v>
       </c>
       <c r="D3070" t="s">
-        <v>5849</v>
+        <v>2437</v>
       </c>
       <c r="E3070" t="s">
         <v>8</v>
@@ -70954,10 +70417,10 @@
         <v>5</v>
       </c>
       <c r="C3071" t="s">
-        <v>5850</v>
+        <v>5857</v>
       </c>
       <c r="D3071" t="s">
-        <v>5851</v>
+        <v>5858</v>
       </c>
       <c r="E3071" t="s">
         <v>8</v>
@@ -70971,10 +70434,10 @@
         <v>5</v>
       </c>
       <c r="C3072" t="s">
-        <v>5852</v>
+        <v>5859</v>
       </c>
       <c r="D3072" t="s">
-        <v>5853</v>
+        <v>5860</v>
       </c>
       <c r="E3072" t="s">
         <v>8</v>
@@ -70988,10 +70451,10 @@
         <v>5</v>
       </c>
       <c r="C3073" t="s">
-        <v>5854</v>
+        <v>5861</v>
       </c>
       <c r="D3073" t="s">
-        <v>5855</v>
+        <v>5862</v>
       </c>
       <c r="E3073" t="s">
         <v>8</v>
@@ -71005,10 +70468,10 @@
         <v>5</v>
       </c>
       <c r="C3074" t="s">
-        <v>5856</v>
+        <v>5863</v>
       </c>
       <c r="D3074" t="s">
-        <v>5857</v>
+        <v>5864</v>
       </c>
       <c r="E3074" t="s">
         <v>8</v>
@@ -71022,10 +70485,10 @@
         <v>5</v>
       </c>
       <c r="C3075" t="s">
-        <v>5858</v>
+        <v>5865</v>
       </c>
       <c r="D3075" t="s">
-        <v>5859</v>
+        <v>5866</v>
       </c>
       <c r="E3075" t="s">
         <v>8</v>
@@ -71039,10 +70502,10 @@
         <v>5</v>
       </c>
       <c r="C3076" t="s">
-        <v>5860</v>
+        <v>5867</v>
       </c>
       <c r="D3076" t="s">
-        <v>5861</v>
+        <v>5868</v>
       </c>
       <c r="E3076" t="s">
         <v>8</v>
@@ -71056,10 +70519,10 @@
         <v>5</v>
       </c>
       <c r="C3077" t="s">
-        <v>5862</v>
+        <v>5869</v>
       </c>
       <c r="D3077" t="s">
-        <v>5863</v>
+        <v>5870</v>
       </c>
       <c r="E3077" t="s">
         <v>8</v>
@@ -71073,10 +70536,10 @@
         <v>5</v>
       </c>
       <c r="C3078" t="s">
-        <v>5864</v>
+        <v>5871</v>
       </c>
       <c r="D3078" t="s">
-        <v>5865</v>
+        <v>2131</v>
       </c>
       <c r="E3078" t="s">
         <v>8</v>
@@ -71090,10 +70553,10 @@
         <v>5</v>
       </c>
       <c r="C3079" t="s">
-        <v>5866</v>
+        <v>5872</v>
       </c>
       <c r="D3079" t="s">
-        <v>5867</v>
+        <v>5873</v>
       </c>
       <c r="E3079" t="s">
         <v>8</v>
@@ -71107,10 +70570,10 @@
         <v>5</v>
       </c>
       <c r="C3080" t="s">
-        <v>5868</v>
+        <v>5874</v>
       </c>
       <c r="D3080" t="s">
-        <v>5869</v>
+        <v>5875</v>
       </c>
       <c r="E3080" t="s">
         <v>8</v>
@@ -71124,10 +70587,10 @@
         <v>5</v>
       </c>
       <c r="C3081" t="s">
-        <v>5870</v>
+        <v>5876</v>
       </c>
       <c r="D3081" t="s">
-        <v>5871</v>
+        <v>5877</v>
       </c>
       <c r="E3081" t="s">
         <v>8</v>
@@ -71141,10 +70604,10 @@
         <v>5</v>
       </c>
       <c r="C3082" t="s">
-        <v>5872</v>
+        <v>5878</v>
       </c>
       <c r="D3082" t="s">
-        <v>5873</v>
+        <v>5879</v>
       </c>
       <c r="E3082" t="s">
         <v>8</v>
@@ -71158,10 +70621,10 @@
         <v>5</v>
       </c>
       <c r="C3083" t="s">
-        <v>5874</v>
+        <v>5880</v>
       </c>
       <c r="D3083" t="s">
-        <v>5875</v>
+        <v>5881</v>
       </c>
       <c r="E3083" t="s">
         <v>8</v>
@@ -71175,10 +70638,10 @@
         <v>5</v>
       </c>
       <c r="C3084" t="s">
-        <v>5876</v>
+        <v>5882</v>
       </c>
       <c r="D3084" t="s">
-        <v>5877</v>
+        <v>5883</v>
       </c>
       <c r="E3084" t="s">
         <v>8</v>
@@ -71192,10 +70655,10 @@
         <v>5</v>
       </c>
       <c r="C3085" t="s">
-        <v>5878</v>
+        <v>5884</v>
       </c>
       <c r="D3085" t="s">
-        <v>5879</v>
+        <v>5885</v>
       </c>
       <c r="E3085" t="s">
         <v>8</v>
@@ -71209,10 +70672,10 @@
         <v>5</v>
       </c>
       <c r="C3086" t="s">
-        <v>5880</v>
+        <v>5886</v>
       </c>
       <c r="D3086" t="s">
-        <v>5881</v>
+        <v>5887</v>
       </c>
       <c r="E3086" t="s">
         <v>8</v>
@@ -71226,10 +70689,10 @@
         <v>5</v>
       </c>
       <c r="C3087" t="s">
-        <v>5882</v>
+        <v>5888</v>
       </c>
       <c r="D3087" t="s">
-        <v>5883</v>
+        <v>5889</v>
       </c>
       <c r="E3087" t="s">
         <v>8</v>
@@ -71243,10 +70706,10 @@
         <v>5</v>
       </c>
       <c r="C3088" t="s">
-        <v>5884</v>
+        <v>5890</v>
       </c>
       <c r="D3088" t="s">
-        <v>5885</v>
+        <v>2654</v>
       </c>
       <c r="E3088" t="s">
         <v>8</v>
@@ -71260,10 +70723,10 @@
         <v>5</v>
       </c>
       <c r="C3089" t="s">
-        <v>5886</v>
+        <v>5891</v>
       </c>
       <c r="D3089" t="s">
-        <v>5887</v>
+        <v>5892</v>
       </c>
       <c r="E3089" t="s">
         <v>8</v>
@@ -71277,10 +70740,10 @@
         <v>5</v>
       </c>
       <c r="C3090" t="s">
-        <v>5888</v>
+        <v>5893</v>
       </c>
       <c r="D3090" t="s">
-        <v>5889</v>
+        <v>5894</v>
       </c>
       <c r="E3090" t="s">
         <v>8</v>
@@ -71294,10 +70757,10 @@
         <v>5</v>
       </c>
       <c r="C3091" t="s">
-        <v>5890</v>
+        <v>5895</v>
       </c>
       <c r="D3091" t="s">
-        <v>5891</v>
+        <v>5896</v>
       </c>
       <c r="E3091" t="s">
         <v>8</v>
@@ -71311,10 +70774,10 @@
         <v>5</v>
       </c>
       <c r="C3092" t="s">
-        <v>5892</v>
+        <v>5897</v>
       </c>
       <c r="D3092" t="s">
-        <v>1911</v>
+        <v>5898</v>
       </c>
       <c r="E3092" t="s">
         <v>8</v>
@@ -71328,10 +70791,10 @@
         <v>5</v>
       </c>
       <c r="C3093" t="s">
-        <v>5893</v>
+        <v>5899</v>
       </c>
       <c r="D3093" t="s">
-        <v>5894</v>
+        <v>5900</v>
       </c>
       <c r="E3093" t="s">
         <v>8</v>
@@ -71345,10 +70808,10 @@
         <v>5</v>
       </c>
       <c r="C3094" t="s">
-        <v>5895</v>
+        <v>5901</v>
       </c>
       <c r="D3094" t="s">
-        <v>5896</v>
+        <v>5902</v>
       </c>
       <c r="E3094" t="s">
         <v>8</v>
@@ -71362,10 +70825,10 @@
         <v>5</v>
       </c>
       <c r="C3095" t="s">
-        <v>5897</v>
+        <v>5903</v>
       </c>
       <c r="D3095" t="s">
-        <v>5898</v>
+        <v>5904</v>
       </c>
       <c r="E3095" t="s">
         <v>8</v>
@@ -71379,10 +70842,10 @@
         <v>5</v>
       </c>
       <c r="C3096" t="s">
-        <v>5899</v>
+        <v>5905</v>
       </c>
       <c r="D3096" t="s">
-        <v>5900</v>
+        <v>5906</v>
       </c>
       <c r="E3096" t="s">
         <v>8</v>
@@ -71396,10 +70859,10 @@
         <v>5</v>
       </c>
       <c r="C3097" t="s">
-        <v>5901</v>
+        <v>5907</v>
       </c>
       <c r="D3097" t="s">
-        <v>1077</v>
+        <v>5908</v>
       </c>
       <c r="E3097" t="s">
         <v>8</v>
@@ -71413,10 +70876,10 @@
         <v>5</v>
       </c>
       <c r="C3098" t="s">
-        <v>5902</v>
+        <v>5909</v>
       </c>
       <c r="D3098" t="s">
-        <v>2204</v>
+        <v>5910</v>
       </c>
       <c r="E3098" t="s">
         <v>8</v>
@@ -71430,10 +70893,10 @@
         <v>5</v>
       </c>
       <c r="C3099" t="s">
-        <v>5903</v>
+        <v>5911</v>
       </c>
       <c r="D3099" t="s">
-        <v>5904</v>
+        <v>5912</v>
       </c>
       <c r="E3099" t="s">
         <v>8</v>
@@ -71447,10 +70910,10 @@
         <v>5</v>
       </c>
       <c r="C3100" t="s">
-        <v>5905</v>
+        <v>5913</v>
       </c>
       <c r="D3100" t="s">
-        <v>5906</v>
+        <v>5914</v>
       </c>
       <c r="E3100" t="s">
         <v>8</v>
@@ -71464,10 +70927,10 @@
         <v>5</v>
       </c>
       <c r="C3101" t="s">
-        <v>5907</v>
+        <v>5915</v>
       </c>
       <c r="D3101" t="s">
-        <v>5908</v>
+        <v>1509</v>
       </c>
       <c r="E3101" t="s">
         <v>8</v>
@@ -71481,10 +70944,10 @@
         <v>5</v>
       </c>
       <c r="C3102" t="s">
-        <v>5909</v>
+        <v>5916</v>
       </c>
       <c r="D3102" t="s">
-        <v>5910</v>
+        <v>5917</v>
       </c>
       <c r="E3102" t="s">
         <v>8</v>
@@ -71498,10 +70961,10 @@
         <v>5</v>
       </c>
       <c r="C3103" t="s">
-        <v>5911</v>
+        <v>5918</v>
       </c>
       <c r="D3103" t="s">
-        <v>5912</v>
+        <v>5919</v>
       </c>
       <c r="E3103" t="s">
         <v>8</v>
@@ -71515,10 +70978,10 @@
         <v>5</v>
       </c>
       <c r="C3104" t="s">
-        <v>5913</v>
+        <v>5920</v>
       </c>
       <c r="D3104" t="s">
-        <v>5914</v>
+        <v>5921</v>
       </c>
       <c r="E3104" t="s">
         <v>8</v>
@@ -71532,10 +70995,10 @@
         <v>5</v>
       </c>
       <c r="C3105" t="s">
-        <v>5915</v>
+        <v>5922</v>
       </c>
       <c r="D3105" t="s">
-        <v>5916</v>
+        <v>5923</v>
       </c>
       <c r="E3105" t="s">
         <v>8</v>
@@ -71549,10 +71012,10 @@
         <v>5</v>
       </c>
       <c r="C3106" t="s">
-        <v>5917</v>
+        <v>5924</v>
       </c>
       <c r="D3106" t="s">
-        <v>5918</v>
+        <v>5925</v>
       </c>
       <c r="E3106" t="s">
         <v>8</v>
@@ -71566,10 +71029,10 @@
         <v>5</v>
       </c>
       <c r="C3107" t="s">
-        <v>5919</v>
+        <v>5926</v>
       </c>
       <c r="D3107" t="s">
-        <v>5920</v>
+        <v>2022</v>
       </c>
       <c r="E3107" t="s">
         <v>8</v>
@@ -71583,10 +71046,10 @@
         <v>5</v>
       </c>
       <c r="C3108" t="s">
-        <v>5921</v>
+        <v>5927</v>
       </c>
       <c r="D3108" t="s">
-        <v>5922</v>
+        <v>5928</v>
       </c>
       <c r="E3108" t="s">
         <v>8</v>
@@ -71599,11 +71062,11 @@
       <c r="B3109" t="s">
         <v>5</v>
       </c>
-      <c r="C3109" t="s">
-        <v>5923</v>
-      </c>
-      <c r="D3109" t="s">
-        <v>5924</v>
+      <c r="C3109">
+        <v>404</v>
+      </c>
+      <c r="D3109">
+        <v>404</v>
       </c>
       <c r="E3109" t="s">
         <v>8</v>
@@ -71616,11 +71079,11 @@
       <c r="B3110" t="s">
         <v>5</v>
       </c>
-      <c r="C3110">
-        <v>404</v>
-      </c>
-      <c r="D3110">
-        <v>404</v>
+      <c r="C3110" t="s">
+        <v>5929</v>
+      </c>
+      <c r="D3110" t="s">
+        <v>5930</v>
       </c>
       <c r="E3110" t="s">
         <v>8</v>
@@ -71634,10 +71097,10 @@
         <v>5</v>
       </c>
       <c r="C3111" t="s">
-        <v>5925</v>
+        <v>5931</v>
       </c>
       <c r="D3111" t="s">
-        <v>5925</v>
+        <v>5932</v>
       </c>
       <c r="E3111" t="s">
         <v>8</v>
@@ -71651,10 +71114,10 @@
         <v>5</v>
       </c>
       <c r="C3112" t="s">
-        <v>5926</v>
+        <v>5933</v>
       </c>
       <c r="D3112" t="s">
-        <v>5926</v>
+        <v>5934</v>
       </c>
       <c r="E3112" t="s">
         <v>8</v>
@@ -71668,10 +71131,10 @@
         <v>5</v>
       </c>
       <c r="C3113" t="s">
-        <v>5927</v>
+        <v>5935</v>
       </c>
       <c r="D3113" t="s">
-        <v>742</v>
+        <v>5936</v>
       </c>
       <c r="E3113" t="s">
         <v>8</v>
@@ -71685,10 +71148,10 @@
         <v>5</v>
       </c>
       <c r="C3114" t="s">
-        <v>5928</v>
+        <v>5937</v>
       </c>
       <c r="D3114" t="s">
-        <v>5929</v>
+        <v>5938</v>
       </c>
       <c r="E3114" t="s">
         <v>8</v>
@@ -71702,10 +71165,10 @@
         <v>5</v>
       </c>
       <c r="C3115" t="s">
-        <v>5930</v>
+        <v>5939</v>
       </c>
       <c r="D3115" t="s">
-        <v>5931</v>
+        <v>5940</v>
       </c>
       <c r="E3115" t="s">
         <v>8</v>
@@ -71719,10 +71182,10 @@
         <v>5</v>
       </c>
       <c r="C3116" t="s">
-        <v>5932</v>
+        <v>5941</v>
       </c>
       <c r="D3116" t="s">
-        <v>5933</v>
+        <v>5942</v>
       </c>
       <c r="E3116" t="s">
         <v>8</v>
@@ -71736,10 +71199,10 @@
         <v>5</v>
       </c>
       <c r="C3117" t="s">
-        <v>5934</v>
+        <v>5943</v>
       </c>
       <c r="D3117" t="s">
-        <v>5935</v>
+        <v>5944</v>
       </c>
       <c r="E3117" t="s">
         <v>8</v>
@@ -71753,10 +71216,10 @@
         <v>5</v>
       </c>
       <c r="C3118" t="s">
-        <v>5936</v>
+        <v>5945</v>
       </c>
       <c r="D3118" t="s">
-        <v>5937</v>
+        <v>5946</v>
       </c>
       <c r="E3118" t="s">
         <v>8</v>
@@ -71770,1678 +71233,12 @@
         <v>5</v>
       </c>
       <c r="C3119" t="s">
-        <v>5938</v>
+        <v>5947</v>
       </c>
       <c r="D3119" t="s">
-        <v>5939</v>
+        <v>5948</v>
       </c>
       <c r="E3119" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3120" spans="1:5">
-      <c r="A3120" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3120" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3120" t="s">
-        <v>5940</v>
-      </c>
-      <c r="D3120" t="s">
-        <v>5941</v>
-      </c>
-      <c r="E3120" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3121" spans="1:5">
-      <c r="A3121" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3121" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3121" t="s">
-        <v>5942</v>
-      </c>
-      <c r="D3121" t="s">
-        <v>5943</v>
-      </c>
-      <c r="E3121" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3122" spans="1:5">
-      <c r="A3122" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3122" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3122" t="s">
-        <v>5944</v>
-      </c>
-      <c r="D3122" t="s">
-        <v>5945</v>
-      </c>
-      <c r="E3122" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3123" spans="1:5">
-      <c r="A3123" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3123" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3123" t="s">
-        <v>5946</v>
-      </c>
-      <c r="D3123" t="s">
-        <v>5947</v>
-      </c>
-      <c r="E3123" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3124" spans="1:5">
-      <c r="A3124" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3124" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3124" t="s">
-        <v>5948</v>
-      </c>
-      <c r="D3124" t="s">
-        <v>5949</v>
-      </c>
-      <c r="E3124" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3125" spans="1:5">
-      <c r="A3125" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3125" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3125" t="s">
-        <v>5950</v>
-      </c>
-      <c r="D3125" t="s">
-        <v>5951</v>
-      </c>
-      <c r="E3125" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3126" spans="1:5">
-      <c r="A3126" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3126" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3126" t="s">
-        <v>5952</v>
-      </c>
-      <c r="D3126" t="s">
-        <v>5953</v>
-      </c>
-      <c r="E3126" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3127" spans="1:5">
-      <c r="A3127" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3127" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3127" t="s">
-        <v>5954</v>
-      </c>
-      <c r="D3127" t="s">
-        <v>5955</v>
-      </c>
-      <c r="E3127" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3128" spans="1:5">
-      <c r="A3128" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3128" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3128" t="s">
-        <v>5956</v>
-      </c>
-      <c r="D3128" t="s">
-        <v>5957</v>
-      </c>
-      <c r="E3128" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3129" spans="1:5">
-      <c r="A3129" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3129" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3129" t="s">
-        <v>5958</v>
-      </c>
-      <c r="D3129" t="s">
-        <v>5959</v>
-      </c>
-      <c r="E3129" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3130" spans="1:5">
-      <c r="A3130" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3130" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3130" t="s">
-        <v>5960</v>
-      </c>
-      <c r="D3130" t="s">
-        <v>5961</v>
-      </c>
-      <c r="E3130" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3131" spans="1:5">
-      <c r="A3131" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3131" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3131" t="s">
-        <v>5962</v>
-      </c>
-      <c r="D3131" t="s">
-        <v>5963</v>
-      </c>
-      <c r="E3131" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3132" spans="1:5">
-      <c r="A3132" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3132" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3132" t="s">
-        <v>5964</v>
-      </c>
-      <c r="D3132" t="s">
-        <v>5965</v>
-      </c>
-      <c r="E3132" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3133" spans="1:5">
-      <c r="A3133" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3133" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3133" t="s">
-        <v>5966</v>
-      </c>
-      <c r="D3133" t="s">
-        <v>5967</v>
-      </c>
-      <c r="E3133" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3134" spans="1:5">
-      <c r="A3134" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3134" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3134" t="s">
-        <v>5968</v>
-      </c>
-      <c r="D3134" t="s">
-        <v>5969</v>
-      </c>
-      <c r="E3134" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3135" spans="1:5">
-      <c r="A3135" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3135" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3135" t="s">
-        <v>5970</v>
-      </c>
-      <c r="D3135" t="s">
-        <v>5971</v>
-      </c>
-      <c r="E3135" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3136" spans="1:5">
-      <c r="A3136" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3136" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3136" t="s">
-        <v>5972</v>
-      </c>
-      <c r="D3136" t="s">
-        <v>5973</v>
-      </c>
-      <c r="E3136" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3137" spans="1:5">
-      <c r="A3137" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3137" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3137" t="s">
-        <v>5974</v>
-      </c>
-      <c r="D3137" t="s">
-        <v>5975</v>
-      </c>
-      <c r="E3137" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3138" spans="1:5">
-      <c r="A3138" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3138" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3138" t="s">
-        <v>5976</v>
-      </c>
-      <c r="D3138" t="s">
-        <v>5977</v>
-      </c>
-      <c r="E3138" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3139" spans="1:5">
-      <c r="A3139" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3139" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3139" t="s">
-        <v>5978</v>
-      </c>
-      <c r="D3139" t="s">
-        <v>5979</v>
-      </c>
-      <c r="E3139" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3140" spans="1:5">
-      <c r="A3140" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3140" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3140" t="s">
-        <v>5980</v>
-      </c>
-      <c r="D3140" t="s">
-        <v>5981</v>
-      </c>
-      <c r="E3140" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3141" spans="1:5">
-      <c r="A3141" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3141" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3141" t="s">
-        <v>5982</v>
-      </c>
-      <c r="D3141" t="s">
-        <v>5983</v>
-      </c>
-      <c r="E3141" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3142" spans="1:5">
-      <c r="A3142" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3142" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3142" t="s">
-        <v>5984</v>
-      </c>
-      <c r="D3142" t="s">
-        <v>5985</v>
-      </c>
-      <c r="E3142" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3143" spans="1:5">
-      <c r="A3143" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3143" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3143" t="s">
-        <v>5986</v>
-      </c>
-      <c r="D3143" t="s">
-        <v>5987</v>
-      </c>
-      <c r="E3143" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3144" spans="1:5">
-      <c r="A3144" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3144" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3144" t="s">
-        <v>5988</v>
-      </c>
-      <c r="D3144" t="s">
-        <v>5989</v>
-      </c>
-      <c r="E3144" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3145" spans="1:5">
-      <c r="A3145" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3145" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3145" t="s">
-        <v>5990</v>
-      </c>
-      <c r="D3145" t="s">
-        <v>5991</v>
-      </c>
-      <c r="E3145" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3146" spans="1:5">
-      <c r="A3146" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3146" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3146" t="s">
-        <v>5992</v>
-      </c>
-      <c r="D3146" t="s">
-        <v>5993</v>
-      </c>
-      <c r="E3146" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3147" spans="1:5">
-      <c r="A3147" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3147" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3147" t="s">
-        <v>5994</v>
-      </c>
-      <c r="D3147" t="s">
-        <v>5995</v>
-      </c>
-      <c r="E3147" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3148" spans="1:5">
-      <c r="A3148" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3148" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3148" t="s">
-        <v>5996</v>
-      </c>
-      <c r="D3148" t="s">
-        <v>5996</v>
-      </c>
-      <c r="E3148" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3149" spans="1:5">
-      <c r="A3149" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3149" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3149" t="s">
-        <v>5997</v>
-      </c>
-      <c r="D3149" t="s">
-        <v>5998</v>
-      </c>
-      <c r="E3149" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3150" spans="1:5">
-      <c r="A3150" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3150" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3150" t="s">
-        <v>5999</v>
-      </c>
-      <c r="D3150" t="s">
-        <v>6000</v>
-      </c>
-      <c r="E3150" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3151" spans="1:5">
-      <c r="A3151" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3151" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3151" t="s">
-        <v>6001</v>
-      </c>
-      <c r="D3151" t="s">
-        <v>6002</v>
-      </c>
-      <c r="E3151" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3152" spans="1:5">
-      <c r="A3152" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3152" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3152" t="s">
-        <v>6003</v>
-      </c>
-      <c r="D3152" t="s">
-        <v>6004</v>
-      </c>
-      <c r="E3152" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3153" spans="1:5">
-      <c r="A3153" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3153" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3153" t="s">
-        <v>6005</v>
-      </c>
-      <c r="D3153" t="s">
-        <v>6006</v>
-      </c>
-      <c r="E3153" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3154" spans="1:5">
-      <c r="A3154" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3154" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3154" t="s">
-        <v>6007</v>
-      </c>
-      <c r="D3154" t="s">
-        <v>6008</v>
-      </c>
-      <c r="E3154" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3155" spans="1:5">
-      <c r="A3155" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3155" t="s">
-        <v>6009</v>
-      </c>
-      <c r="C3155" t="s">
-        <v>6010</v>
-      </c>
-      <c r="D3155" t="s">
-        <v>6011</v>
-      </c>
-      <c r="E3155" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3156" spans="1:5">
-      <c r="A3156" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3156" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3156" t="s">
-        <v>6012</v>
-      </c>
-      <c r="D3156" t="s">
-        <v>2022</v>
-      </c>
-      <c r="E3156" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3157" spans="1:5">
-      <c r="A3157" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3157" t="s">
-        <v>5832</v>
-      </c>
-      <c r="C3157" t="s">
-        <v>6013</v>
-      </c>
-      <c r="D3157" t="s">
-        <v>6014</v>
-      </c>
-      <c r="E3157" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3158" spans="1:5">
-      <c r="A3158" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3158" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3158" t="s">
-        <v>6015</v>
-      </c>
-      <c r="D3158" t="s">
-        <v>6016</v>
-      </c>
-      <c r="E3158" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3159" spans="1:5">
-      <c r="A3159" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3159" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3159" t="s">
-        <v>6017</v>
-      </c>
-      <c r="D3159" t="s">
-        <v>6018</v>
-      </c>
-      <c r="E3159" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3160" spans="1:5">
-      <c r="A3160" t="s">
-        <v>6019</v>
-      </c>
-      <c r="B3160" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3160" t="s">
-        <v>6020</v>
-      </c>
-      <c r="D3160" t="s">
-        <v>6020</v>
-      </c>
-      <c r="E3160" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3161" spans="1:5">
-      <c r="A3161" t="s">
-        <v>6019</v>
-      </c>
-      <c r="B3161" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3161" t="s">
-        <v>6021</v>
-      </c>
-      <c r="D3161" t="s">
-        <v>6022</v>
-      </c>
-      <c r="E3161" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3162" spans="1:5">
-      <c r="A3162" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3162" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3162" t="s">
-        <v>6023</v>
-      </c>
-      <c r="D3162" t="s">
-        <v>6023</v>
-      </c>
-      <c r="E3162" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3163" spans="1:5">
-      <c r="A3163" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3163" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3163" t="s">
-        <v>6024</v>
-      </c>
-      <c r="D3163" t="s">
-        <v>6024</v>
-      </c>
-      <c r="E3163" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3164" spans="1:5">
-      <c r="A3164" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3164" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3164" t="s">
-        <v>6025</v>
-      </c>
-      <c r="D3164" t="s">
-        <v>6026</v>
-      </c>
-      <c r="E3164" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3165" spans="1:5">
-      <c r="A3165" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3165" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3165" t="s">
-        <v>6027</v>
-      </c>
-      <c r="D3165" t="s">
-        <v>6027</v>
-      </c>
-      <c r="E3165" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3166" spans="1:5">
-      <c r="A3166" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3166" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3166" t="s">
-        <v>6028</v>
-      </c>
-      <c r="D3166" t="s">
-        <v>6029</v>
-      </c>
-      <c r="E3166" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3167" spans="1:5">
-      <c r="A3167" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3167" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3167" t="s">
-        <v>6030</v>
-      </c>
-      <c r="D3167" t="s">
-        <v>6031</v>
-      </c>
-      <c r="E3167" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3168" spans="1:5">
-      <c r="A3168" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3168" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3168" t="s">
-        <v>6032</v>
-      </c>
-      <c r="D3168" t="s">
-        <v>6033</v>
-      </c>
-      <c r="E3168" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3169" spans="1:5">
-      <c r="A3169" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3169" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3169" t="s">
-        <v>6034</v>
-      </c>
-      <c r="D3169" t="s">
-        <v>6035</v>
-      </c>
-      <c r="E3169" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3170" spans="1:5">
-      <c r="A3170" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3170" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3170" t="s">
-        <v>6036</v>
-      </c>
-      <c r="D3170" t="s">
-        <v>6037</v>
-      </c>
-      <c r="E3170" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3171" spans="1:5">
-      <c r="A3171" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3171" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3171" t="s">
-        <v>6038</v>
-      </c>
-      <c r="D3171" t="s">
-        <v>6039</v>
-      </c>
-      <c r="E3171" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3172" spans="1:5">
-      <c r="A3172" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3172" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3172" t="s">
-        <v>6040</v>
-      </c>
-      <c r="D3172" t="s">
-        <v>6041</v>
-      </c>
-      <c r="E3172" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3173" spans="1:5">
-      <c r="A3173" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3173" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3173" t="s">
-        <v>6042</v>
-      </c>
-      <c r="D3173" t="s">
-        <v>1627</v>
-      </c>
-      <c r="E3173" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3174" spans="1:5">
-      <c r="A3174" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3174" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3174" t="s">
-        <v>6043</v>
-      </c>
-      <c r="D3174" t="s">
-        <v>6044</v>
-      </c>
-      <c r="E3174" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3175" spans="1:5">
-      <c r="A3175" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3175" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3175" t="s">
-        <v>6045</v>
-      </c>
-      <c r="D3175" t="s">
-        <v>6046</v>
-      </c>
-      <c r="E3175" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3176" spans="1:5">
-      <c r="A3176" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3176" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3176" t="s">
-        <v>6047</v>
-      </c>
-      <c r="D3176" t="s">
-        <v>6048</v>
-      </c>
-      <c r="E3176" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3177" spans="1:5">
-      <c r="A3177" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3177" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3177" t="s">
-        <v>6049</v>
-      </c>
-      <c r="D3177" t="s">
-        <v>6050</v>
-      </c>
-      <c r="E3177" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3178" spans="1:5">
-      <c r="A3178" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3178" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3178" t="s">
-        <v>6051</v>
-      </c>
-      <c r="D3178" t="s">
-        <v>6052</v>
-      </c>
-      <c r="E3178" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3179" spans="1:5">
-      <c r="A3179" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3179" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3179" t="s">
-        <v>6053</v>
-      </c>
-      <c r="D3179" t="s">
-        <v>6054</v>
-      </c>
-      <c r="E3179" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3180" spans="1:5">
-      <c r="A3180" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3180" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3180" t="s">
-        <v>6055</v>
-      </c>
-      <c r="D3180" t="s">
-        <v>6056</v>
-      </c>
-      <c r="E3180" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3181" spans="1:5">
-      <c r="A3181" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3181" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3181" t="s">
-        <v>6057</v>
-      </c>
-      <c r="D3181" t="s">
-        <v>1813</v>
-      </c>
-      <c r="E3181" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3182" spans="1:5">
-      <c r="A3182" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3182" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3182" t="s">
-        <v>6058</v>
-      </c>
-      <c r="D3182" t="s">
-        <v>6059</v>
-      </c>
-      <c r="E3182" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3183" spans="1:5">
-      <c r="A3183" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3183" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3183" t="s">
-        <v>6060</v>
-      </c>
-      <c r="D3183" t="s">
-        <v>6061</v>
-      </c>
-      <c r="E3183" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3184" spans="1:5">
-      <c r="A3184" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3184" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3184" t="s">
-        <v>6062</v>
-      </c>
-      <c r="D3184" t="s">
-        <v>6063</v>
-      </c>
-      <c r="E3184" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3185" spans="1:5">
-      <c r="A3185" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3185" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3185" t="s">
-        <v>6064</v>
-      </c>
-      <c r="D3185" t="s">
-        <v>6065</v>
-      </c>
-      <c r="E3185" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3186" spans="1:5">
-      <c r="A3186" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3186" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3186" t="s">
-        <v>6066</v>
-      </c>
-      <c r="D3186" t="s">
-        <v>6067</v>
-      </c>
-      <c r="E3186" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3187" spans="1:5">
-      <c r="A3187" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3187" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3187" t="s">
-        <v>6068</v>
-      </c>
-      <c r="D3187" t="s">
-        <v>6069</v>
-      </c>
-      <c r="E3187" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3188" spans="1:5">
-      <c r="A3188" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3188" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3188" t="s">
-        <v>6070</v>
-      </c>
-      <c r="D3188" t="s">
-        <v>6071</v>
-      </c>
-      <c r="E3188" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3189" spans="1:5">
-      <c r="A3189" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3189" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3189" t="s">
-        <v>6072</v>
-      </c>
-      <c r="D3189" t="s">
-        <v>6073</v>
-      </c>
-      <c r="E3189" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3190" spans="1:5">
-      <c r="A3190" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3190" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3190" t="s">
-        <v>6074</v>
-      </c>
-      <c r="D3190" t="s">
-        <v>6075</v>
-      </c>
-      <c r="E3190" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3191" spans="1:5">
-      <c r="A3191" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3191" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3191" t="s">
-        <v>6076</v>
-      </c>
-      <c r="D3191" t="s">
-        <v>6077</v>
-      </c>
-      <c r="E3191" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3192" spans="1:5">
-      <c r="A3192" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3192" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3192" t="s">
-        <v>6078</v>
-      </c>
-      <c r="D3192" t="s">
-        <v>6079</v>
-      </c>
-      <c r="E3192" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3193" spans="1:5">
-      <c r="A3193" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3193" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3193" t="s">
-        <v>6080</v>
-      </c>
-      <c r="D3193" t="s">
-        <v>6081</v>
-      </c>
-      <c r="E3193" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3194" spans="1:5">
-      <c r="A3194" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3194" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3194" t="s">
-        <v>6082</v>
-      </c>
-      <c r="D3194" t="s">
-        <v>6083</v>
-      </c>
-      <c r="E3194" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3195" spans="1:5">
-      <c r="A3195" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3195" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3195" t="s">
-        <v>6084</v>
-      </c>
-      <c r="D3195" t="s">
-        <v>6085</v>
-      </c>
-      <c r="E3195" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3196" spans="1:5">
-      <c r="A3196" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3196" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3196" t="s">
-        <v>6086</v>
-      </c>
-      <c r="D3196" t="s">
-        <v>6087</v>
-      </c>
-      <c r="E3196" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3197" spans="1:5">
-      <c r="A3197" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3197" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3197" t="s">
-        <v>6088</v>
-      </c>
-      <c r="D3197" t="s">
-        <v>6089</v>
-      </c>
-      <c r="E3197" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3198" spans="1:5">
-      <c r="A3198" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3198" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3198" t="s">
-        <v>6090</v>
-      </c>
-      <c r="D3198" t="s">
-        <v>6091</v>
-      </c>
-      <c r="E3198" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3199" spans="1:5">
-      <c r="A3199" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3199" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3199" t="s">
-        <v>6092</v>
-      </c>
-      <c r="D3199" t="s">
-        <v>6093</v>
-      </c>
-      <c r="E3199" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3200" spans="1:5">
-      <c r="A3200" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3200" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3200" t="s">
-        <v>6094</v>
-      </c>
-      <c r="D3200" t="s">
-        <v>6095</v>
-      </c>
-      <c r="E3200" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3201" spans="1:5">
-      <c r="A3201" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3201" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3201" t="s">
-        <v>6096</v>
-      </c>
-      <c r="D3201" t="s">
-        <v>6097</v>
-      </c>
-      <c r="E3201" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3202" spans="1:5">
-      <c r="A3202" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3202" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3202" t="s">
-        <v>6098</v>
-      </c>
-      <c r="D3202" t="s">
-        <v>6099</v>
-      </c>
-      <c r="E3202" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3203" spans="1:5">
-      <c r="A3203" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3203" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3203" t="s">
-        <v>6100</v>
-      </c>
-      <c r="D3203" t="s">
-        <v>6101</v>
-      </c>
-      <c r="E3203" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3204" spans="1:5">
-      <c r="A3204" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3204" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3204" t="s">
-        <v>6102</v>
-      </c>
-      <c r="D3204" t="s">
-        <v>6103</v>
-      </c>
-      <c r="E3204" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3205" spans="1:5">
-      <c r="A3205" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3205" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3205" t="s">
-        <v>6104</v>
-      </c>
-      <c r="D3205" t="s">
-        <v>6105</v>
-      </c>
-      <c r="E3205" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3206" spans="1:5">
-      <c r="A3206" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3206" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3206" t="s">
-        <v>6106</v>
-      </c>
-      <c r="D3206" t="s">
-        <v>6107</v>
-      </c>
-      <c r="E3206" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3207" spans="1:5">
-      <c r="A3207" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3207" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3207" t="s">
-        <v>6108</v>
-      </c>
-      <c r="D3207" t="s">
-        <v>6109</v>
-      </c>
-      <c r="E3207" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3208" spans="1:5">
-      <c r="A3208" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3208" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3208" t="s">
-        <v>6110</v>
-      </c>
-      <c r="D3208" t="s">
-        <v>6111</v>
-      </c>
-      <c r="E3208" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3209" spans="1:5">
-      <c r="A3209" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3209" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3209" t="s">
-        <v>6112</v>
-      </c>
-      <c r="D3209" t="s">
-        <v>4307</v>
-      </c>
-      <c r="E3209" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3210" spans="1:5">
-      <c r="A3210" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3210" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3210" t="s">
-        <v>6113</v>
-      </c>
-      <c r="D3210" t="s">
-        <v>6114</v>
-      </c>
-      <c r="E3210" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3211" spans="1:5">
-      <c r="A3211" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3211" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3211" t="s">
-        <v>6115</v>
-      </c>
-      <c r="D3211" t="s">
-        <v>6101</v>
-      </c>
-      <c r="E3211" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3212" spans="1:5">
-      <c r="A3212" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3212" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3212" t="s">
-        <v>6116</v>
-      </c>
-      <c r="D3212" t="s">
-        <v>6117</v>
-      </c>
-      <c r="E3212" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3213" spans="1:5">
-      <c r="A3213" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3213" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3213" t="s">
-        <v>6118</v>
-      </c>
-      <c r="D3213" t="s">
-        <v>6119</v>
-      </c>
-      <c r="E3213" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3214" spans="1:5">
-      <c r="A3214" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3214" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3214" t="s">
-        <v>6120</v>
-      </c>
-      <c r="D3214" t="s">
-        <v>6121</v>
-      </c>
-      <c r="E3214" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3215" spans="1:5">
-      <c r="A3215" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3215" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3215" t="s">
-        <v>6122</v>
-      </c>
-      <c r="D3215" t="s">
-        <v>6123</v>
-      </c>
-      <c r="E3215" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3216" spans="1:5">
-      <c r="A3216" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3216" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3216" t="s">
-        <v>6124</v>
-      </c>
-      <c r="D3216" t="s">
-        <v>6125</v>
-      </c>
-      <c r="E3216" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3217" spans="1:5">
-      <c r="A3217" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3217" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3217" t="s">
-        <v>6126</v>
-      </c>
-      <c r="D3217" t="s">
-        <v>6127</v>
-      </c>
-      <c r="E3217" t="s">
         <v>8</v>
       </c>
     </row>
